--- a/script/serra_cipo_serie_temporal_julaout_2020.xlsx
+++ b/script/serra_cipo_serie_temporal_julaout_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\SerraCipo\script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Downloads\SerraCipo\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164AB26B-1D53-411C-825D-C04C35D95997}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A55B9C-EE9B-42C7-B00B-D77C5FBD3BEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{B7846D64-A367-46AC-B413-2EB09A9FB57C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{B7846D64-A367-46AC-B413-2EB09A9FB57C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados diarios" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,21 @@
     <sheet name="Direção do vento" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dados diarios'!$I$1:$I$130</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Dados diarios'!$B$3:$B$125</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Dados diarios'!$G$3:$G$125</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Dados diarios'!$D$3:$D$125</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Dados diarios'!$C$3:$C$125</definedName>
-    <definedName name="serie_temporal_PREC.IMERG.20200701.20201031" localSheetId="0">'Dados diarios'!$D$3:$D$125</definedName>
-    <definedName name="serie_temporal_RH2M.GFS.ANL.20200701.20201031.nc" localSheetId="0">'Dados diarios'!$B$3:$B$125</definedName>
-    <definedName name="serie_temporal_TEMP2M.GFS.ANL.20200701.20201031" localSheetId="0">'Dados diarios'!$C$3:$C$125</definedName>
-    <definedName name="serie_temporal_VENTO10M.GFS.ANL.20200701.20201031.nc_u10m" localSheetId="0">'Dados diarios'!$E$3:$E$125</definedName>
-    <definedName name="serie_temporal_VENTO10M.GFS.ANL.20200701.20201031.nc_v10m" localSheetId="0">'Dados diarios'!$F$3:$F$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dados diarios'!$I$2:$I$131</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Dados diarios'!$D$4:$D$126</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Dados diarios'!$C$4:$C$126</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Dados diarios'!$B$4:$B$126</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Dados diarios'!$G$4:$G$126</definedName>
+    <definedName name="serie_temporal_PREC.IMERG.20200701.20201031" localSheetId="0">'Dados diarios'!$D$4:$D$126</definedName>
+    <definedName name="serie_temporal_RH2M.GFS.ANL.20200701.20201031.nc" localSheetId="0">'Dados diarios'!$B$4:$B$126</definedName>
+    <definedName name="serie_temporal_TEMP2M.GFS.ANL.20200701.20201031" localSheetId="0">'Dados diarios'!$C$4:$C$126</definedName>
+    <definedName name="serie_temporal_VENTO10M.GFS.ANL.20200701.20201031.nc_u10m" localSheetId="0">'Dados diarios'!$E$4:$E$126</definedName>
+    <definedName name="serie_temporal_VENTO10M.GFS.ANL.20200701.20201031.nc_v10m" localSheetId="0">'Dados diarios'!$F$4:$F$126</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Umidade Relativa</t>
   </si>
@@ -224,15 +224,6 @@
     <t>Brisa Leve</t>
   </si>
   <si>
-    <t>[0,2-1,6]</t>
-  </si>
-  <si>
-    <t>[1,6-3,3]</t>
-  </si>
-  <si>
-    <t>[3,3-5,4]</t>
-  </si>
-  <si>
     <t>Frequência de Vento</t>
   </si>
   <si>
@@ -249,6 +240,21 @@
   </si>
   <si>
     <t>Número de dias sem chuva</t>
+  </si>
+  <si>
+    <t>IMERG</t>
+  </si>
+  <si>
+    <t>MODELO GFS - 18UTC</t>
+  </si>
+  <si>
+    <t>(0,2-1,6)</t>
+  </si>
+  <si>
+    <t>(1,6-3,3)</t>
+  </si>
+  <si>
+    <t>(3,3-5,4)</t>
   </si>
 </sst>
 </file>
@@ -282,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +298,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,6 +359,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +466,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Dados diarios'!$B$1:$B$2</c:f>
+              <c:f>'Dados diarios'!$B$2:$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -469,7 +493,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Dados diarios'!$A$3:$A$125</c:f>
+              <c:f>'Dados diarios'!$A$4:$A$126</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="123"/>
@@ -847,7 +871,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dados diarios'!$B$3:$B$125</c:f>
+              <c:f>'Dados diarios'!$B$4:$B$126</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="123"/>
@@ -1249,7 +1273,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Dados diarios'!$C$1:$C$2</c:f>
+              <c:f>'Dados diarios'!$C$2:$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1275,7 +1299,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Dados diarios'!$A$3:$A$125</c:f>
+              <c:f>'Dados diarios'!$A$4:$A$126</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="123"/>
@@ -1653,7 +1677,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dados diarios'!$C$3:$C$125</c:f>
+              <c:f>'Dados diarios'!$C$4:$C$126</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="123"/>
@@ -2192,7 +2216,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2291,7 +2315,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2496,7 +2520,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Dados diarios'!$D$1:$D$2</c:f>
+              <c:f>'Dados diarios'!$D$2:$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2523,7 +2547,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Dados diarios'!$A$3:$A$125</c:f>
+              <c:f>'Dados diarios'!$A$4:$A$126</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="123"/>
@@ -2901,7 +2925,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dados diarios'!$D$3:$D$125</c:f>
+              <c:f>'Dados diarios'!$D$4:$D$126</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="123"/>
@@ -3443,7 +3467,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3626,7 +3650,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Dados diarios'!$G$1:$G$2</c:f>
+              <c:f>'Dados diarios'!$G$2:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3650,7 +3674,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Dados diarios'!$A$3:$A$125</c:f>
+              <c:f>'Dados diarios'!$A$4:$A$126</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="123"/>
@@ -4028,7 +4052,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dados diarios'!$G$3:$G$125</c:f>
+              <c:f>'Dados diarios'!$G$4:$G$126</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="123"/>
@@ -4430,7 +4454,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Dados diarios'!$J$1:$J$2</c:f>
+              <c:f>'Dados diarios'!$J$2:$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4456,7 +4480,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Dados diarios'!$J$3:$J$125</c:f>
+              <c:f>'Dados diarios'!$J$4:$J$126</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="123"/>
@@ -4859,36 +4883,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5024,7 +5018,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5121,7 +5115,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5180,7 +5174,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5352,7 +5346,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -5483,7 +5477,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5533,7 +5527,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5546,16 +5540,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR" sz="1200"/>
                   <a:t>Númmero de dias </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="pt-BR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>(R&lt;=1mm/dia)</a:t>
                 </a:r>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="pt-BR" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5572,7 +5566,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5604,7 +5598,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5718,7 +5712,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> de Velocidade do Vento</a:t>
+              <a:t> de Velocidade do Vento - Julho a Outubro de 2020</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -5787,7 +5781,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -5967,7 +5961,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -6082,7 +6076,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6179,7 +6173,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6192,14 +6186,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR" sz="1200"/>
+              <a:rPr lang="pt-BR" sz="1400"/>
               <a:t>Direção</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="pt-BR" sz="1200" baseline="0"/>
+              <a:rPr lang="pt-BR" sz="1400" baseline="0"/>
               <a:t> predominante do vento - Julho a Outubro/2020</a:t>
             </a:r>
-            <a:endParaRPr lang="pt-BR" sz="1200"/>
+            <a:endParaRPr lang="pt-BR" sz="1400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6216,7 +6210,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6270,7 +6264,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -6455,7 +6449,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6514,7 +6508,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6610,7 +6604,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6623,14 +6617,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1200"/>
+              <a:rPr lang="en-US" sz="1400"/>
               <a:t>Predominância do vento - Julho a Outubro</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
               <a:t> de 2020</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1200"/>
+            <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6647,7 +6641,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6675,7 +6669,12 @@
             </a:schemeClr>
           </a:solidFill>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -6752,7 +6751,12 @@
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -6897,7 +6901,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6956,7 +6960,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7047,7 +7051,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7155,9 +7159,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="pt-BR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -7170,7 +7174,7 @@
         </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="120"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -7230,7 +7234,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7339,9 +7343,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="pt-BR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -7354,7 +7358,7 @@
         </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="120"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -7390,9 +7394,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="pt-BR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -7414,7 +7418,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7517,9 +7521,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="pt-BR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -7577,9 +7581,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="pt-BR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -7601,7 +7605,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7710,9 +7714,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="pt-BR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -7725,7 +7729,7 @@
         </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="120"/>
         <cx:title>
           <cx:tx>
             <cx:rich>
@@ -7770,9 +7774,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="pt-BR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -13783,16 +13787,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1784350</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>74930</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30903</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>840740</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>2540</xdr:rowOff>
+      <xdr:colOff>874606</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171872</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13819,16 +13823,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1784350</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>180340</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>22437</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>875030</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>900430</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>71967</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13855,16 +13859,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1784666</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>2221</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>22753</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>163089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>876299</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>124459</xdr:rowOff>
+      <xdr:colOff>901699</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13893,13 +13897,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>35106</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>32566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>859155</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>128088</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -13936,8 +13940,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="16456206" y="211636"/>
-              <a:ext cx="4573089" cy="2815862"/>
+              <a:off x="16448586" y="398326"/>
+              <a:ext cx="4573089" cy="2838722"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13971,13 +13975,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>972610</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>1788585</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>93980</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14014,8 +14018,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="21142750" y="234315"/>
-              <a:ext cx="4572635" cy="2759075"/>
+              <a:off x="21135130" y="415290"/>
+              <a:ext cx="4565015" cy="2787650"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14049,13 +14053,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>49530</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>30268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>287232</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>78528</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14092,8 +14096,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="25856565" y="209338"/>
-              <a:ext cx="4544907" cy="2764790"/>
+              <a:off x="25835610" y="396028"/>
+              <a:ext cx="4550622" cy="2791460"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14127,13 +14131,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>486834</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>21167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>132927</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>75142</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14170,8 +14174,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="30602979" y="198332"/>
-              <a:ext cx="4528608" cy="2772410"/>
+              <a:off x="30585834" y="386927"/>
+              <a:ext cx="4522893" cy="2797175"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14296,8 +14300,8 @@
       <xdr:rowOff>145732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>286702</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>174307</xdr:rowOff>
     </xdr:to>
@@ -14332,8 +14336,8 @@
       <xdr:rowOff>82867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>343852</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>111442</xdr:rowOff>
     </xdr:to>
@@ -14366,7 +14370,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Guilherme" refreshedDate="44231.439951273147" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="123" xr:uid="{8355AEA8-8534-4B14-B469-DE339CDB4074}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B2:L125" sheet="Dados diarios"/>
+    <worksheetSource ref="B3:L126" sheet="Dados diarios"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="(%)" numFmtId="1">
@@ -14422,7 +14426,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Guilherme" refreshedDate="44231.553814236111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="127" xr:uid="{A50D01BA-A700-4035-AD3A-495E48C4621A}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B2:O129" sheet="Dados diarios"/>
+    <worksheetSource ref="B3:O130" sheet="Dados diarios"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="(%)" numFmtId="1">
@@ -17900,7 +17904,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE6346CF-4F19-4C84-9BEC-461E1ACFB9F5}" name="Tabela dinâmica39" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE6346CF-4F19-4C84-9BEC-461E1ACFB9F5}" name="Tabela dinâmica39" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="1" showAll="0"/>
@@ -17960,7 +17964,7 @@
   <dataFields count="1">
     <dataField name="Contagem de -" fld="9" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="12">
     <chartFormat chart="3" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -18006,6 +18010,96 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="4" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -18020,7 +18114,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED8A6DCF-9EA5-4CED-A93F-1DE61450A9EE}" name="Tabela dinâmica8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED8A6DCF-9EA5-4CED-A93F-1DE61450A9EE}" name="Tabela dinâmica8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="1" showAll="0"/>
@@ -18136,23 +18230,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="serie_temporal_TEMP2M.GFS.ANL.20200701.20201031" connectionId="3" xr16:uid="{16134914-A39E-44D5-951F-EF8140FA1F3C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="serie_temporal_RH2M.GFS.ANL.20200701.20201031.nc" connectionId="2" xr16:uid="{B2FD95F1-6EA7-4609-9396-40AF6E2809C1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="serie_temporal_PREC.IMERG.20200701.20201031" connectionId="1" xr16:uid="{2FE09DB2-8C57-467E-A132-E6CA8C919A90}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="serie_temporal_VENTO10M.GFS.ANL.20200701.20201031.nc_v10m" connectionId="5" xr16:uid="{EB9310E8-F0CF-4FAE-931D-F3DBF2F24762}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="serie_temporal_VENTO10M.GFS.ANL.20200701.20201031.nc_u10m" connectionId="4" xr16:uid="{9361D454-578D-4945-B923-D7063B94E8B3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="serie_temporal_TEMP2M.GFS.ANL.20200701.20201031" connectionId="3" xr16:uid="{16134914-A39E-44D5-951F-EF8140FA1F3C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18452,10 +18546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DF961B-DA8B-42AF-9C91-E2954F467ED3}">
-  <dimension ref="A1:U129"/>
+  <dimension ref="A1:U130"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18476,214 +18570,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="B1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>44013</v>
-      </c>
-      <c r="B3" s="2">
-        <v>58.273699999999998</v>
-      </c>
-      <c r="C3" s="3">
-        <v>23.654</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4.2634599999999997E-4</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3.6794799999999999</v>
-      </c>
-      <c r="F3" s="3">
-        <v>-0.96689800000000004</v>
-      </c>
-      <c r="G3" s="3">
-        <f>SQRT(E3*E3+F3*F3)</f>
-        <v>3.8044007166443441</v>
-      </c>
-      <c r="H3" s="3">
-        <f>G3*3.6</f>
-        <v>13.695842579919638</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f>IF(G3&lt;=0.2,"Calmo",IF(AND(G3&gt;0.2,G3&lt;=1.6),"Aragem",IF(AND(G3&gt;1.6,G3&lt;=3.3),"Brisa Leve",IF(AND(G3&gt;3.3,G3&lt;=5.4),"Brisa Fraca",IF(AND(G3&gt;5.4,G3&lt;=7.9),"Brisa Moderada",)))))</f>
-        <v>Brisa Fraca</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J34" si="0">(1/0.0175432)*ATAN2(E3,F3)+180</f>
-        <v>165.35208275850465</v>
-      </c>
-      <c r="K3" s="1" t="str">
-        <f>IF(J3&gt;348.75,"N",IF(J3&lt;=11.25,"N",IF(AND(J3&gt;11.25,J3&lt;=33.73),"NNE",IF(AND(J3&gt;33.75,J3&lt;=56.25),"NE",IF(AND(J3&gt;56.25,J3&lt;=78.75),"ENE",IF(AND(J3&gt;78.75,J3&lt;=101.25),"E",IF(AND(J3&gt;101.25,J3&lt;=123.75),"ESE",IF(AND(J3&gt;123.75,J3&lt;=146.25),"SE",IF(AND(J3&gt;146.25,J3&lt;=168.75),"SSE",IF(AND(J3&gt;168.75,J3&lt;=191.25),"S",IF(AND(J3&gt;191.25,J3&lt;=213.75),"SSW",IF(AND(J3&gt;213.75,J3&lt;=236.25),"SW",IF(AND(J3&gt;236.25,J3&lt;=258.75),"WSW",IF(AND(J3&gt;258.75,J3&lt;=281.25),"W",IF(AND(J3&gt;281.25,J3&lt;=303.75),"WNW",IF(AND(J3&gt;303.75,J3&lt;=326.25),"NW",IF(AND(J3&gt;326.25,J3&lt;=348.75),"NNW")))))))))))))))))</f>
-        <v>SSE</v>
-      </c>
-      <c r="L3" s="2">
-        <f>IF(B3&lt;=20,1,IF(AND(B3&gt;20,B3&lt;=40),2,IF(AND(B3&gt;40,B3&lt;=60),3,IF(AND(B3&gt;60,B3&lt;=80),4,IF(AND(B3&gt;80,B3&lt;=100),5)))))</f>
-        <v>3</v>
-      </c>
-      <c r="M3" s="2">
-        <f>IF(C3&lt;=20,1,IF(AND(C3&gt;20,C3&lt;=30),2,IF(AND(C3&gt;30,C3&lt;=40),3)))</f>
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="2">
-        <f>IF(D3&lt;=10,1,IF(AND(D3&gt;10,D3&lt;=20),2,IF(AND(D3&gt;20,D3&lt;=30),3,IF(AND(D3&gt;30,D3&lt;=40),4))))</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <f>IF(G3&lt;=1,1,IF(AND(G3&gt;1,G3&lt;=2),2,IF(AND(G3&gt;2,G3&lt;=3),3,IF(AND(G3&gt;3,G3&lt;=4),4,IF(AND(G3&gt;4,G3&lt;=5),5)))))</f>
-        <v>4</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B4" s="2">
-        <v>62.632599999999996</v>
+        <v>58.273699999999998</v>
       </c>
       <c r="C4" s="3">
-        <v>22.851099999999999</v>
+        <v>23.654</v>
       </c>
       <c r="D4" s="3">
-        <v>0.12559600000000001</v>
+        <v>4.2634599999999997E-4</v>
       </c>
       <c r="E4" s="3">
-        <v>2.7960799999999999</v>
+        <v>3.6794799999999999</v>
       </c>
       <c r="F4" s="3">
-        <v>-1.4333199999999999</v>
+        <v>-0.96689800000000004</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G67" si="1">SQRT(E4*E4+F4*F4)</f>
-        <v>3.1420486292863132</v>
+        <f>SQRT(E4*E4+F4*F4)</f>
+        <v>3.8044007166443441</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H67" si="2">G4*3.6</f>
-        <v>11.311375065430727</v>
+        <f>G4*3.6</f>
+        <v>13.695842579919638</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I67" si="3">IF(G4&lt;=0.2,"Calmo",IF(AND(G4&gt;0.2,G4&lt;=1.6),"Aragem",IF(AND(G4&gt;1.6,G4&lt;=3.3),"Brisa Leve",IF(AND(G4&gt;3.3,G4&lt;=5.4),"Brisa Fraca",IF(AND(G4&gt;5.4,G4&lt;=7.9),"Brisa Moderada",)))))</f>
-        <v>Brisa Leve</v>
+        <f>IF(G4&lt;=0.2,"Calmo",IF(AND(G4&gt;0.2,G4&lt;=1.6),"Aragem",IF(AND(G4&gt;1.6,G4&lt;=3.3),"Brisa Leve",IF(AND(G4&gt;3.3,G4&lt;=5.4),"Brisa Fraca",IF(AND(G4&gt;5.4,G4&lt;=7.9),"Brisa Moderada",)))))</f>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="0"/>
-        <v>152.99861409569459</v>
+        <f t="shared" ref="J4:J35" si="0">(1/0.0175432)*ATAN2(E4,F4)+180</f>
+        <v>165.35208275850465</v>
       </c>
       <c r="K4" s="1" t="str">
-        <f t="shared" ref="K4:K67" si="4">IF(J4&gt;348.75,"N",IF(J4&lt;=11.25,"N",IF(AND(J4&gt;11.25,J4&lt;=33.73),"NNE",IF(AND(J4&gt;33.75,J4&lt;=56.25),"NE",IF(AND(J4&gt;56.25,J4&lt;=78.75),"ENE",IF(AND(J4&gt;78.75,J4&lt;=101.25),"E",IF(AND(J4&gt;101.25,J4&lt;=123.75),"ESE",IF(AND(J4&gt;123.75,J4&lt;=146.25),"SE",IF(AND(J4&gt;146.25,J4&lt;=168.75),"SSE",IF(AND(J4&gt;168.75,J4&lt;=191.25),"S",IF(AND(J4&gt;191.25,J4&lt;=213.75),"SSW",IF(AND(J4&gt;213.75,J4&lt;=236.25),"SW",IF(AND(J4&gt;236.25,J4&lt;=258.75),"WSW",IF(AND(J4&gt;258.75,J4&lt;=281.25),"W",IF(AND(J4&gt;281.25,J4&lt;=303.75),"WNW",IF(AND(J4&gt;303.75,J4&lt;=326.25),"NW",IF(AND(J4&gt;326.25,J4&lt;=348.75),"NNW")))))))))))))))))</f>
+        <f>IF(J4&gt;348.75,"N",IF(J4&lt;=11.25,"N",IF(AND(J4&gt;11.25,J4&lt;=33.73),"NNE",IF(AND(J4&gt;33.75,J4&lt;=56.25),"NE",IF(AND(J4&gt;56.25,J4&lt;=78.75),"ENE",IF(AND(J4&gt;78.75,J4&lt;=101.25),"E",IF(AND(J4&gt;101.25,J4&lt;=123.75),"ESE",IF(AND(J4&gt;123.75,J4&lt;=146.25),"SE",IF(AND(J4&gt;146.25,J4&lt;=168.75),"SSE",IF(AND(J4&gt;168.75,J4&lt;=191.25),"S",IF(AND(J4&gt;191.25,J4&lt;=213.75),"SSW",IF(AND(J4&gt;213.75,J4&lt;=236.25),"SW",IF(AND(J4&gt;236.25,J4&lt;=258.75),"WSW",IF(AND(J4&gt;258.75,J4&lt;=281.25),"W",IF(AND(J4&gt;281.25,J4&lt;=303.75),"WNW",IF(AND(J4&gt;303.75,J4&lt;=326.25),"NW",IF(AND(J4&gt;326.25,J4&lt;=348.75),"NNW")))))))))))))))))</f>
         <v>SSE</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" ref="L4:L67" si="5">IF(B4&lt;=20,1,IF(AND(B4&gt;20,B4&lt;=40),2,IF(AND(B4&gt;40,B4&lt;=60),3,IF(AND(B4&gt;60,B4&lt;=80),4,IF(AND(B4&gt;80,B4&lt;=100),5)))))</f>
-        <v>4</v>
+        <f>IF(B4&lt;=20,1,IF(AND(B4&gt;20,B4&lt;=40),2,IF(AND(B4&gt;40,B4&lt;=60),3,IF(AND(B4&gt;60,B4&lt;=80),4,IF(AND(B4&gt;80,B4&lt;=100),5)))))</f>
+        <v>3</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" ref="M4:M67" si="6">IF(C4&lt;=20,1,IF(AND(C4&gt;20,C4&lt;=30),2,IF(AND(C4&gt;30,C4&lt;=40),3)))</f>
+        <f>IF(C4&lt;=20,1,IF(AND(C4&gt;20,C4&lt;=30),2,IF(AND(C4&gt;30,C4&lt;=40),3)))</f>
         <v>2</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" ref="N4:N67" si="7">IF(D4&lt;=10,1,IF(AND(D4&gt;10,D4&lt;=20),2,IF(AND(D4&gt;20,D4&lt;=30),3,IF(AND(D4&gt;30,D4&lt;=40),4))))</f>
+        <f>IF(D4&lt;=10,1,IF(AND(D4&gt;10,D4&lt;=20),2,IF(AND(D4&gt;20,D4&lt;=30),3,IF(AND(D4&gt;30,D4&lt;=40),4))))</f>
         <v>1</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:O67" si="8">IF(G4&lt;=1,1,IF(AND(G4&gt;1,G4&lt;=2),2,IF(AND(G4&gt;2,G4&lt;=3),3,IF(AND(G4&gt;3,G4&lt;=4),4,IF(AND(G4&gt;4,G4&lt;=5),5)))))</f>
+        <f>IF(G4&lt;=1,1,IF(AND(G4&gt;1,G4&lt;=2),2,IF(AND(G4&gt;2,G4&lt;=3),3,IF(AND(G4&gt;3,G4&lt;=4),4,IF(AND(G4&gt;4,G4&lt;=5),5)))))</f>
         <v>4</v>
       </c>
       <c r="P4" s="2"/>
@@ -18695,58 +18745,58 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B5" s="2">
-        <v>47.029000000000003</v>
+        <v>62.632599999999996</v>
       </c>
       <c r="C5" s="3">
-        <v>23.9374</v>
+        <v>22.851099999999999</v>
       </c>
       <c r="D5" s="3">
-        <v>0.441552</v>
+        <v>0.12559600000000001</v>
       </c>
       <c r="E5" s="3">
-        <v>2.9545599999999999</v>
+        <v>2.7960799999999999</v>
       </c>
       <c r="F5" s="3">
-        <v>-0.45636399999999999</v>
+        <v>-1.4333199999999999</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="1"/>
-        <v>2.9895974468305928</v>
+        <f t="shared" ref="G5:G68" si="1">SQRT(E5*E5+F5*F5)</f>
+        <v>3.1420486292863132</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="2"/>
-        <v>10.762550808590134</v>
+        <f t="shared" ref="H5:H68" si="2">G5*3.6</f>
+        <v>11.311375065430727</v>
       </c>
       <c r="I5" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I5:I68" si="3">IF(G5&lt;=0.2,"Calmo",IF(AND(G5&gt;0.2,G5&lt;=1.6),"Aragem",IF(AND(G5&gt;1.6,G5&lt;=3.3),"Brisa Leve",IF(AND(G5&gt;3.3,G5&lt;=5.4),"Brisa Fraca",IF(AND(G5&gt;5.4,G5&lt;=7.9),"Brisa Moderada",)))))</f>
         <v>Brisa Leve</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>171.26443258329226</v>
+        <v>152.99861409569459</v>
       </c>
       <c r="K5" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>S</v>
+        <f t="shared" ref="K5:K68" si="4">IF(J5&gt;348.75,"N",IF(J5&lt;=11.25,"N",IF(AND(J5&gt;11.25,J5&lt;=33.73),"NNE",IF(AND(J5&gt;33.75,J5&lt;=56.25),"NE",IF(AND(J5&gt;56.25,J5&lt;=78.75),"ENE",IF(AND(J5&gt;78.75,J5&lt;=101.25),"E",IF(AND(J5&gt;101.25,J5&lt;=123.75),"ESE",IF(AND(J5&gt;123.75,J5&lt;=146.25),"SE",IF(AND(J5&gt;146.25,J5&lt;=168.75),"SSE",IF(AND(J5&gt;168.75,J5&lt;=191.25),"S",IF(AND(J5&gt;191.25,J5&lt;=213.75),"SSW",IF(AND(J5&gt;213.75,J5&lt;=236.25),"SW",IF(AND(J5&gt;236.25,J5&lt;=258.75),"WSW",IF(AND(J5&gt;258.75,J5&lt;=281.25),"W",IF(AND(J5&gt;281.25,J5&lt;=303.75),"WNW",IF(AND(J5&gt;303.75,J5&lt;=326.25),"NW",IF(AND(J5&gt;326.25,J5&lt;=348.75),"NNW")))))))))))))))))</f>
+        <v>SSE</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" ref="L5:L68" si="5">IF(B5&lt;=20,1,IF(AND(B5&gt;20,B5&lt;=40),2,IF(AND(B5&gt;40,B5&lt;=60),3,IF(AND(B5&gt;60,B5&lt;=80),4,IF(AND(B5&gt;80,B5&lt;=100),5)))))</f>
+        <v>4</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M5:M68" si="6">IF(C5&lt;=20,1,IF(AND(C5&gt;20,C5&lt;=30),2,IF(AND(C5&gt;30,C5&lt;=40),3)))</f>
         <v>2</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N5:N68" si="7">IF(D5&lt;=10,1,IF(AND(D5&gt;10,D5&lt;=20),2,IF(AND(D5&gt;20,D5&lt;=30),3,IF(AND(D5&gt;30,D5&lt;=40),4))))</f>
         <v>1</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f t="shared" ref="O5:O68" si="8">IF(G5&lt;=1,1,IF(AND(G5&gt;1,G5&lt;=2),2,IF(AND(G5&gt;2,G5&lt;=3),3,IF(AND(G5&gt;3,G5&lt;=4),4,IF(AND(G5&gt;4,G5&lt;=5),5)))))</f>
+        <v>4</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -18757,30 +18807,30 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B6" s="2">
-        <v>69.967500000000001</v>
+        <v>47.029000000000003</v>
       </c>
       <c r="C6" s="3">
-        <v>21.5153</v>
+        <v>23.9374</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>0.441552</v>
       </c>
       <c r="E6" s="3">
-        <v>-2.8375699999999999</v>
+        <v>2.9545599999999999</v>
       </c>
       <c r="F6" s="3">
-        <v>-1.5314300000000001</v>
+        <v>-0.45636399999999999</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="1"/>
-        <v>3.2244505500627545</v>
+        <v>2.9895974468305928</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="2"/>
-        <v>11.608021980225917</v>
+        <v>10.762550808590134</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="3"/>
@@ -18788,15 +18838,15 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>29.13279953496297</v>
+        <v>171.26443258329226</v>
       </c>
       <c r="K6" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNE</v>
+        <v>S</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="6"/>
@@ -18808,7 +18858,7 @@
       </c>
       <c r="O6" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -18819,30 +18869,30 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B7" s="2">
-        <v>63.437899999999999</v>
+        <v>69.967500000000001</v>
       </c>
       <c r="C7" s="3">
-        <v>20.800799999999999</v>
+        <v>21.5153</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>-1.59083</v>
+        <v>-2.8375699999999999</v>
       </c>
       <c r="F7" s="3">
-        <v>-1.27769</v>
+        <v>-1.5314300000000001</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="1"/>
-        <v>2.0403999179082519</v>
+        <v>3.2244505500627545</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="2"/>
-        <v>7.3454397044697073</v>
+        <v>11.608021980225917</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="3"/>
@@ -18850,11 +18900,11 @@
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>39.49380723794377</v>
+        <v>29.13279953496297</v>
       </c>
       <c r="K7" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NE</v>
+        <v>NNE</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="5"/>
@@ -18870,7 +18920,7 @@
       </c>
       <c r="O7" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -18881,30 +18931,30 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="B8" s="2">
-        <v>47.511699999999998</v>
+        <v>63.437899999999999</v>
       </c>
       <c r="C8" s="3">
-        <v>23.527999999999999</v>
+        <v>20.800799999999999</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>-3.0970599999999999</v>
+        <v>-1.59083</v>
       </c>
       <c r="F8" s="3">
-        <v>0.95793799999999996</v>
+        <v>-1.27769</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="1"/>
-        <v>3.2418244640085003</v>
+        <v>2.0403999179082519</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="2"/>
-        <v>11.670568070430601</v>
+        <v>7.3454397044697073</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="3"/>
@@ -18912,15 +18962,15 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>341.97846614052753</v>
+        <v>39.49380723794377</v>
       </c>
       <c r="K8" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNW</v>
+        <v>NE</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="6"/>
@@ -18932,7 +18982,7 @@
       </c>
       <c r="O8" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -18943,42 +18993,42 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="B9" s="2">
-        <v>51.3994</v>
+        <v>47.511699999999998</v>
       </c>
       <c r="C9" s="3">
-        <v>21.686699999999998</v>
+        <v>23.527999999999999</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>-3.9282300000000001</v>
+        <v>-3.0970599999999999</v>
       </c>
       <c r="F9" s="3">
-        <v>-1.7550399999999999</v>
+        <v>0.95793799999999996</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="1"/>
-        <v>4.302459335600977</v>
+        <v>3.2418244640085003</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="2"/>
-        <v>15.488853608163518</v>
+        <v>11.670568070430601</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>24.873067377258877</v>
+        <v>341.97846614052753</v>
       </c>
       <c r="K9" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNE</v>
+        <v>NNW</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="5"/>
@@ -18994,7 +19044,7 @@
       </c>
       <c r="O9" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -19005,42 +19055,42 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="B10" s="2">
-        <v>48.962699999999998</v>
+        <v>51.3994</v>
       </c>
       <c r="C10" s="3">
-        <v>23.1904</v>
+        <v>21.686699999999998</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0.50618200000000002</v>
+        <v>-3.9282300000000001</v>
       </c>
       <c r="F10" s="3">
-        <v>-0.87189799999999995</v>
+        <v>-1.7550399999999999</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="1"/>
-        <v>1.0081797158879959</v>
+        <v>4.302459335600977</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="2"/>
-        <v>3.6294469771967854</v>
+        <v>15.488853608163518</v>
       </c>
       <c r="I10" s="3" t="str">
-        <f>IF(G10&lt;=0.2,"Calmo",IF(AND(G10&gt;0.2,G10&lt;=1.6),"Aragem",IF(AND(G10&gt;1.6,G10&lt;=3.3),"Brisa Leve",IF(AND(G10&gt;3.3,G10&lt;=5.4),"Brisa Fraca",IF(AND(G10&gt;5.4,G10&lt;=7.9),"Brisa Moderada",)))))</f>
-        <v>Aragem</v>
+        <f t="shared" si="3"/>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>120.44417827132133</v>
+        <v>24.873067377258877</v>
       </c>
       <c r="K10" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>ESE</v>
+        <v>NNE</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="5"/>
@@ -19056,7 +19106,7 @@
       </c>
       <c r="O10" s="2">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -19067,42 +19117,42 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B11" s="2">
-        <v>43.853900000000003</v>
+        <v>48.962699999999998</v>
       </c>
       <c r="C11" s="3">
-        <v>24.412700000000001</v>
+        <v>23.1904</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>0.86790699999999998</v>
+        <v>0.50618200000000002</v>
       </c>
       <c r="F11" s="3">
-        <v>0.97967499999999996</v>
+        <v>-0.87189799999999995</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="1"/>
-        <v>1.3088260641788885</v>
+        <v>1.0081797158879959</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="2"/>
-        <v>4.7117738310439989</v>
+        <v>3.6294469771967854</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G11&lt;=0.2,"Calmo",IF(AND(G11&gt;0.2,G11&lt;=1.6),"Aragem",IF(AND(G11&gt;1.6,G11&lt;=3.3),"Brisa Leve",IF(AND(G11&gt;3.3,G11&lt;=5.4),"Brisa Fraca",IF(AND(G11&gt;5.4,G11&lt;=7.9),"Brisa Moderada",)))))</f>
         <v>Aragem</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>228.21348065776382</v>
+        <v>120.44417827132133</v>
       </c>
       <c r="K11" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>SW</v>
+        <v>ESE</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="5"/>
@@ -19129,46 +19179,46 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B12" s="2">
-        <v>63.4375</v>
+        <v>43.853900000000003</v>
       </c>
       <c r="C12" s="3">
-        <v>22.0854</v>
+        <v>24.412700000000001</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>-3.9969600000000001</v>
+        <v>0.86790699999999998</v>
       </c>
       <c r="F12" s="3">
-        <v>-1.2358800000000001</v>
+        <v>0.97967499999999996</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="1"/>
-        <v>4.1836692766039718</v>
+        <v>1.3088260641788885</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="2"/>
-        <v>15.061209395774299</v>
+        <v>4.7117738310439989</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Fraca</v>
+        <v>Aragem</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>18.016299810872709</v>
+        <v>228.21348065776382</v>
       </c>
       <c r="K12" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNE</v>
+        <v>SW</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="6"/>
@@ -19180,7 +19230,7 @@
       </c>
       <c r="O12" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -19191,46 +19241,46 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B13" s="2">
-        <v>52.912700000000001</v>
+        <v>63.4375</v>
       </c>
       <c r="C13" s="3">
-        <v>22.263999999999999</v>
+        <v>22.0854</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>-2.2117200000000001</v>
+        <v>-3.9969600000000001</v>
       </c>
       <c r="F13" s="3">
-        <v>-2.22051</v>
+        <v>-1.2358800000000001</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="1"/>
-        <v>3.1340660520320882</v>
+        <v>4.1836692766039718</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="2"/>
-        <v>11.282637787315517</v>
+        <v>15.061209395774299</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>45.804910594300793</v>
+        <v>18.016299810872709</v>
       </c>
       <c r="K13" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NE</v>
+        <v>NNE</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="6"/>
@@ -19242,7 +19292,7 @@
       </c>
       <c r="O13" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -19253,30 +19303,30 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B14" s="2">
-        <v>45.617100000000001</v>
+        <v>52.912700000000001</v>
       </c>
       <c r="C14" s="3">
-        <v>22.927399999999999</v>
+        <v>22.263999999999999</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-1.43601</v>
+        <v>-2.2117200000000001</v>
       </c>
       <c r="F14" s="3">
-        <v>-2.09842</v>
+        <v>-2.22051</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>2.5427330210818435</v>
+        <v>3.1340660520320882</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="2"/>
-        <v>9.1538388758946372</v>
+        <v>11.282637787315517</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="3"/>
@@ -19284,11 +19334,11 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>56.252488584831497</v>
+        <v>45.804910594300793</v>
       </c>
       <c r="K14" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>ENE</v>
+        <v>NE</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="5"/>
@@ -19304,7 +19354,7 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -19315,30 +19365,30 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B15" s="2">
-        <v>47.547199999999997</v>
+        <v>45.617100000000001</v>
       </c>
       <c r="C15" s="3">
-        <v>24.244</v>
+        <v>22.927399999999999</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>-2.13144</v>
+        <v>-1.43601</v>
       </c>
       <c r="F15" s="3">
-        <v>-0.395982</v>
+        <v>-2.09842</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="1"/>
-        <v>2.1679110262932841</v>
+        <v>2.5427330210818435</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="2"/>
-        <v>7.8044796946558233</v>
+        <v>9.1538388758946372</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="3"/>
@@ -19346,11 +19396,11 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>11.393052041705658</v>
+        <v>56.252488584831497</v>
       </c>
       <c r="K15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNE</v>
+        <v>ENE</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="5"/>
@@ -19377,42 +19427,42 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B16" s="2">
-        <v>41.102699999999999</v>
+        <v>47.547199999999997</v>
       </c>
       <c r="C16" s="3">
-        <v>25.414899999999999</v>
+        <v>24.244</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>-0.85047799999999996</v>
+        <v>-2.13144</v>
       </c>
       <c r="F16" s="3">
-        <v>3.3664899999999998E-2</v>
+        <v>-0.395982</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="1"/>
-        <v>0.85114402657600197</v>
+        <v>2.1679110262932841</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="2"/>
-        <v>3.0641184956736072</v>
+        <v>7.8044796946558233</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Aragem</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>356.82234730413546</v>
+        <v>11.393052041705658</v>
       </c>
       <c r="K16" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>NNE</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="5"/>
@@ -19428,7 +19478,7 @@
       </c>
       <c r="O16" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -19439,46 +19489,46 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B17" s="2">
-        <v>60.537999999999997</v>
+        <v>41.102699999999999</v>
       </c>
       <c r="C17" s="3">
-        <v>22.767299999999999</v>
+        <v>25.414899999999999</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>-2.89425</v>
+        <v>-0.85047799999999996</v>
       </c>
       <c r="F17" s="3">
-        <v>-0.92845299999999997</v>
+        <v>3.3664899999999998E-2</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="1"/>
-        <v>3.039524310761307</v>
+        <v>0.85114402657600197</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="2"/>
-        <v>10.942287518740706</v>
+        <v>3.0641184956736072</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Leve</v>
+        <v>Aragem</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>18.617173287676195</v>
+        <v>356.82234730413546</v>
       </c>
       <c r="K17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNE</v>
+        <v>N</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="6"/>
@@ -19490,7 +19540,7 @@
       </c>
       <c r="O17" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -19501,30 +19551,30 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B18" s="2">
-        <v>70.591899999999995</v>
+        <v>60.537999999999997</v>
       </c>
       <c r="C18" s="3">
-        <v>20.398099999999999</v>
+        <v>22.767299999999999</v>
       </c>
       <c r="D18" s="3">
-        <v>2.7868799999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>-2.68574</v>
+        <v>-2.89425</v>
       </c>
       <c r="F18" s="3">
-        <v>-0.23790800000000001</v>
+        <v>-0.92845299999999997</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="1"/>
-        <v>2.6962565834994265</v>
+        <v>3.039524310761307</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="2"/>
-        <v>9.7065237005979359</v>
+        <v>10.942287518740706</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="3"/>
@@ -19532,11 +19582,11 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>5.9586994061433813</v>
+        <v>18.617173287676195</v>
       </c>
       <c r="K18" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>NNE</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="5"/>
@@ -19552,7 +19602,7 @@
       </c>
       <c r="O18" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -19563,30 +19613,30 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B19" s="2">
-        <v>56.604100000000003</v>
+        <v>70.591899999999995</v>
       </c>
       <c r="C19" s="3">
-        <v>22.346</v>
+        <v>20.398099999999999</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>2.7868799999999999E-2</v>
       </c>
       <c r="E19" s="3">
-        <v>-2.0561600000000002</v>
+        <v>-2.68574</v>
       </c>
       <c r="F19" s="3">
-        <v>0.28662399999999999</v>
+        <v>-0.23790800000000001</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="1"/>
-        <v>2.0760412478985097</v>
+        <v>2.6962565834994265</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="2"/>
-        <v>7.4737484924346349</v>
+        <v>9.7065237005979359</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="3"/>
@@ -19594,7 +19644,7 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>351.18242229132011</v>
+        <v>5.9586994061433813</v>
       </c>
       <c r="K19" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19602,7 +19652,7 @@
       </c>
       <c r="L19" s="2">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="6"/>
@@ -19625,38 +19675,38 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B20" s="2">
-        <v>72.868700000000004</v>
+        <v>56.604100000000003</v>
       </c>
       <c r="C20" s="3">
-        <v>18.3721</v>
+        <v>22.346</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-3.8487300000000002</v>
+        <v>-2.0561600000000002</v>
       </c>
       <c r="F20" s="3">
-        <v>0.187667</v>
+        <v>0.28662399999999999</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="1"/>
-        <v>3.8533026763789269</v>
+        <v>2.0760412478985097</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="2"/>
-        <v>13.871889634964138</v>
+        <v>7.4737484924346349</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>356.30024643333178</v>
+        <v>351.18242229132011</v>
       </c>
       <c r="K20" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19664,11 +19714,11 @@
       </c>
       <c r="L20" s="2">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="7"/>
@@ -19676,7 +19726,7 @@
       </c>
       <c r="O20" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -19687,30 +19737,30 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B21" s="2">
-        <v>59.365900000000003</v>
+        <v>72.868700000000004</v>
       </c>
       <c r="C21" s="3">
-        <v>20.430700000000002</v>
+        <v>18.3721</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>-4.3575299999999997</v>
+        <v>-3.8487300000000002</v>
       </c>
       <c r="F21" s="3">
-        <v>-1.18475</v>
+        <v>0.187667</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="1"/>
-        <v>4.5157170264975637</v>
+        <v>3.8533026763789269</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="2"/>
-        <v>16.256581295391229</v>
+        <v>13.871889634964138</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="3"/>
@@ -19718,19 +19768,19 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>16.054761855966262</v>
+        <v>356.30024643333178</v>
       </c>
       <c r="K21" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNE</v>
+        <v>N</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="7"/>
@@ -19738,7 +19788,7 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -19749,30 +19799,30 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B22" s="2">
-        <v>58.7438</v>
+        <v>59.365900000000003</v>
       </c>
       <c r="C22" s="3">
-        <v>21.337700000000002</v>
+        <v>20.430700000000002</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>-2.7880799999999999</v>
+        <v>-4.3575299999999997</v>
       </c>
       <c r="F22" s="3">
-        <v>-1.9412400000000001</v>
+        <v>-1.18475</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="1"/>
-        <v>3.3973228907479487</v>
+        <v>4.5157170264975637</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="2"/>
-        <v>12.230362406692615</v>
+        <v>16.256581295391229</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="3"/>
@@ -19780,11 +19830,11 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>35.592000854177627</v>
+        <v>16.054761855966262</v>
       </c>
       <c r="K22" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NE</v>
+        <v>NNE</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="5"/>
@@ -19800,7 +19850,7 @@
       </c>
       <c r="O22" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -19811,42 +19861,42 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B23" s="2">
-        <v>54.992600000000003</v>
+        <v>58.7438</v>
       </c>
       <c r="C23" s="3">
-        <v>22.9038</v>
+        <v>21.337700000000002</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-2.4232999999999998</v>
+        <v>-2.7880799999999999</v>
       </c>
       <c r="F23" s="3">
-        <v>-1.39489</v>
+        <v>-1.9412400000000001</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="1"/>
-        <v>2.7960867300747303</v>
+        <v>3.3973228907479487</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="2"/>
-        <v>10.065912228269029</v>
+        <v>12.230362406692615</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>30.694534918578256</v>
+        <v>35.592000854177627</v>
       </c>
       <c r="K23" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNE</v>
+        <v>NE</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="5"/>
@@ -19862,7 +19912,7 @@
       </c>
       <c r="O23" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -19873,30 +19923,30 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B24" s="2">
-        <v>48.337800000000001</v>
+        <v>54.992600000000003</v>
       </c>
       <c r="C24" s="3">
-        <v>22.9023</v>
+        <v>22.9038</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>-2.5266199999999999</v>
+        <v>-2.4232999999999998</v>
       </c>
       <c r="F24" s="3">
-        <v>-0.70202900000000001</v>
+        <v>-1.39489</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="1"/>
-        <v>2.6223373812766728</v>
+        <v>2.7960867300747303</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="2"/>
-        <v>9.4404145725960227</v>
+        <v>10.065912228269029</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="3"/>
@@ -19904,7 +19954,7 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>16.371018327868995</v>
+        <v>30.694534918578256</v>
       </c>
       <c r="K24" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19935,30 +19985,30 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B25" s="2">
-        <v>47.011400000000002</v>
+        <v>48.337800000000001</v>
       </c>
       <c r="C25" s="3">
-        <v>22.818100000000001</v>
+        <v>22.9023</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>-3.0419200000000002</v>
+        <v>-2.5266199999999999</v>
       </c>
       <c r="F25" s="3">
-        <v>-0.62229299999999999</v>
+        <v>-0.70202900000000001</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="1"/>
-        <v>3.1049196228322886</v>
+        <v>2.6223373812766728</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="2"/>
-        <v>11.177710642196239</v>
+        <v>9.4404145725960227</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="3"/>
@@ -19966,7 +20016,7 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>12.424847997765596</v>
+        <v>16.371018327868995</v>
       </c>
       <c r="K25" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19986,7 +20036,7 @@
       </c>
       <c r="O25" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -19997,38 +20047,38 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B26" s="2">
-        <v>62.744100000000003</v>
+        <v>47.011400000000002</v>
       </c>
       <c r="C26" s="3">
-        <v>20.898800000000001</v>
+        <v>22.818100000000001</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-3.2778999999999998</v>
+        <v>-3.0419200000000002</v>
       </c>
       <c r="F26" s="3">
-        <v>-1.8517999999999999</v>
+        <v>-0.62229299999999999</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="1"/>
-        <v>3.7648096432621925</v>
+        <v>3.1049196228322886</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="2"/>
-        <v>13.553314715743893</v>
+        <v>11.177710642196239</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>30.235106138470798</v>
+        <v>12.424847997765596</v>
       </c>
       <c r="K26" s="1" t="str">
         <f t="shared" si="4"/>
@@ -20036,7 +20086,7 @@
       </c>
       <c r="L26" s="2">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="6"/>
@@ -20059,38 +20109,38 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B27" s="2">
-        <v>46.7592</v>
+        <v>62.744100000000003</v>
       </c>
       <c r="C27" s="3">
-        <v>21.956199999999999</v>
+        <v>20.898800000000001</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-2.0779399999999999</v>
+        <v>-3.2778999999999998</v>
       </c>
       <c r="F27" s="3">
-        <v>-1.08064</v>
+        <v>-1.8517999999999999</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="1"/>
-        <v>2.342139503360122</v>
+        <v>3.7648096432621925</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="2"/>
-        <v>8.4317022120964396</v>
+        <v>13.553314715743893</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>28.258513933858893</v>
+        <v>30.235106138470798</v>
       </c>
       <c r="K27" s="1" t="str">
         <f t="shared" si="4"/>
@@ -20098,7 +20148,7 @@
       </c>
       <c r="L27" s="2">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="6"/>
@@ -20110,7 +20160,7 @@
       </c>
       <c r="O27" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -20121,38 +20171,38 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B28" s="2">
-        <v>57.049300000000002</v>
+        <v>46.7592</v>
       </c>
       <c r="C28" s="3">
-        <v>22.857299999999999</v>
+        <v>21.956199999999999</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <v>-4.1428200000000004</v>
+        <v>-2.0779399999999999</v>
       </c>
       <c r="F28" s="3">
-        <v>-1.85676</v>
+        <v>-1.08064</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="1"/>
-        <v>4.5398805325691116</v>
+        <v>2.342139503360122</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="2"/>
-        <v>16.343569917248804</v>
+        <v>8.4317022120964396</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>24.940087683499428</v>
+        <v>28.258513933858893</v>
       </c>
       <c r="K28" s="1" t="str">
         <f t="shared" si="4"/>
@@ -20172,7 +20222,7 @@
       </c>
       <c r="O28" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -20183,30 +20233,30 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B29" s="2">
-        <v>58.854399999999998</v>
+        <v>57.049300000000002</v>
       </c>
       <c r="C29" s="3">
-        <v>21.873000000000001</v>
+        <v>22.857299999999999</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-3.3176800000000002</v>
+        <v>-4.1428200000000004</v>
       </c>
       <c r="F29" s="3">
-        <v>-1.42991</v>
+        <v>-1.85676</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="1"/>
-        <v>3.6127057990514535</v>
+        <v>4.5398805325691116</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="2"/>
-        <v>13.005740876585232</v>
+        <v>16.343569917248804</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="3"/>
@@ -20214,7 +20264,7 @@
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>24.118888751666219</v>
+        <v>24.940087683499428</v>
       </c>
       <c r="K29" s="1" t="str">
         <f t="shared" si="4"/>
@@ -20234,7 +20284,7 @@
       </c>
       <c r="O29" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -20245,42 +20295,42 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B30" s="2">
-        <v>51.817900000000002</v>
+        <v>58.854399999999998</v>
       </c>
       <c r="C30" s="3">
-        <v>23.337800000000001</v>
+        <v>21.873000000000001</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>-1.5096099999999999</v>
+        <v>-3.3176800000000002</v>
       </c>
       <c r="F30" s="3">
-        <v>-1.3954</v>
+        <v>-1.42991</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="1"/>
-        <v>2.0557391644126448</v>
+        <v>3.6127057990514535</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="2"/>
-        <v>7.4006609918855215</v>
+        <v>13.005740876585232</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>43.451987547428558</v>
+        <v>24.118888751666219</v>
       </c>
       <c r="K30" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NE</v>
+        <v>NNE</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="5"/>
@@ -20296,7 +20346,7 @@
       </c>
       <c r="O30" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -20307,30 +20357,30 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B31" s="2">
-        <v>46.0839</v>
+        <v>51.817900000000002</v>
       </c>
       <c r="C31" s="3">
-        <v>24.183700000000002</v>
+        <v>23.337800000000001</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>-3.24119</v>
+        <v>-1.5096099999999999</v>
       </c>
       <c r="F31" s="3">
-        <v>-0.440467</v>
+        <v>-1.3954</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="1"/>
-        <v>3.2709820840519748</v>
+        <v>2.0557391644126448</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="2"/>
-        <v>11.775535502587109</v>
+        <v>7.4006609918855215</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="3"/>
@@ -20338,11 +20388,11 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>8.6217230610431272</v>
+        <v>43.451987547428558</v>
       </c>
       <c r="K31" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>NE</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="5"/>
@@ -20358,7 +20408,7 @@
       </c>
       <c r="O31" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -20369,30 +20419,30 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B32" s="2">
-        <v>48.511099999999999</v>
+        <v>46.0839</v>
       </c>
       <c r="C32" s="3">
-        <v>23.757200000000001</v>
+        <v>24.183700000000002</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-2.9133900000000001</v>
+        <v>-3.24119</v>
       </c>
       <c r="F32" s="3">
-        <v>0.21293000000000001</v>
+        <v>-0.440467</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="1"/>
-        <v>2.9211608098493995</v>
+        <v>3.2709820840519748</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="2"/>
-        <v>10.516178915457839</v>
+        <v>11.775535502587109</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="3"/>
@@ -20400,7 +20450,7 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>354.91881149366793</v>
+        <v>8.6217230610431272</v>
       </c>
       <c r="K32" s="1" t="str">
         <f t="shared" si="4"/>
@@ -20420,7 +20470,7 @@
       </c>
       <c r="O32" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -20431,46 +20481,46 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B33" s="2">
-        <v>65.707599999999999</v>
+        <v>48.511099999999999</v>
       </c>
       <c r="C33" s="3">
-        <v>20.324300000000001</v>
+        <v>23.757200000000001</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-4.36463</v>
+        <v>-2.9133900000000001</v>
       </c>
       <c r="F33" s="3">
-        <v>1.4350700000000001</v>
+        <v>0.21293000000000001</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="1"/>
-        <v>4.5944989870278565</v>
+        <v>2.9211608098493995</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="2"/>
-        <v>16.540196353300285</v>
+        <v>10.516178915457839</v>
       </c>
       <c r="I33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>340.9701673116864</v>
+        <v>354.91881149366793</v>
       </c>
       <c r="K33" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNW</v>
+        <v>N</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="6"/>
@@ -20482,7 +20532,7 @@
       </c>
       <c r="O33" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -20493,42 +20543,42 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="B34" s="2">
-        <v>61.770299999999999</v>
+        <v>65.707599999999999</v>
       </c>
       <c r="C34" s="3">
-        <v>19.916799999999999</v>
+        <v>20.324300000000001</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
       </c>
       <c r="E34" s="3">
-        <v>-2.3706999999999998</v>
+        <v>-4.36463</v>
       </c>
       <c r="F34" s="3">
-        <v>-0.99190500000000004</v>
+        <v>1.4350700000000001</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="1"/>
-        <v>2.5698431895788891</v>
+        <v>4.5944989870278565</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="2"/>
-        <v>9.2514354824840019</v>
+        <v>16.540196353300285</v>
       </c>
       <c r="I34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>23.510645650351108</v>
+        <v>340.9701673116864</v>
       </c>
       <c r="K34" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNE</v>
+        <v>NNW</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="5"/>
@@ -20536,7 +20586,7 @@
       </c>
       <c r="M34" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="7"/>
@@ -20544,7 +20594,7 @@
       </c>
       <c r="O34" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -20555,50 +20605,50 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="B35" s="2">
-        <v>53.884599999999999</v>
+        <v>61.770299999999999</v>
       </c>
       <c r="C35" s="3">
-        <v>20.609400000000001</v>
+        <v>19.916799999999999</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-3.2929300000000001</v>
+        <v>-2.3706999999999998</v>
       </c>
       <c r="F35" s="3">
-        <v>0.696017</v>
+        <v>-0.99190500000000004</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="1"/>
-        <v>3.3656838308416615</v>
+        <v>2.5698431895788891</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="2"/>
-        <v>12.116461791029982</v>
+        <v>9.2514354824840019</v>
       </c>
       <c r="I35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" ref="J35:J67" si="9">(1/0.0175432)*ATAN2(E35,F35)+180</f>
-        <v>347.20390131131091</v>
+        <f t="shared" si="0"/>
+        <v>23.510645650351108</v>
       </c>
       <c r="K35" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNW</v>
+        <v>NNE</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="7"/>
@@ -20606,7 +20656,7 @@
       </c>
       <c r="O35" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -20617,42 +20667,42 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="B36" s="2">
-        <v>46.576500000000003</v>
+        <v>53.884599999999999</v>
       </c>
       <c r="C36" s="3">
-        <v>20.235700000000001</v>
+        <v>20.609400000000001</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>-2.42686</v>
+        <v>-3.2929300000000001</v>
       </c>
       <c r="F36" s="3">
-        <v>0.28702899999999998</v>
+        <v>0.696017</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="1"/>
-        <v>2.4437747658982403</v>
+        <v>3.3656838308416615</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="2"/>
-        <v>8.7975891572336646</v>
+        <v>12.116461791029982</v>
       </c>
       <c r="I36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="9"/>
-        <v>352.3669445906902</v>
+        <f t="shared" ref="J36:J68" si="9">(1/0.0175432)*ATAN2(E36,F36)+180</f>
+        <v>347.20390131131091</v>
       </c>
       <c r="K36" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>NNW</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="5"/>
@@ -20668,7 +20718,7 @@
       </c>
       <c r="O36" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -20679,38 +20729,38 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B37" s="2">
-        <v>45.871099999999998</v>
+        <v>46.576500000000003</v>
       </c>
       <c r="C37" s="3">
-        <v>20.459700000000002</v>
+        <v>20.235700000000001</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>-3.9527700000000001</v>
+        <v>-2.42686</v>
       </c>
       <c r="F37" s="3">
-        <v>-0.41082400000000002</v>
+        <v>0.28702899999999998</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="1"/>
-        <v>3.9740617800779092</v>
+        <v>2.4437747658982403</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="2"/>
-        <v>14.306622408280473</v>
+        <v>8.7975891572336646</v>
       </c>
       <c r="I37" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="9"/>
-        <v>6.8257052293667186</v>
+        <v>352.3669445906902</v>
       </c>
       <c r="K37" s="1" t="str">
         <f t="shared" si="4"/>
@@ -20730,7 +20780,7 @@
       </c>
       <c r="O37" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -20741,30 +20791,30 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B38" s="2">
-        <v>49.6038</v>
+        <v>45.871099999999998</v>
       </c>
       <c r="C38" s="3">
-        <v>20.8048</v>
+        <v>20.459700000000002</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
       </c>
       <c r="E38" s="3">
-        <v>-4.2945500000000001</v>
+        <v>-3.9527700000000001</v>
       </c>
       <c r="F38" s="3">
-        <v>-0.17707600000000001</v>
+        <v>-0.41082400000000002</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" si="1"/>
-        <v>4.2981991126838226</v>
+        <v>3.9740617800779092</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="2"/>
-        <v>15.473516805661761</v>
+        <v>14.306622408280473</v>
       </c>
       <c r="I38" s="3" t="str">
         <f t="shared" si="3"/>
@@ -20772,7 +20822,7 @@
       </c>
       <c r="J38" s="2">
         <f t="shared" si="9"/>
-        <v>3.2715085225820246</v>
+        <v>6.8257052293667186</v>
       </c>
       <c r="K38" s="1" t="str">
         <f t="shared" si="4"/>
@@ -20792,7 +20842,7 @@
       </c>
       <c r="O38" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -20803,30 +20853,30 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B39" s="2">
-        <v>58.736699999999999</v>
+        <v>49.6038</v>
       </c>
       <c r="C39" s="3">
-        <v>18.873200000000001</v>
+        <v>20.8048</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>-3.27102</v>
+        <v>-4.2945500000000001</v>
       </c>
       <c r="F39" s="3">
-        <v>-1.0000800000000001</v>
+        <v>-0.17707600000000001</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="1"/>
-        <v>3.4204870774204075</v>
+        <v>4.2981991126838226</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="2"/>
-        <v>12.313753478713467</v>
+        <v>15.473516805661761</v>
       </c>
       <c r="I39" s="3" t="str">
         <f t="shared" si="3"/>
@@ -20834,11 +20884,11 @@
       </c>
       <c r="J39" s="2">
         <f t="shared" si="9"/>
-        <v>17.835821204681451</v>
+        <v>3.2715085225820246</v>
       </c>
       <c r="K39" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNE</v>
+        <v>N</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="5"/>
@@ -20846,7 +20896,7 @@
       </c>
       <c r="M39" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="7"/>
@@ -20854,7 +20904,7 @@
       </c>
       <c r="O39" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -20865,30 +20915,30 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B40" s="2">
-        <v>54.1098</v>
+        <v>58.736699999999999</v>
       </c>
       <c r="C40" s="3">
-        <v>20.3734</v>
+        <v>18.873200000000001</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>-3.34979</v>
+        <v>-3.27102</v>
       </c>
       <c r="F40" s="3">
-        <v>-0.60998600000000003</v>
+        <v>-1.0000800000000001</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="1"/>
-        <v>3.4048753228710154</v>
+        <v>3.4204870774204075</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="2"/>
-        <v>12.257551162335655</v>
+        <v>12.313753478713467</v>
       </c>
       <c r="I40" s="3" t="str">
         <f t="shared" si="3"/>
@@ -20896,11 +20946,11 @@
       </c>
       <c r="J40" s="2">
         <f t="shared" si="9"/>
-        <v>11.189892602742219</v>
+        <v>17.835821204681451</v>
       </c>
       <c r="K40" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>NNE</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="5"/>
@@ -20908,7 +20958,7 @@
       </c>
       <c r="M40" s="2">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="7"/>
@@ -20927,30 +20977,30 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B41" s="2">
-        <v>57.158999999999999</v>
+        <v>54.1098</v>
       </c>
       <c r="C41" s="3">
-        <v>20.513100000000001</v>
+        <v>20.3734</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>-3.39906</v>
+        <v>-3.34979</v>
       </c>
       <c r="F41" s="3">
-        <v>-0.84270400000000001</v>
+        <v>-0.60998600000000003</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="1"/>
-        <v>3.5019650077086717</v>
+        <v>3.4048753228710154</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="2"/>
-        <v>12.607074027751219</v>
+        <v>12.257551162335655</v>
       </c>
       <c r="I41" s="3" t="str">
         <f t="shared" si="3"/>
@@ -20958,11 +21008,11 @@
       </c>
       <c r="J41" s="2">
         <f t="shared" si="9"/>
-        <v>14.775292609296088</v>
+        <v>11.189892602742219</v>
       </c>
       <c r="K41" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNE</v>
+        <v>N</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="5"/>
@@ -20989,38 +21039,38 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B42" s="2">
-        <v>52.787500000000001</v>
+        <v>57.158999999999999</v>
       </c>
       <c r="C42" s="3">
-        <v>21.400700000000001</v>
+        <v>20.513100000000001</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>-2.8807</v>
+        <v>-3.39906</v>
       </c>
       <c r="F42" s="3">
-        <v>-1.2508999999999999</v>
+        <v>-0.84270400000000001</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="1"/>
-        <v>3.1405705373387174</v>
+        <v>3.5019650077086717</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="2"/>
-        <v>11.306053934419383</v>
+        <v>12.607074027751219</v>
       </c>
       <c r="I42" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="9"/>
-        <v>24.27435262507521</v>
+        <v>14.775292609296088</v>
       </c>
       <c r="K42" s="1" t="str">
         <f t="shared" si="4"/>
@@ -21051,30 +21101,30 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B43" s="2">
-        <v>44.732199999999999</v>
+        <v>52.787500000000001</v>
       </c>
       <c r="C43" s="3">
-        <v>22.3977</v>
+        <v>21.400700000000001</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>-1.9868399999999999</v>
+        <v>-2.8807</v>
       </c>
       <c r="F43" s="3">
-        <v>-0.839028</v>
+        <v>-1.2508999999999999</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="1"/>
-        <v>2.156733912744917</v>
+        <v>3.1405705373387174</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="2"/>
-        <v>7.7642420858817012</v>
+        <v>11.306053934419383</v>
       </c>
       <c r="I43" s="3" t="str">
         <f t="shared" si="3"/>
@@ -21082,7 +21132,7 @@
       </c>
       <c r="J43" s="2">
         <f t="shared" si="9"/>
-        <v>23.699133650254595</v>
+        <v>24.27435262507521</v>
       </c>
       <c r="K43" s="1" t="str">
         <f t="shared" si="4"/>
@@ -21102,7 +21152,7 @@
       </c>
       <c r="O43" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -21113,30 +21163,30 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B44" s="2">
-        <v>50.178699999999999</v>
+        <v>44.732199999999999</v>
       </c>
       <c r="C44" s="3">
-        <v>22.5947</v>
+        <v>22.3977</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>-1.84582</v>
+        <v>-1.9868399999999999</v>
       </c>
       <c r="F44" s="3">
-        <v>-1.09016</v>
+        <v>-0.839028</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="1"/>
-        <v>2.1437118038579719</v>
+        <v>2.156733912744917</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="2"/>
-        <v>7.7173624938886993</v>
+        <v>7.7642420858817012</v>
       </c>
       <c r="I44" s="3" t="str">
         <f t="shared" si="3"/>
@@ -21144,7 +21194,7 @@
       </c>
       <c r="J44" s="2">
         <f t="shared" si="9"/>
-        <v>31.332363811101743</v>
+        <v>23.699133650254595</v>
       </c>
       <c r="K44" s="1" t="str">
         <f t="shared" si="4"/>
@@ -21175,42 +21225,42 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B45" s="2">
-        <v>52.848100000000002</v>
+        <v>50.178699999999999</v>
       </c>
       <c r="C45" s="3">
-        <v>23.216100000000001</v>
+        <v>22.5947</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>-3.22803</v>
+        <v>-1.84582</v>
       </c>
       <c r="F45" s="3">
-        <v>-2.6864499999999998</v>
+        <v>-1.09016</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="1"/>
-        <v>4.1996656156651326</v>
+        <v>2.1437118038579719</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="2"/>
-        <v>15.118796216394477</v>
+        <v>7.7173624938886993</v>
       </c>
       <c r="I45" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="9"/>
-        <v>40.486779370849519</v>
+        <v>31.332363811101743</v>
       </c>
       <c r="K45" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NE</v>
+        <v>NNE</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="5"/>
@@ -21226,7 +21276,7 @@
       </c>
       <c r="O45" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -21237,42 +21287,42 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B46" s="2">
-        <v>54.7044</v>
+        <v>52.848100000000002</v>
       </c>
       <c r="C46" s="3">
-        <v>23.321300000000001</v>
+        <v>23.216100000000001</v>
       </c>
       <c r="D46" s="3">
-        <v>0.40210400000000002</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>-2.3919800000000002</v>
+        <v>-3.22803</v>
       </c>
       <c r="F46" s="3">
-        <v>-1.44851</v>
+        <v>-2.6864499999999998</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" si="1"/>
-        <v>2.7963815083961632</v>
+        <v>4.1996656156651326</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="2"/>
-        <v>10.066973430226188</v>
+        <v>15.118796216394477</v>
       </c>
       <c r="I46" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="9"/>
-        <v>31.96041578190048</v>
+        <v>40.486779370849519</v>
       </c>
       <c r="K46" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNE</v>
+        <v>NE</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="5"/>
@@ -21288,7 +21338,7 @@
       </c>
       <c r="O46" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -21299,30 +21349,30 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B47" s="2">
-        <v>43.544699999999999</v>
+        <v>54.7044</v>
       </c>
       <c r="C47" s="3">
-        <v>25.6645</v>
+        <v>23.321300000000001</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>0.40210400000000002</v>
       </c>
       <c r="E47" s="3">
-        <v>-3.0031500000000002</v>
+        <v>-2.3919800000000002</v>
       </c>
       <c r="F47" s="3">
-        <v>-0.17358199999999999</v>
+        <v>-1.44851</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" si="1"/>
-        <v>3.0081623349187789</v>
+        <v>2.7963815083961632</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="2"/>
-        <v>10.829384405707604</v>
+        <v>10.066973430226188</v>
       </c>
       <c r="I47" s="3" t="str">
         <f t="shared" si="3"/>
@@ -21330,11 +21380,11 @@
       </c>
       <c r="J47" s="2">
         <f t="shared" si="9"/>
-        <v>4.2135462768941636</v>
+        <v>31.96041578190048</v>
       </c>
       <c r="K47" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>NNE</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="5"/>
@@ -21350,7 +21400,7 @@
       </c>
       <c r="O47" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -21361,46 +21411,46 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B48" s="2">
-        <v>38.737200000000001</v>
+        <v>43.544699999999999</v>
       </c>
       <c r="C48" s="3">
-        <v>26.573699999999999</v>
+        <v>25.6645</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>-0.64701399999999998</v>
+        <v>-3.0031500000000002</v>
       </c>
       <c r="F48" s="3">
-        <v>-0.16620699999999999</v>
+        <v>-0.17358199999999999</v>
       </c>
       <c r="G48" s="3">
         <f t="shared" si="1"/>
-        <v>0.66802087021664225</v>
+        <v>3.0081623349187789</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="2"/>
-        <v>2.4048751327799121</v>
+        <v>10.829384405707604</v>
       </c>
       <c r="I48" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Aragem</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="9"/>
-        <v>15.25546714853013</v>
+        <v>4.2135462768941636</v>
       </c>
       <c r="K48" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNE</v>
+        <v>N</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="6"/>
@@ -21412,7 +21462,7 @@
       </c>
       <c r="O48" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -21423,38 +21473,38 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B49" s="2">
-        <v>43.940300000000001</v>
+        <v>38.737200000000001</v>
       </c>
       <c r="C49" s="3">
-        <v>26.5153</v>
+        <v>26.573699999999999</v>
       </c>
       <c r="D49" s="3">
-        <v>2.8961600000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>-3.5762800000000001</v>
+        <v>-0.64701399999999998</v>
       </c>
       <c r="F49" s="3">
-        <v>-1.5216099999999999</v>
+        <v>-0.16620699999999999</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="1"/>
-        <v>3.8865248784100173</v>
+        <v>0.66802087021664225</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="2"/>
-        <v>13.991489562276062</v>
+        <v>2.4048751327799121</v>
       </c>
       <c r="I49" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Fraca</v>
+        <v>Aragem</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="9"/>
-        <v>23.852799002256631</v>
+        <v>15.25546714853013</v>
       </c>
       <c r="K49" s="1" t="str">
         <f t="shared" si="4"/>
@@ -21462,7 +21512,7 @@
       </c>
       <c r="L49" s="2">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="6"/>
@@ -21474,7 +21524,7 @@
       </c>
       <c r="O49" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -21485,42 +21535,42 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B50" s="2">
-        <v>46.982100000000003</v>
+        <v>43.940300000000001</v>
       </c>
       <c r="C50" s="3">
-        <v>26.0258</v>
+        <v>26.5153</v>
       </c>
       <c r="D50" s="3">
-        <v>4.9497999999999998</v>
+        <v>2.8961600000000001E-5</v>
       </c>
       <c r="E50" s="3">
-        <v>-1.78179</v>
+        <v>-3.5762800000000001</v>
       </c>
       <c r="F50" s="3">
-        <v>-1.2146600000000001</v>
+        <v>-1.5216099999999999</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="1"/>
-        <v>2.1564263306915912</v>
+        <v>3.8865248784100173</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="2"/>
-        <v>7.7631347904897288</v>
+        <v>13.991489562276062</v>
       </c>
       <c r="I50" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="9"/>
-        <v>35.029346395084133</v>
+        <v>23.852799002256631</v>
       </c>
       <c r="K50" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NE</v>
+        <v>NNE</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="5"/>
@@ -21536,7 +21586,7 @@
       </c>
       <c r="O50" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -21547,38 +21597,38 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B51" s="2">
-        <v>51.631500000000003</v>
+        <v>46.982100000000003</v>
       </c>
       <c r="C51" s="3">
-        <v>24.736899999999999</v>
+        <v>26.0258</v>
       </c>
       <c r="D51" s="3">
-        <v>1.43979E-2</v>
+        <v>4.9497999999999998</v>
       </c>
       <c r="E51" s="3">
-        <v>-3.71014</v>
+        <v>-1.78179</v>
       </c>
       <c r="F51" s="3">
-        <v>-2.4464700000000001</v>
+        <v>-1.2146600000000001</v>
       </c>
       <c r="G51" s="3">
         <f t="shared" si="1"/>
-        <v>4.444137068149451</v>
+        <v>2.1564263306915912</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="2"/>
-        <v>15.998893445338023</v>
+        <v>7.7631347904897288</v>
       </c>
       <c r="I51" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="9"/>
-        <v>34.152206350000512</v>
+        <v>35.029346395084133</v>
       </c>
       <c r="K51" s="1" t="str">
         <f t="shared" si="4"/>
@@ -21598,7 +21648,7 @@
       </c>
       <c r="O51" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -21609,38 +21659,38 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B52" s="2">
-        <v>47.617899999999999</v>
+        <v>51.631500000000003</v>
       </c>
       <c r="C52" s="3">
-        <v>26.130199999999999</v>
+        <v>24.736899999999999</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>1.43979E-2</v>
       </c>
       <c r="E52" s="3">
-        <v>-1.8591200000000001</v>
+        <v>-3.71014</v>
       </c>
       <c r="F52" s="3">
-        <v>-1.7718700000000001</v>
+        <v>-2.4464700000000001</v>
       </c>
       <c r="G52" s="3">
         <f t="shared" si="1"/>
-        <v>2.5682387878271755</v>
+        <v>4.444137068149451</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="2"/>
-        <v>9.245659636177832</v>
+        <v>15.998893445338023</v>
       </c>
       <c r="I52" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="9"/>
-        <v>44.322408331552793</v>
+        <v>34.152206350000512</v>
       </c>
       <c r="K52" s="1" t="str">
         <f t="shared" si="4"/>
@@ -21660,7 +21710,7 @@
       </c>
       <c r="O52" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -21671,42 +21721,42 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B53" s="2">
-        <v>46.713200000000001</v>
+        <v>47.617899999999999</v>
       </c>
       <c r="C53" s="3">
-        <v>27.441199999999998</v>
+        <v>26.130199999999999</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
       </c>
       <c r="E53" s="3">
-        <v>-3.3247300000000002</v>
+        <v>-1.8591200000000001</v>
       </c>
       <c r="F53" s="3">
-        <v>-0.32399499999999998</v>
+        <v>-1.7718700000000001</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" si="1"/>
-        <v>3.3404793567577995</v>
+        <v>2.5682387878271755</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="2"/>
-        <v>12.025725684328078</v>
+        <v>9.245659636177832</v>
       </c>
       <c r="I53" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="9"/>
-        <v>6.4598609444107353</v>
+        <v>44.322408331552793</v>
       </c>
       <c r="K53" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>NE</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="5"/>
@@ -21722,7 +21772,7 @@
       </c>
       <c r="O53" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -21733,46 +21783,46 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B54" s="2">
-        <v>72.392099999999999</v>
+        <v>46.713200000000001</v>
       </c>
       <c r="C54" s="3">
-        <v>20.717199999999998</v>
+        <v>27.441199999999998</v>
       </c>
       <c r="D54" s="3">
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>-1.9142399999999999</v>
+        <v>-3.3247300000000002</v>
       </c>
       <c r="F54" s="3">
-        <v>2.1330399999999998</v>
+        <v>-0.32399499999999998</v>
       </c>
       <c r="G54" s="3">
         <f t="shared" si="1"/>
-        <v>2.8660381049804622</v>
+        <v>3.3404793567577995</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" si="2"/>
-        <v>10.317737177929665</v>
+        <v>12.025725684328078</v>
       </c>
       <c r="I54" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="9"/>
-        <v>311.22953994219938</v>
+        <v>6.4598609444107353</v>
       </c>
       <c r="K54" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NW</v>
+        <v>N</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="6"/>
@@ -21784,7 +21834,7 @@
       </c>
       <c r="O54" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -21795,30 +21845,30 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B55" s="2">
-        <v>93.956100000000006</v>
+        <v>72.392099999999999</v>
       </c>
       <c r="C55" s="3">
-        <v>13.118499999999999</v>
+        <v>20.717199999999998</v>
       </c>
       <c r="D55" s="3">
-        <v>1.59609</v>
+        <v>0</v>
       </c>
       <c r="E55" s="3">
-        <v>-1.4919199999999999</v>
+        <v>-1.9142399999999999</v>
       </c>
       <c r="F55" s="3">
-        <v>0.76455399999999996</v>
+        <v>2.1330399999999998</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" si="1"/>
-        <v>1.6764152544390662</v>
+        <v>2.8660381049804622</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="2"/>
-        <v>6.0350949159806389</v>
+        <v>10.317737177929665</v>
       </c>
       <c r="I55" s="3" t="str">
         <f t="shared" si="3"/>
@@ -21826,19 +21876,19 @@
       </c>
       <c r="J55" s="2">
         <f t="shared" si="9"/>
-        <v>332.08310463402518</v>
+        <v>311.22953994219938</v>
       </c>
       <c r="K55" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNW</v>
+        <v>NW</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="7"/>
@@ -21846,7 +21896,7 @@
       </c>
       <c r="O55" s="2">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -21857,30 +21907,30 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B56" s="2">
-        <v>84.125500000000002</v>
+        <v>93.956100000000006</v>
       </c>
       <c r="C56" s="3">
-        <v>14.256500000000001</v>
+        <v>13.118499999999999</v>
       </c>
       <c r="D56" s="3">
-        <v>8.73378E-3</v>
+        <v>1.59609</v>
       </c>
       <c r="E56" s="3">
-        <v>-2.3248000000000002</v>
+        <v>-1.4919199999999999</v>
       </c>
       <c r="F56" s="3">
-        <v>0.866981</v>
+        <v>0.76455399999999996</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="1"/>
-        <v>2.4811995273175835</v>
+        <v>1.6764152544390662</v>
       </c>
       <c r="H56" s="3">
         <f t="shared" si="2"/>
-        <v>8.9323182983433007</v>
+        <v>6.0350949159806389</v>
       </c>
       <c r="I56" s="3" t="str">
         <f t="shared" si="3"/>
@@ -21888,7 +21938,7 @@
       </c>
       <c r="J56" s="2">
         <f t="shared" si="9"/>
-        <v>338.73047837557272</v>
+        <v>332.08310463402518</v>
       </c>
       <c r="K56" s="1" t="str">
         <f t="shared" si="4"/>
@@ -21908,7 +21958,7 @@
       </c>
       <c r="O56" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -21919,46 +21969,46 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B57" s="2">
-        <v>49.4557</v>
+        <v>84.125500000000002</v>
       </c>
       <c r="C57" s="3">
-        <v>19.518899999999999</v>
+        <v>14.256500000000001</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>8.73378E-3</v>
       </c>
       <c r="E57" s="3">
-        <v>-2.55897</v>
+        <v>-2.3248000000000002</v>
       </c>
       <c r="F57" s="3">
-        <v>2.1787800000000002</v>
+        <v>0.866981</v>
       </c>
       <c r="G57" s="3">
         <f t="shared" si="1"/>
-        <v>3.3608644348292298</v>
+        <v>2.4811995273175835</v>
       </c>
       <c r="H57" s="3">
         <f t="shared" si="2"/>
-        <v>12.099111965385228</v>
+        <v>8.9323182983433007</v>
       </c>
       <c r="I57" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="9"/>
-        <v>318.87260324820716</v>
+        <v>338.73047837557272</v>
       </c>
       <c r="K57" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NW</v>
+        <v>NNW</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="6"/>
@@ -21970,7 +22020,7 @@
       </c>
       <c r="O57" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -21981,38 +22031,38 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B58" s="2">
-        <v>37.682899999999997</v>
+        <v>49.4557</v>
       </c>
       <c r="C58" s="3">
-        <v>20.1113</v>
+        <v>19.518899999999999</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>-2.59293</v>
+        <v>-2.55897</v>
       </c>
       <c r="F58" s="3">
-        <v>1.9737199999999999</v>
+        <v>2.1787800000000002</v>
       </c>
       <c r="G58" s="3">
         <f t="shared" si="1"/>
-        <v>3.2586587153766193</v>
+        <v>3.3608644348292298</v>
       </c>
       <c r="H58" s="3">
         <f t="shared" si="2"/>
-        <v>11.73117137535583</v>
+        <v>12.099111965385228</v>
       </c>
       <c r="I58" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="9"/>
-        <v>321.9904274662066</v>
+        <v>318.87260324820716</v>
       </c>
       <c r="K58" s="1" t="str">
         <f t="shared" si="4"/>
@@ -22020,11 +22070,11 @@
       </c>
       <c r="L58" s="2">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="7"/>
@@ -22043,38 +22093,38 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B59" s="2">
-        <v>44.516100000000002</v>
+        <v>37.682899999999997</v>
       </c>
       <c r="C59" s="3">
-        <v>22.134899999999998</v>
+        <v>20.1113</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>-2.9300099999999998</v>
+        <v>-2.59293</v>
       </c>
       <c r="F59" s="3">
-        <v>1.94278</v>
+        <v>1.9737199999999999</v>
       </c>
       <c r="G59" s="3">
         <f t="shared" si="1"/>
-        <v>3.5155871100713747</v>
+        <v>3.2586587153766193</v>
       </c>
       <c r="H59" s="3">
         <f t="shared" si="2"/>
-        <v>12.656113596256949</v>
+        <v>11.73117137535583</v>
       </c>
       <c r="I59" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="9"/>
-        <v>325.70257061337213</v>
+        <v>321.9904274662066</v>
       </c>
       <c r="K59" s="1" t="str">
         <f t="shared" si="4"/>
@@ -22082,7 +22132,7 @@
       </c>
       <c r="L59" s="2">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="6"/>
@@ -22105,42 +22155,42 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B60" s="2">
-        <v>45.561399999999999</v>
+        <v>44.516100000000002</v>
       </c>
       <c r="C60" s="3">
-        <v>23.508199999999999</v>
+        <v>22.134899999999998</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>-2.94109</v>
+        <v>-2.9300099999999998</v>
       </c>
       <c r="F60" s="3">
-        <v>-0.38497100000000001</v>
+        <v>1.94278</v>
       </c>
       <c r="G60" s="3">
         <f t="shared" si="1"/>
-        <v>2.9661781906926969</v>
+        <v>3.5155871100713747</v>
       </c>
       <c r="H60" s="3">
         <f t="shared" si="2"/>
-        <v>10.678241486493709</v>
+        <v>12.656113596256949</v>
       </c>
       <c r="I60" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="9"/>
-        <v>8.3415443442487742</v>
+        <v>325.70257061337213</v>
       </c>
       <c r="K60" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>NW</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="5"/>
@@ -22156,7 +22206,7 @@
       </c>
       <c r="O60" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
@@ -22167,42 +22217,42 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B61" s="2">
-        <v>48.285200000000003</v>
+        <v>45.561399999999999</v>
       </c>
       <c r="C61" s="3">
-        <v>23.602399999999999</v>
+        <v>23.508199999999999</v>
       </c>
       <c r="D61" s="3">
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>-3.6706300000000001</v>
+        <v>-2.94109</v>
       </c>
       <c r="F61" s="3">
-        <v>-0.87496700000000005</v>
+        <v>-0.38497100000000001</v>
       </c>
       <c r="G61" s="3">
         <f t="shared" si="1"/>
-        <v>3.7734721210032811</v>
+        <v>2.9661781906926969</v>
       </c>
       <c r="H61" s="3">
         <f t="shared" si="2"/>
-        <v>13.584499635611813</v>
+        <v>10.678241486493709</v>
       </c>
       <c r="I61" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="9"/>
-        <v>14.261152811692426</v>
+        <v>8.3415443442487742</v>
       </c>
       <c r="K61" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNE</v>
+        <v>N</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="5"/>
@@ -22218,7 +22268,7 @@
       </c>
       <c r="O61" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
@@ -22229,30 +22279,30 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B62" s="2">
-        <v>44.232500000000002</v>
+        <v>48.285200000000003</v>
       </c>
       <c r="C62" s="3">
-        <v>24.794699999999999</v>
+        <v>23.602399999999999</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>-3.1825999999999999</v>
+        <v>-3.6706300000000001</v>
       </c>
       <c r="F62" s="3">
-        <v>-2.1358700000000002</v>
+        <v>-0.87496700000000005</v>
       </c>
       <c r="G62" s="3">
         <f t="shared" si="1"/>
-        <v>3.8328688233358572</v>
+        <v>3.7734721210032811</v>
       </c>
       <c r="H62" s="3">
         <f t="shared" si="2"/>
-        <v>13.798327764009086</v>
+        <v>13.584499635611813</v>
       </c>
       <c r="I62" s="3" t="str">
         <f t="shared" si="3"/>
@@ -22260,11 +22310,11 @@
       </c>
       <c r="J62" s="2">
         <f t="shared" si="9"/>
-        <v>34.614824172658501</v>
+        <v>14.261152811692426</v>
       </c>
       <c r="K62" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NE</v>
+        <v>NNE</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="5"/>
@@ -22291,38 +22341,38 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B63" s="2">
-        <v>38.841900000000003</v>
+        <v>44.232500000000002</v>
       </c>
       <c r="C63" s="3">
-        <v>25.9193</v>
+        <v>24.794699999999999</v>
       </c>
       <c r="D63" s="3">
         <v>0</v>
       </c>
       <c r="E63" s="3">
-        <v>-2.2864800000000001</v>
+        <v>-3.1825999999999999</v>
       </c>
       <c r="F63" s="3">
-        <v>-1.6119699999999999</v>
+        <v>-2.1358700000000002</v>
       </c>
       <c r="G63" s="3">
         <f t="shared" si="1"/>
-        <v>2.797577178792392</v>
+        <v>3.8328688233358572</v>
       </c>
       <c r="H63" s="3">
         <f t="shared" si="2"/>
-        <v>10.071277843652611</v>
+        <v>13.798327764009086</v>
       </c>
       <c r="I63" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="9"/>
-        <v>35.926034382098294</v>
+        <v>34.614824172658501</v>
       </c>
       <c r="K63" s="1" t="str">
         <f t="shared" si="4"/>
@@ -22330,7 +22380,7 @@
       </c>
       <c r="L63" s="2">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="6"/>
@@ -22342,7 +22392,7 @@
       </c>
       <c r="O63" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
@@ -22353,46 +22403,46 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B64" s="2">
-        <v>45.428400000000003</v>
+        <v>38.841900000000003</v>
       </c>
       <c r="C64" s="3">
-        <v>26.171299999999999</v>
+        <v>25.9193</v>
       </c>
       <c r="D64" s="3">
         <v>0</v>
       </c>
       <c r="E64" s="3">
-        <v>-3.52433</v>
+        <v>-2.2864800000000001</v>
       </c>
       <c r="F64" s="3">
-        <v>-0.58310099999999998</v>
+        <v>-1.6119699999999999</v>
       </c>
       <c r="G64" s="3">
         <f t="shared" si="1"/>
-        <v>3.5722414147284334</v>
+        <v>2.797577178792392</v>
       </c>
       <c r="H64" s="3">
         <f t="shared" si="2"/>
-        <v>12.860069093022361</v>
+        <v>10.071277843652611</v>
       </c>
       <c r="I64" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="9"/>
-        <v>10.268831975593486</v>
+        <v>35.926034382098294</v>
       </c>
       <c r="K64" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>NE</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="6"/>
@@ -22404,7 +22454,7 @@
       </c>
       <c r="O64" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
@@ -22415,30 +22465,30 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B65" s="2">
-        <v>53.278799999999997</v>
+        <v>45.428400000000003</v>
       </c>
       <c r="C65" s="3">
-        <v>24.550799999999999</v>
+        <v>26.171299999999999</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
       </c>
       <c r="E65" s="3">
-        <v>-4.0475300000000001</v>
+        <v>-3.52433</v>
       </c>
       <c r="F65" s="3">
-        <v>-0.177953</v>
+        <v>-0.58310099999999998</v>
       </c>
       <c r="G65" s="3">
         <f t="shared" si="1"/>
-        <v>4.0514400367164516</v>
+        <v>3.5722414147284334</v>
       </c>
       <c r="H65" s="3">
         <f t="shared" si="2"/>
-        <v>14.585184132179226</v>
+        <v>12.860069093022361</v>
       </c>
       <c r="I65" s="3" t="str">
         <f t="shared" si="3"/>
@@ -22446,7 +22496,7 @@
       </c>
       <c r="J65" s="2">
         <f t="shared" si="9"/>
-        <v>3.4270188297834068</v>
+        <v>10.268831975593486</v>
       </c>
       <c r="K65" s="1" t="str">
         <f t="shared" si="4"/>
@@ -22466,7 +22516,7 @@
       </c>
       <c r="O65" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
@@ -22477,30 +22527,30 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B66" s="2">
-        <v>47.514000000000003</v>
+        <v>53.278799999999997</v>
       </c>
       <c r="C66" s="3">
-        <v>23.639500000000002</v>
+        <v>24.550799999999999</v>
       </c>
       <c r="D66" s="3">
         <v>0</v>
       </c>
       <c r="E66" s="3">
-        <v>-4.8403499999999999</v>
+        <v>-4.0475300000000001</v>
       </c>
       <c r="F66" s="3">
-        <v>-0.97884599999999999</v>
+        <v>-0.177953</v>
       </c>
       <c r="G66" s="3">
         <f t="shared" si="1"/>
-        <v>4.9383324730333822</v>
+        <v>4.0514400367164516</v>
       </c>
       <c r="H66" s="3">
         <f t="shared" si="2"/>
-        <v>17.777996902920176</v>
+        <v>14.585184132179226</v>
       </c>
       <c r="I66" s="3" t="str">
         <f t="shared" si="3"/>
@@ -22508,11 +22558,11 @@
       </c>
       <c r="J66" s="2">
         <f t="shared" si="9"/>
-        <v>12.296425158156694</v>
+        <v>3.4270188297834068</v>
       </c>
       <c r="K66" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NNE</v>
+        <v>N</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="5"/>
@@ -22539,38 +22589,38 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B67" s="2">
-        <v>41.2151</v>
+        <v>47.514000000000003</v>
       </c>
       <c r="C67" s="3">
-        <v>23.8719</v>
+        <v>23.639500000000002</v>
       </c>
       <c r="D67" s="3">
         <v>0</v>
       </c>
       <c r="E67" s="3">
-        <v>-2.27366</v>
+        <v>-4.8403499999999999</v>
       </c>
       <c r="F67" s="3">
-        <v>-1.0329200000000001</v>
+        <v>-0.97884599999999999</v>
       </c>
       <c r="G67" s="3">
         <f t="shared" si="1"/>
-        <v>2.4972892347503524</v>
+        <v>4.9383324730333822</v>
       </c>
       <c r="H67" s="3">
         <f t="shared" si="2"/>
-        <v>8.9902412451012683</v>
+        <v>17.777996902920176</v>
       </c>
       <c r="I67" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="9"/>
-        <v>25.229492526296468</v>
+        <v>12.296425158156694</v>
       </c>
       <c r="K67" s="1" t="str">
         <f t="shared" si="4"/>
@@ -22590,7 +22640,7 @@
       </c>
       <c r="O67" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -22601,57 +22651,57 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B68" s="2">
-        <v>32.962800000000001</v>
+        <v>41.2151</v>
       </c>
       <c r="C68" s="3">
-        <v>26.566600000000001</v>
+        <v>23.8719</v>
       </c>
       <c r="D68" s="3">
         <v>0</v>
       </c>
       <c r="E68" s="3">
-        <v>-2.8088600000000001</v>
+        <v>-2.27366</v>
       </c>
       <c r="F68" s="3">
-        <v>-0.57498700000000003</v>
+        <v>-1.0329200000000001</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" ref="G68:G125" si="10">SQRT(E68*E68+F68*F68)</f>
-        <v>2.867107348839419</v>
+        <f t="shared" si="1"/>
+        <v>2.4972892347503524</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" ref="H68:H125" si="11">G68*3.6</f>
-        <v>10.321586455821908</v>
+        <f t="shared" si="2"/>
+        <v>8.9902412451012683</v>
       </c>
       <c r="I68" s="3" t="str">
-        <f t="shared" ref="I68:I125" si="12">IF(G68&lt;=0.2,"Calmo",IF(AND(G68&gt;0.2,G68&lt;=1.6),"Aragem",IF(AND(G68&gt;1.6,G68&lt;=3.3),"Brisa Leve",IF(AND(G68&gt;3.3,G68&lt;=5.4),"Brisa Fraca",IF(AND(G68&gt;5.4,G68&lt;=7.9),"Brisa Moderada",)))))</f>
+        <f t="shared" si="3"/>
         <v>Brisa Leve</v>
       </c>
       <c r="J68" s="2">
-        <f t="shared" ref="J68:J125" si="13">(1/0.0175432)*ATAN2(E68,F68)+180</f>
-        <v>12.432087062202669</v>
+        <f t="shared" si="9"/>
+        <v>25.229492526296468</v>
       </c>
       <c r="K68" s="1" t="str">
-        <f t="shared" ref="K68:K125" si="14">IF(J68&gt;348.75,"N",IF(J68&lt;=11.25,"N",IF(AND(J68&gt;11.25,J68&lt;=33.73),"NNE",IF(AND(J68&gt;33.75,J68&lt;=56.25),"NE",IF(AND(J68&gt;56.25,J68&lt;=78.75),"ENE",IF(AND(J68&gt;78.75,J68&lt;=101.25),"E",IF(AND(J68&gt;101.25,J68&lt;=123.75),"ESE",IF(AND(J68&gt;123.75,J68&lt;=146.25),"SE",IF(AND(J68&gt;146.25,J68&lt;=168.75),"SSE",IF(AND(J68&gt;168.75,J68&lt;=191.25),"S",IF(AND(J68&gt;191.25,J68&lt;=213.75),"SSW",IF(AND(J68&gt;213.75,J68&lt;=236.25),"SW",IF(AND(J68&gt;236.25,J68&lt;=258.75),"WSW",IF(AND(J68&gt;258.75,J68&lt;=281.25),"W",IF(AND(J68&gt;281.25,J68&lt;=303.75),"WNW",IF(AND(J68&gt;303.75,J68&lt;=326.25),"NW",IF(AND(J68&gt;326.25,J68&lt;=348.75),"NNW")))))))))))))))))</f>
+        <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
       <c r="L68" s="2">
-        <f t="shared" ref="L68:L125" si="15">IF(B68&lt;=20,1,IF(AND(B68&gt;20,B68&lt;=40),2,IF(AND(B68&gt;40,B68&lt;=60),3,IF(AND(B68&gt;60,B68&lt;=80),4,IF(AND(B68&gt;80,B68&lt;=100),5)))))</f>
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M68" s="2">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M68" s="2">
-        <f t="shared" ref="M68:M125" si="16">IF(C68&lt;=20,1,IF(AND(C68&gt;20,C68&lt;=30),2,IF(AND(C68&gt;30,C68&lt;=40),3)))</f>
-        <v>2</v>
-      </c>
       <c r="N68" s="2">
-        <f t="shared" ref="N68:N125" si="17">IF(D68&lt;=10,1,IF(AND(D68&gt;10,D68&lt;=20),2,IF(AND(D68&gt;20,D68&lt;=30),3,IF(AND(D68&gt;30,D68&lt;=40),4))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O68" s="2">
-        <f t="shared" ref="O68:O125" si="18">IF(G68&lt;=1,1,IF(AND(G68&gt;1,G68&lt;=2),2,IF(AND(G68&gt;2,G68&lt;=3),3,IF(AND(G68&gt;3,G68&lt;=4),4,IF(AND(G68&gt;4,G68&lt;=5),5)))))</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="P68" s="2"/>
@@ -22663,58 +22713,58 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B69" s="2">
-        <v>32.3598</v>
+        <v>32.962800000000001</v>
       </c>
       <c r="C69" s="3">
-        <v>25.748799999999999</v>
+        <v>26.566600000000001</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
       </c>
       <c r="E69" s="3">
-        <v>-4.1203399999999997</v>
+        <v>-2.8088600000000001</v>
       </c>
       <c r="F69" s="3">
-        <v>-0.58772100000000005</v>
+        <v>-0.57498700000000003</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" si="10"/>
-        <v>4.1620448927709797</v>
+        <f t="shared" ref="G69:G126" si="10">SQRT(E69*E69+F69*F69)</f>
+        <v>2.867107348839419</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" si="11"/>
-        <v>14.983361613975527</v>
+        <f t="shared" ref="H69:H126" si="11">G69*3.6</f>
+        <v>10.321586455821908</v>
       </c>
       <c r="I69" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
+        <f t="shared" ref="I69:I126" si="12">IF(G69&lt;=0.2,"Calmo",IF(AND(G69&gt;0.2,G69&lt;=1.6),"Aragem",IF(AND(G69&gt;1.6,G69&lt;=3.3),"Brisa Leve",IF(AND(G69&gt;3.3,G69&lt;=5.4),"Brisa Fraca",IF(AND(G69&gt;5.4,G69&lt;=7.9),"Brisa Moderada",)))))</f>
+        <v>Brisa Leve</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" si="13"/>
-        <v>8.9987329749251046</v>
+        <f t="shared" ref="J69:J126" si="13">(1/0.0175432)*ATAN2(E69,F69)+180</f>
+        <v>12.432087062202669</v>
       </c>
       <c r="K69" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>N</v>
+        <f t="shared" ref="K69:K126" si="14">IF(J69&gt;348.75,"N",IF(J69&lt;=11.25,"N",IF(AND(J69&gt;11.25,J69&lt;=33.73),"NNE",IF(AND(J69&gt;33.75,J69&lt;=56.25),"NE",IF(AND(J69&gt;56.25,J69&lt;=78.75),"ENE",IF(AND(J69&gt;78.75,J69&lt;=101.25),"E",IF(AND(J69&gt;101.25,J69&lt;=123.75),"ESE",IF(AND(J69&gt;123.75,J69&lt;=146.25),"SE",IF(AND(J69&gt;146.25,J69&lt;=168.75),"SSE",IF(AND(J69&gt;168.75,J69&lt;=191.25),"S",IF(AND(J69&gt;191.25,J69&lt;=213.75),"SSW",IF(AND(J69&gt;213.75,J69&lt;=236.25),"SW",IF(AND(J69&gt;236.25,J69&lt;=258.75),"WSW",IF(AND(J69&gt;258.75,J69&lt;=281.25),"W",IF(AND(J69&gt;281.25,J69&lt;=303.75),"WNW",IF(AND(J69&gt;303.75,J69&lt;=326.25),"NW",IF(AND(J69&gt;326.25,J69&lt;=348.75),"NNW")))))))))))))))))</f>
+        <v>NNE</v>
       </c>
       <c r="L69" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="L69:L126" si="15">IF(B69&lt;=20,1,IF(AND(B69&gt;20,B69&lt;=40),2,IF(AND(B69&gt;40,B69&lt;=60),3,IF(AND(B69&gt;60,B69&lt;=80),4,IF(AND(B69&gt;80,B69&lt;=100),5)))))</f>
         <v>2</v>
       </c>
       <c r="M69" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="M69:M126" si="16">IF(C69&lt;=20,1,IF(AND(C69&gt;20,C69&lt;=30),2,IF(AND(C69&gt;30,C69&lt;=40),3)))</f>
         <v>2</v>
       </c>
       <c r="N69" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="N69:N126" si="17">IF(D69&lt;=10,1,IF(AND(D69&gt;10,D69&lt;=20),2,IF(AND(D69&gt;20,D69&lt;=30),3,IF(AND(D69&gt;30,D69&lt;=40),4))))</f>
         <v>1</v>
       </c>
       <c r="O69" s="2">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <f t="shared" ref="O69:O126" si="18">IF(G69&lt;=1,1,IF(AND(G69&gt;1,G69&lt;=2),2,IF(AND(G69&gt;2,G69&lt;=3),3,IF(AND(G69&gt;3,G69&lt;=4),4,IF(AND(G69&gt;4,G69&lt;=5),5)))))</f>
+        <v>3</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
@@ -22725,42 +22775,42 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B70" s="2">
-        <v>39.411499999999997</v>
+        <v>32.3598</v>
       </c>
       <c r="C70" s="3">
-        <v>25.4559</v>
+        <v>25.748799999999999</v>
       </c>
       <c r="D70" s="3">
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>-2.2347700000000001</v>
+        <v>-4.1203399999999997</v>
       </c>
       <c r="F70" s="3">
-        <v>-1.7291700000000001</v>
+        <v>-0.58772100000000005</v>
       </c>
       <c r="G70" s="3">
         <f t="shared" si="10"/>
-        <v>2.8256372452599079</v>
+        <v>4.1620448927709797</v>
       </c>
       <c r="H70" s="3">
         <f t="shared" si="11"/>
-        <v>10.172294082935668</v>
+        <v>14.983361613975527</v>
       </c>
       <c r="I70" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="13"/>
-        <v>38.460296572691362</v>
+        <v>8.9987329749251046</v>
       </c>
       <c r="K70" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NE</v>
+        <v>N</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="15"/>
@@ -22776,7 +22826,7 @@
       </c>
       <c r="O70" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
@@ -22787,30 +22837,30 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B71" s="2">
-        <v>31.366499999999998</v>
+        <v>39.411499999999997</v>
       </c>
       <c r="C71" s="3">
-        <v>27.150500000000001</v>
+        <v>25.4559</v>
       </c>
       <c r="D71" s="3">
         <v>0</v>
       </c>
       <c r="E71" s="3">
-        <v>-2.7096200000000001</v>
+        <v>-2.2347700000000001</v>
       </c>
       <c r="F71" s="3">
-        <v>-0.71766099999999999</v>
+        <v>-1.7291700000000001</v>
       </c>
       <c r="G71" s="3">
         <f t="shared" si="10"/>
-        <v>2.8030479580843779</v>
+        <v>2.8256372452599079</v>
       </c>
       <c r="H71" s="3">
         <f t="shared" si="11"/>
-        <v>10.09097264910376</v>
+        <v>10.172294082935668</v>
       </c>
       <c r="I71" s="3" t="str">
         <f t="shared" si="12"/>
@@ -22818,11 +22868,11 @@
       </c>
       <c r="J71" s="2">
         <f t="shared" si="13"/>
-        <v>15.681014360046078</v>
+        <v>38.460296572691362</v>
       </c>
       <c r="K71" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NNE</v>
+        <v>NE</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="15"/>
@@ -22849,30 +22899,30 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B72" s="2">
-        <v>36.977400000000003</v>
+        <v>31.366499999999998</v>
       </c>
       <c r="C72" s="3">
-        <v>27.356100000000001</v>
+        <v>27.150500000000001</v>
       </c>
       <c r="D72" s="3">
         <v>0</v>
       </c>
       <c r="E72" s="3">
-        <v>-2.5507300000000002</v>
+        <v>-2.7096200000000001</v>
       </c>
       <c r="F72" s="3">
-        <v>-0.244141</v>
+        <v>-0.71766099999999999</v>
       </c>
       <c r="G72" s="3">
         <f t="shared" si="10"/>
-        <v>2.5623872386470006</v>
+        <v>2.8030479580843779</v>
       </c>
       <c r="H72" s="3">
         <f t="shared" si="11"/>
-        <v>9.2245940591292026</v>
+        <v>10.09097264910376</v>
       </c>
       <c r="I72" s="3" t="str">
         <f t="shared" si="12"/>
@@ -22880,11 +22930,11 @@
       </c>
       <c r="J72" s="2">
         <f t="shared" si="13"/>
-        <v>6.3618282340802352</v>
+        <v>15.681014360046078</v>
       </c>
       <c r="K72" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>N</v>
+        <v>NNE</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="15"/>
@@ -22911,42 +22961,42 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B73" s="2">
-        <v>31.441099999999999</v>
+        <v>36.977400000000003</v>
       </c>
       <c r="C73" s="3">
-        <v>27.907299999999999</v>
+        <v>27.356100000000001</v>
       </c>
       <c r="D73" s="3">
         <v>0</v>
       </c>
       <c r="E73" s="3">
-        <v>-4.2314699999999998</v>
+        <v>-2.5507300000000002</v>
       </c>
       <c r="F73" s="3">
-        <v>-1.1944300000000001</v>
+        <v>-0.244141</v>
       </c>
       <c r="G73" s="3">
         <f t="shared" si="10"/>
-        <v>4.3968171881259748</v>
+        <v>2.5623872386470006</v>
       </c>
       <c r="H73" s="3">
         <f t="shared" si="11"/>
-        <v>15.82854187725351</v>
+        <v>9.2245940591292026</v>
       </c>
       <c r="I73" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="13"/>
-        <v>16.604645345142728</v>
+        <v>6.3618282340802352</v>
       </c>
       <c r="K73" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NNE</v>
+        <v>N</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="15"/>
@@ -22962,7 +23012,7 @@
       </c>
       <c r="O73" s="2">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
@@ -22973,7 +23023,7 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B74" s="2">
         <v>31.441099999999999</v>
@@ -22985,26 +23035,26 @@
         <v>0</v>
       </c>
       <c r="E74" s="3">
-        <v>-2.6234799999999998</v>
+        <v>-4.2314699999999998</v>
       </c>
       <c r="F74" s="3">
-        <v>-0.74956699999999998</v>
+        <v>-1.1944300000000001</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" si="10"/>
-        <v>2.7284607378316807</v>
+        <v>4.3968171881259748</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" si="11"/>
-        <v>9.8224586561940512</v>
+        <v>15.82854187725351</v>
       </c>
       <c r="I74" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="13"/>
-        <v>16.786188295625095</v>
+        <v>16.604645345142728</v>
       </c>
       <c r="K74" s="1" t="str">
         <f t="shared" si="14"/>
@@ -23024,7 +23074,7 @@
       </c>
       <c r="O74" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
@@ -23035,30 +23085,30 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="B75" s="2">
-        <v>27.1859</v>
+        <v>31.441099999999999</v>
       </c>
       <c r="C75" s="3">
-        <v>28.656199999999998</v>
+        <v>27.907299999999999</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
       </c>
       <c r="E75" s="3">
-        <v>-2.8261500000000002</v>
+        <v>-2.6234799999999998</v>
       </c>
       <c r="F75" s="3">
-        <v>-1.0213099999999999</v>
+        <v>-0.74956699999999998</v>
       </c>
       <c r="G75" s="3">
         <f t="shared" si="10"/>
-        <v>3.0050287750036606</v>
+        <v>2.7284607378316807</v>
       </c>
       <c r="H75" s="3">
         <f t="shared" si="11"/>
-        <v>10.818103590013179</v>
+        <v>9.8224586561940512</v>
       </c>
       <c r="I75" s="3" t="str">
         <f t="shared" si="12"/>
@@ -23066,7 +23116,7 @@
       </c>
       <c r="J75" s="2">
         <f t="shared" si="13"/>
-        <v>20.68942847498451</v>
+        <v>16.786188295625095</v>
       </c>
       <c r="K75" s="1" t="str">
         <f t="shared" si="14"/>
@@ -23086,7 +23136,7 @@
       </c>
       <c r="O75" s="2">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -23097,38 +23147,38 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
-        <v>44086</v>
+        <v>44085</v>
       </c>
       <c r="B76" s="2">
-        <v>35.1798</v>
+        <v>27.1859</v>
       </c>
       <c r="C76" s="3">
-        <v>26.869299999999999</v>
+        <v>28.656199999999998</v>
       </c>
       <c r="D76" s="3">
-        <v>1.3291000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>-4.1090499999999999</v>
+        <v>-2.8261500000000002</v>
       </c>
       <c r="F76" s="3">
-        <v>-1.32673</v>
+        <v>-1.0213099999999999</v>
       </c>
       <c r="G76" s="3">
         <f t="shared" si="10"/>
-        <v>4.3179282526924876</v>
+        <v>3.0050287750036606</v>
       </c>
       <c r="H76" s="3">
         <f t="shared" si="11"/>
-        <v>15.544541709692956</v>
+        <v>10.818103590013179</v>
       </c>
       <c r="I76" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="13"/>
-        <v>18.72500858347405</v>
+        <v>20.68942847498451</v>
       </c>
       <c r="K76" s="1" t="str">
         <f t="shared" si="14"/>
@@ -23148,7 +23198,7 @@
       </c>
       <c r="O76" s="2">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
@@ -23159,30 +23209,30 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
-        <v>44087</v>
+        <v>44086</v>
       </c>
       <c r="B77" s="2">
-        <v>39.317399999999999</v>
+        <v>35.1798</v>
       </c>
       <c r="C77" s="3">
-        <v>25.114000000000001</v>
+        <v>26.869299999999999</v>
       </c>
       <c r="D77" s="3">
-        <v>0</v>
+        <v>1.3291000000000001E-2</v>
       </c>
       <c r="E77" s="3">
-        <v>-3.7377600000000002</v>
+        <v>-4.1090499999999999</v>
       </c>
       <c r="F77" s="3">
-        <v>-0.97300399999999998</v>
+        <v>-1.32673</v>
       </c>
       <c r="G77" s="3">
         <f t="shared" si="10"/>
-        <v>3.8623291679524159</v>
+        <v>4.3179282526924876</v>
       </c>
       <c r="H77" s="3">
         <f t="shared" si="11"/>
-        <v>13.904385004628697</v>
+        <v>15.544541709692956</v>
       </c>
       <c r="I77" s="3" t="str">
         <f t="shared" si="12"/>
@@ -23190,7 +23240,7 @@
       </c>
       <c r="J77" s="2">
         <f t="shared" si="13"/>
-        <v>15.438956011416082</v>
+        <v>18.72500858347405</v>
       </c>
       <c r="K77" s="1" t="str">
         <f t="shared" si="14"/>
@@ -23210,7 +23260,7 @@
       </c>
       <c r="O77" s="2">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
@@ -23221,38 +23271,38 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
-        <v>44088</v>
+        <v>44087</v>
       </c>
       <c r="B78" s="2">
-        <v>31.001100000000001</v>
+        <v>39.317399999999999</v>
       </c>
       <c r="C78" s="3">
-        <v>27.7925</v>
+        <v>25.114000000000001</v>
       </c>
       <c r="D78" s="3">
         <v>0</v>
       </c>
       <c r="E78" s="3">
-        <v>-2.3204199999999999</v>
+        <v>-3.7377600000000002</v>
       </c>
       <c r="F78" s="3">
-        <v>-1.4121900000000001</v>
+        <v>-0.97300399999999998</v>
       </c>
       <c r="G78" s="3">
         <f t="shared" si="10"/>
-        <v>2.7163632990636581</v>
+        <v>3.8623291679524159</v>
       </c>
       <c r="H78" s="3">
         <f t="shared" si="11"/>
-        <v>9.7789078766291695</v>
+        <v>13.904385004628697</v>
       </c>
       <c r="I78" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="13"/>
-        <v>32.086327047242008</v>
+        <v>15.438956011416082</v>
       </c>
       <c r="K78" s="1" t="str">
         <f t="shared" si="14"/>
@@ -23272,7 +23322,7 @@
       </c>
       <c r="O78" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
@@ -23283,42 +23333,42 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
-        <v>44089</v>
+        <v>44088</v>
       </c>
       <c r="B79" s="2">
-        <v>33.020499999999998</v>
+        <v>31.001100000000001</v>
       </c>
       <c r="C79" s="3">
-        <v>27.6082</v>
+        <v>27.7925</v>
       </c>
       <c r="D79" s="3">
         <v>0</v>
       </c>
       <c r="E79" s="3">
-        <v>-4.0688199999999997</v>
+        <v>-2.3204199999999999</v>
       </c>
       <c r="F79" s="3">
-        <v>1.1654100000000001</v>
+        <v>-1.4121900000000001</v>
       </c>
       <c r="G79" s="3">
         <f t="shared" si="10"/>
-        <v>4.2324315305152895</v>
+        <v>2.7163632990636581</v>
       </c>
       <c r="H79" s="3">
         <f t="shared" si="11"/>
-        <v>15.236753509855042</v>
+        <v>9.7789078766291695</v>
       </c>
       <c r="I79" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="13"/>
-        <v>343.17641275442088</v>
+        <v>32.086327047242008</v>
       </c>
       <c r="K79" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NNW</v>
+        <v>NNE</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="15"/>
@@ -23334,7 +23384,7 @@
       </c>
       <c r="O79" s="2">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
@@ -23345,42 +23395,42 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B80" s="2">
-        <v>39.8992</v>
+        <v>33.020499999999998</v>
       </c>
       <c r="C80" s="3">
-        <v>26.0656</v>
+        <v>27.6082</v>
       </c>
       <c r="D80" s="3">
-        <v>1.8180500000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E80" s="3">
-        <v>-2.1346799999999999</v>
+        <v>-4.0688199999999997</v>
       </c>
       <c r="F80" s="3">
-        <v>-1.3261099999999999</v>
+        <v>1.1654100000000001</v>
       </c>
       <c r="G80" s="3">
         <f t="shared" si="10"/>
-        <v>2.5130512200311395</v>
+        <v>4.2324315305152895</v>
       </c>
       <c r="H80" s="3">
         <f t="shared" si="11"/>
-        <v>9.0469843921121029</v>
+        <v>15.236753509855042</v>
       </c>
       <c r="I80" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="13"/>
-        <v>32.608715803626893</v>
+        <v>343.17641275442088</v>
       </c>
       <c r="K80" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NNE</v>
+        <v>NNW</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="15"/>
@@ -23396,7 +23446,7 @@
       </c>
       <c r="O80" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
@@ -23407,42 +23457,42 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="11">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B81" s="2">
-        <v>31.043900000000001</v>
+        <v>39.8992</v>
       </c>
       <c r="C81" s="3">
-        <v>29.462900000000001</v>
+        <v>26.0656</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>1.8180500000000001E-3</v>
       </c>
       <c r="E81" s="3">
-        <v>-1.5377099999999999</v>
+        <v>-2.1346799999999999</v>
       </c>
       <c r="F81" s="3">
-        <v>0.34026400000000001</v>
+        <v>-1.3261099999999999</v>
       </c>
       <c r="G81" s="3">
         <f t="shared" si="10"/>
-        <v>1.5749068651180613</v>
+        <v>2.5130512200311395</v>
       </c>
       <c r="H81" s="3">
         <f t="shared" si="11"/>
-        <v>5.6696647144250205</v>
+        <v>9.0469843921121029</v>
       </c>
       <c r="I81" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="13"/>
-        <v>346.66412397139408</v>
+        <v>32.608715803626893</v>
       </c>
       <c r="K81" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NNW</v>
+        <v>NNE</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="15"/>
@@ -23458,7 +23508,7 @@
       </c>
       <c r="O81" s="2">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
@@ -23469,42 +23519,42 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B82" s="2">
-        <v>24.049299999999999</v>
+        <v>31.043900000000001</v>
       </c>
       <c r="C82" s="3">
-        <v>31.007400000000001</v>
+        <v>29.462900000000001</v>
       </c>
       <c r="D82" s="3">
         <v>0</v>
       </c>
       <c r="E82" s="3">
-        <v>-3.6499799999999998</v>
+        <v>-1.5377099999999999</v>
       </c>
       <c r="F82" s="3">
-        <v>-0.50455000000000005</v>
+        <v>0.34026400000000001</v>
       </c>
       <c r="G82" s="3">
         <f t="shared" si="10"/>
-        <v>3.6846878704850972</v>
+        <v>1.5749068651180613</v>
       </c>
       <c r="H82" s="3">
         <f t="shared" si="11"/>
-        <v>13.264876333746351</v>
+        <v>5.6696647144250205</v>
       </c>
       <c r="I82" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
+        <v>Aragem</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="13"/>
-        <v>8.7524772421677994</v>
+        <v>346.66412397139408</v>
       </c>
       <c r="K82" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>N</v>
+        <v>NNW</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="15"/>
@@ -23512,7 +23562,7 @@
       </c>
       <c r="M82" s="2">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="17"/>
@@ -23520,7 +23570,7 @@
       </c>
       <c r="O82" s="2">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
@@ -23531,42 +23581,42 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B83" s="2">
-        <v>23.492000000000001</v>
+        <v>24.049299999999999</v>
       </c>
       <c r="C83" s="3">
-        <v>32.091900000000003</v>
+        <v>31.007400000000001</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>-2.5505200000000001</v>
+        <v>-3.6499799999999998</v>
       </c>
       <c r="F83" s="3">
-        <v>-0.88747699999999996</v>
+        <v>-0.50455000000000005</v>
       </c>
       <c r="G83" s="3">
         <f t="shared" si="10"/>
-        <v>2.7005124876454469</v>
+        <v>3.6846878704850972</v>
       </c>
       <c r="H83" s="3">
         <f t="shared" si="11"/>
-        <v>9.7218449555236095</v>
+        <v>13.264876333746351</v>
       </c>
       <c r="I83" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="13"/>
-        <v>20.009973148127841</v>
+        <v>8.7524772421677994</v>
       </c>
       <c r="K83" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NNE</v>
+        <v>N</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="15"/>
@@ -23582,7 +23632,7 @@
       </c>
       <c r="O83" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
@@ -23593,38 +23643,38 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B84" s="2">
-        <v>25.430399999999999</v>
+        <v>23.492000000000001</v>
       </c>
       <c r="C84" s="3">
-        <v>31.3169</v>
+        <v>32.091900000000003</v>
       </c>
       <c r="D84" s="3">
         <v>0</v>
       </c>
       <c r="E84" s="3">
-        <v>-3.7880500000000001</v>
+        <v>-2.5505200000000001</v>
       </c>
       <c r="F84" s="3">
-        <v>-1.66177</v>
+        <v>-0.88747699999999996</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" si="10"/>
-        <v>4.1365205590447633</v>
+        <v>2.7005124876454469</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" si="11"/>
-        <v>14.891474012561149</v>
+        <v>9.7218449555236095</v>
       </c>
       <c r="I84" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="13"/>
-        <v>24.487552654330045</v>
+        <v>20.009973148127841</v>
       </c>
       <c r="K84" s="1" t="str">
         <f t="shared" si="14"/>
@@ -23644,7 +23694,7 @@
       </c>
       <c r="O84" s="2">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
@@ -23655,38 +23705,38 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B85" s="2">
-        <v>40.859299999999998</v>
+        <v>25.430399999999999</v>
       </c>
       <c r="C85" s="3">
-        <v>27.469200000000001</v>
+        <v>31.3169</v>
       </c>
       <c r="D85" s="3">
-        <v>1.62616</v>
+        <v>0</v>
       </c>
       <c r="E85" s="3">
-        <v>-2.3972500000000001</v>
+        <v>-3.7880500000000001</v>
       </c>
       <c r="F85" s="3">
-        <v>-1.3440000000000001</v>
+        <v>-1.66177</v>
       </c>
       <c r="G85" s="3">
         <f t="shared" si="10"/>
-        <v>2.7482983030413566</v>
+        <v>4.1365205590447633</v>
       </c>
       <c r="H85" s="3">
         <f t="shared" si="11"/>
-        <v>9.8938738909488837</v>
+        <v>14.891474012561149</v>
       </c>
       <c r="I85" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="13"/>
-        <v>30.049282585265161</v>
+        <v>24.487552654330045</v>
       </c>
       <c r="K85" s="1" t="str">
         <f t="shared" si="14"/>
@@ -23694,11 +23744,11 @@
       </c>
       <c r="L85" s="2">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="17"/>
@@ -23706,7 +23756,7 @@
       </c>
       <c r="O85" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -23717,50 +23767,50 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B86" s="2">
-        <v>86.240600000000001</v>
+        <v>40.859299999999998</v>
       </c>
       <c r="C86" s="3">
-        <v>19.318999999999999</v>
+        <v>27.469200000000001</v>
       </c>
       <c r="D86" s="3">
-        <v>8.8165200000000006</v>
+        <v>1.62616</v>
       </c>
       <c r="E86" s="3">
-        <v>-0.97002299999999997</v>
+        <v>-2.3972500000000001</v>
       </c>
       <c r="F86" s="3">
-        <v>-8.7806300000000004E-2</v>
+        <v>-1.3440000000000001</v>
       </c>
       <c r="G86" s="3">
         <f t="shared" si="10"/>
-        <v>0.97398899729344479</v>
+        <v>2.7482983030413566</v>
       </c>
       <c r="H86" s="3">
         <f t="shared" si="11"/>
-        <v>3.5063603902564013</v>
+        <v>9.8938738909488837</v>
       </c>
       <c r="I86" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="13"/>
-        <v>6.0682847139323712</v>
+        <v>30.049282585265161</v>
       </c>
       <c r="K86" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>N</v>
+        <v>NNE</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="17"/>
@@ -23768,7 +23818,7 @@
       </c>
       <c r="O86" s="2">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
@@ -23779,50 +23829,50 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="11">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="B87" s="2">
-        <v>70.407399999999996</v>
+        <v>86.240600000000001</v>
       </c>
       <c r="C87" s="3">
-        <v>21.154399999999999</v>
+        <v>19.318999999999999</v>
       </c>
       <c r="D87" s="3">
-        <v>4.6870599999999998</v>
+        <v>8.8165200000000006</v>
       </c>
       <c r="E87" s="3">
-        <v>-1.5355300000000001</v>
+        <v>-0.97002299999999997</v>
       </c>
       <c r="F87" s="3">
-        <v>1.64574</v>
+        <v>-8.7806300000000004E-2</v>
       </c>
       <c r="G87" s="3">
         <f t="shared" si="10"/>
-        <v>2.2508470691053182</v>
+        <v>0.97398899729344479</v>
       </c>
       <c r="H87" s="3">
         <f t="shared" si="11"/>
-        <v>8.1030494487791458</v>
+        <v>3.5063603902564013</v>
       </c>
       <c r="I87" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
+        <v>Aragem</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="13"/>
-        <v>312.33417747907095</v>
+        <v>6.0682847139323712</v>
       </c>
       <c r="K87" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NW</v>
+        <v>N</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="17"/>
@@ -23830,7 +23880,7 @@
       </c>
       <c r="O87" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
@@ -23841,30 +23891,30 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="B88" s="2">
-        <v>57.751300000000001</v>
+        <v>70.407399999999996</v>
       </c>
       <c r="C88" s="3">
-        <v>24.7743</v>
+        <v>21.154399999999999</v>
       </c>
       <c r="D88" s="3">
-        <v>1.13757</v>
+        <v>4.6870599999999998</v>
       </c>
       <c r="E88" s="3">
-        <v>-2.7237200000000001</v>
+        <v>-1.5355300000000001</v>
       </c>
       <c r="F88" s="3">
-        <v>0.50737600000000005</v>
+        <v>1.64574</v>
       </c>
       <c r="G88" s="3">
         <f t="shared" si="10"/>
-        <v>2.7705741361270233</v>
+        <v>2.2508470691053182</v>
       </c>
       <c r="H88" s="3">
         <f t="shared" si="11"/>
-        <v>9.9740668900572835</v>
+        <v>8.1030494487791458</v>
       </c>
       <c r="I88" s="3" t="str">
         <f t="shared" si="12"/>
@@ -23872,15 +23922,15 @@
       </c>
       <c r="J88" s="2">
         <f t="shared" si="13"/>
-        <v>348.5794506813844</v>
+        <v>312.33417747907095</v>
       </c>
       <c r="K88" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NNW</v>
+        <v>NW</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="16"/>
@@ -23903,30 +23953,30 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="B89" s="2">
-        <v>44.273099999999999</v>
+        <v>57.751300000000001</v>
       </c>
       <c r="C89" s="3">
-        <v>25.832000000000001</v>
+        <v>24.7743</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>1.13757</v>
       </c>
       <c r="E89" s="3">
-        <v>-2.6978</v>
+        <v>-2.7237200000000001</v>
       </c>
       <c r="F89" s="3">
-        <v>-1.5995699999999999</v>
+        <v>0.50737600000000005</v>
       </c>
       <c r="G89" s="3">
         <f t="shared" si="10"/>
-        <v>3.1363591989598385</v>
+        <v>2.7705741361270233</v>
       </c>
       <c r="H89" s="3">
         <f t="shared" si="11"/>
-        <v>11.290893116255418</v>
+        <v>9.9740668900572835</v>
       </c>
       <c r="I89" s="3" t="str">
         <f t="shared" si="12"/>
@@ -23934,11 +23984,11 @@
       </c>
       <c r="J89" s="2">
         <f t="shared" si="13"/>
-        <v>31.429731966736966</v>
+        <v>348.5794506813844</v>
       </c>
       <c r="K89" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NNE</v>
+        <v>NNW</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="15"/>
@@ -23954,7 +24004,7 @@
       </c>
       <c r="O89" s="2">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
@@ -23965,30 +24015,30 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="B90" s="2">
-        <v>34.130600000000001</v>
+        <v>44.273099999999999</v>
       </c>
       <c r="C90" s="3">
-        <v>27.9376</v>
+        <v>25.832000000000001</v>
       </c>
       <c r="D90" s="3">
         <v>0</v>
       </c>
       <c r="E90" s="3">
-        <v>-2.37086</v>
+        <v>-2.6978</v>
       </c>
       <c r="F90" s="3">
-        <v>-0.96032200000000001</v>
+        <v>-1.5995699999999999</v>
       </c>
       <c r="G90" s="3">
         <f t="shared" si="10"/>
-        <v>2.5579670606331115</v>
+        <v>3.1363591989598385</v>
       </c>
       <c r="H90" s="3">
         <f t="shared" si="11"/>
-        <v>9.2086814182792018</v>
+        <v>11.290893116255418</v>
       </c>
       <c r="I90" s="3" t="str">
         <f t="shared" si="12"/>
@@ -23996,7 +24046,7 @@
       </c>
       <c r="J90" s="2">
         <f t="shared" si="13"/>
-        <v>22.859993912190902</v>
+        <v>31.429731966736966</v>
       </c>
       <c r="K90" s="1" t="str">
         <f t="shared" si="14"/>
@@ -24004,7 +24054,7 @@
       </c>
       <c r="L90" s="2">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="16"/>
@@ -24016,7 +24066,7 @@
       </c>
       <c r="O90" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
@@ -24027,30 +24077,30 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B91" s="2">
-        <v>27.649899999999999</v>
+        <v>34.130600000000001</v>
       </c>
       <c r="C91" s="3">
-        <v>31.0505</v>
+        <v>27.9376</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-1.05193</v>
+        <v>-2.37086</v>
       </c>
       <c r="F91" s="3">
-        <v>-1.41025</v>
+        <v>-0.96032200000000001</v>
       </c>
       <c r="G91" s="3">
         <f t="shared" si="10"/>
-        <v>1.7593640292446586</v>
+        <v>2.5579670606331115</v>
       </c>
       <c r="H91" s="3">
         <f t="shared" si="11"/>
-        <v>6.333710505280771</v>
+        <v>9.2086814182792018</v>
       </c>
       <c r="I91" s="3" t="str">
         <f t="shared" si="12"/>
@@ -24058,11 +24108,11 @@
       </c>
       <c r="J91" s="2">
         <f t="shared" si="13"/>
-        <v>53.929531605428409</v>
+        <v>22.859993912190902</v>
       </c>
       <c r="K91" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NE</v>
+        <v>NNE</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="15"/>
@@ -24070,7 +24120,7 @@
       </c>
       <c r="M91" s="2">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="17"/>
@@ -24078,7 +24128,7 @@
       </c>
       <c r="O91" s="2">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
@@ -24089,30 +24139,30 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B92" s="2">
-        <v>21.897500000000001</v>
+        <v>27.649899999999999</v>
       </c>
       <c r="C92" s="3">
-        <v>33.145499999999998</v>
+        <v>31.0505</v>
       </c>
       <c r="D92" s="3">
         <v>0</v>
       </c>
       <c r="E92" s="3">
-        <v>-2.6451199999999999</v>
+        <v>-1.05193</v>
       </c>
       <c r="F92" s="3">
-        <v>-1.2664299999999999</v>
+        <v>-1.41025</v>
       </c>
       <c r="G92" s="3">
         <f t="shared" si="10"/>
-        <v>2.932661719206632</v>
+        <v>1.7593640292446586</v>
       </c>
       <c r="H92" s="3">
         <f t="shared" si="11"/>
-        <v>10.557582189143876</v>
+        <v>6.333710505280771</v>
       </c>
       <c r="I92" s="3" t="str">
         <f t="shared" si="12"/>
@@ -24120,11 +24170,11 @@
       </c>
       <c r="J92" s="2">
         <f t="shared" si="13"/>
-        <v>26.375526245045165</v>
+        <v>53.929531605428409</v>
       </c>
       <c r="K92" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NNE</v>
+        <v>NE</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="15"/>
@@ -24140,7 +24190,7 @@
       </c>
       <c r="O92" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
@@ -24151,42 +24201,42 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B93" s="2">
-        <v>23.418299999999999</v>
+        <v>21.897500000000001</v>
       </c>
       <c r="C93" s="3">
-        <v>33.0349</v>
+        <v>33.145499999999998</v>
       </c>
       <c r="D93" s="3">
         <v>0</v>
       </c>
       <c r="E93" s="3">
-        <v>-3.4748999999999999</v>
+        <v>-2.6451199999999999</v>
       </c>
       <c r="F93" s="3">
-        <v>-4.4647600000000003E-2</v>
+        <v>-1.2664299999999999</v>
       </c>
       <c r="G93" s="3">
         <f t="shared" si="10"/>
-        <v>3.4751868177388334</v>
+        <v>2.932661719206632</v>
       </c>
       <c r="H93" s="3">
         <f t="shared" si="11"/>
-        <v>12.510672543859801</v>
+        <v>10.557582189143876</v>
       </c>
       <c r="I93" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="13"/>
-        <v>1.654842867685943</v>
+        <v>26.375526245045165</v>
       </c>
       <c r="K93" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>N</v>
+        <v>NNE</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="15"/>
@@ -24202,7 +24252,7 @@
       </c>
       <c r="O93" s="2">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
@@ -24213,30 +24263,30 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B94" s="2">
-        <v>29.182700000000001</v>
+        <v>23.418299999999999</v>
       </c>
       <c r="C94" s="3">
-        <v>31.789200000000001</v>
+        <v>33.0349</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-3.8532199999999999</v>
+        <v>-3.4748999999999999</v>
       </c>
       <c r="F94" s="3">
-        <v>-0.85203300000000004</v>
+        <v>-4.4647600000000003E-2</v>
       </c>
       <c r="G94" s="3">
         <f t="shared" si="10"/>
-        <v>3.9462975814665824</v>
+        <v>3.4751868177388334</v>
       </c>
       <c r="H94" s="3">
         <f t="shared" si="11"/>
-        <v>14.206671293279697</v>
+        <v>12.510672543859801</v>
       </c>
       <c r="I94" s="3" t="str">
         <f t="shared" si="12"/>
@@ -24244,11 +24294,11 @@
       </c>
       <c r="J94" s="2">
         <f t="shared" si="13"/>
-        <v>13.32732453332352</v>
+        <v>1.654842867685943</v>
       </c>
       <c r="K94" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NNE</v>
+        <v>N</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="15"/>
@@ -24275,38 +24325,38 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="B95" s="2">
-        <v>29.429300000000001</v>
+        <v>29.182700000000001</v>
       </c>
       <c r="C95" s="3">
-        <v>31.1434</v>
+        <v>31.789200000000001</v>
       </c>
       <c r="D95" s="3">
         <v>0</v>
       </c>
       <c r="E95" s="3">
-        <v>-2.9610099999999999</v>
+        <v>-3.8532199999999999</v>
       </c>
       <c r="F95" s="3">
-        <v>-0.75151999999999997</v>
+        <v>-0.85203300000000004</v>
       </c>
       <c r="G95" s="3">
         <f t="shared" si="10"/>
-        <v>3.0548915742624971</v>
+        <v>3.9462975814665824</v>
       </c>
       <c r="H95" s="3">
         <f t="shared" si="11"/>
-        <v>10.997609667344991</v>
+        <v>14.206671293279697</v>
       </c>
       <c r="I95" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="13"/>
-        <v>15.090761052590665</v>
+        <v>13.32732453332352</v>
       </c>
       <c r="K95" s="1" t="str">
         <f t="shared" si="14"/>
@@ -24337,30 +24387,30 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B96" s="2">
-        <v>25.8856</v>
+        <v>29.429300000000001</v>
       </c>
       <c r="C96" s="3">
-        <v>32.232100000000003</v>
+        <v>31.1434</v>
       </c>
       <c r="D96" s="3">
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-3.0978699999999999</v>
+        <v>-2.9610099999999999</v>
       </c>
       <c r="F96" s="3">
-        <v>-0.64268800000000004</v>
+        <v>-0.75151999999999997</v>
       </c>
       <c r="G96" s="3">
         <f t="shared" si="10"/>
-        <v>3.1638341300144037</v>
+        <v>3.0548915742624971</v>
       </c>
       <c r="H96" s="3">
         <f t="shared" si="11"/>
-        <v>11.389802868051854</v>
+        <v>10.997609667344991</v>
       </c>
       <c r="I96" s="3" t="str">
         <f t="shared" si="12"/>
@@ -24368,7 +24418,7 @@
       </c>
       <c r="J96" s="2">
         <f t="shared" si="13"/>
-        <v>12.582812066739621</v>
+        <v>15.090761052590665</v>
       </c>
       <c r="K96" s="1" t="str">
         <f t="shared" si="14"/>
@@ -24399,38 +24449,38 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
-        <v>44107</v>
+        <v>44106</v>
       </c>
       <c r="B97" s="2">
-        <v>17.949100000000001</v>
+        <v>25.8856</v>
       </c>
       <c r="C97" s="3">
-        <v>33.968899999999998</v>
+        <v>32.232100000000003</v>
       </c>
       <c r="D97" s="3">
         <v>0</v>
       </c>
       <c r="E97" s="3">
-        <v>-4.2012999999999998</v>
+        <v>-3.0978699999999999</v>
       </c>
       <c r="F97" s="3">
-        <v>-1.44794</v>
+        <v>-0.64268800000000004</v>
       </c>
       <c r="G97" s="3">
         <f t="shared" si="10"/>
-        <v>4.4438105195428843</v>
+        <v>3.1638341300144037</v>
       </c>
       <c r="H97" s="3">
         <f t="shared" si="11"/>
-        <v>15.997717870354384</v>
+        <v>11.389802868051854</v>
       </c>
       <c r="I97" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="13"/>
-        <v>19.841077854985542</v>
+        <v>12.582812066739621</v>
       </c>
       <c r="K97" s="1" t="str">
         <f t="shared" si="14"/>
@@ -24438,7 +24488,7 @@
       </c>
       <c r="L97" s="2">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="16"/>
@@ -24450,7 +24500,7 @@
       </c>
       <c r="O97" s="2">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
@@ -24461,30 +24511,30 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B98" s="2">
-        <v>33.472299999999997</v>
+        <v>17.949100000000001</v>
       </c>
       <c r="C98" s="3">
-        <v>30.822299999999998</v>
+        <v>33.968899999999998</v>
       </c>
       <c r="D98" s="3">
         <v>0</v>
       </c>
       <c r="E98" s="3">
-        <v>-3.4550399999999999</v>
+        <v>-4.2012999999999998</v>
       </c>
       <c r="F98" s="3">
-        <v>-1.8432900000000001</v>
+        <v>-1.44794</v>
       </c>
       <c r="G98" s="3">
         <f t="shared" si="10"/>
-        <v>3.9159953301427723</v>
+        <v>4.4438105195428843</v>
       </c>
       <c r="H98" s="3">
         <f t="shared" si="11"/>
-        <v>14.097583188513982</v>
+        <v>15.997717870354384</v>
       </c>
       <c r="I98" s="3" t="str">
         <f t="shared" si="12"/>
@@ -24492,7 +24542,7 @@
       </c>
       <c r="J98" s="2">
         <f t="shared" si="13"/>
-        <v>28.85883507219981</v>
+        <v>19.841077854985542</v>
       </c>
       <c r="K98" s="1" t="str">
         <f t="shared" si="14"/>
@@ -24500,7 +24550,7 @@
       </c>
       <c r="L98" s="2">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="16"/>
@@ -24512,7 +24562,7 @@
       </c>
       <c r="O98" s="2">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
@@ -24523,30 +24573,30 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
-        <v>44109</v>
+        <v>44108</v>
       </c>
       <c r="B99" s="2">
-        <v>35.612499999999997</v>
+        <v>33.472299999999997</v>
       </c>
       <c r="C99" s="3">
-        <v>30.876899999999999</v>
+        <v>30.822299999999998</v>
       </c>
       <c r="D99" s="3">
-        <v>2.1591999999999998</v>
+        <v>0</v>
       </c>
       <c r="E99" s="3">
-        <v>-3.8117700000000001</v>
+        <v>-3.4550399999999999</v>
       </c>
       <c r="F99" s="3">
-        <v>-2.2470400000000001</v>
+        <v>-1.8432900000000001</v>
       </c>
       <c r="G99" s="3">
         <f t="shared" si="10"/>
-        <v>4.4247914407913065</v>
+        <v>3.9159953301427723</v>
       </c>
       <c r="H99" s="3">
         <f t="shared" si="11"/>
-        <v>15.929249186848704</v>
+        <v>14.097583188513982</v>
       </c>
       <c r="I99" s="3" t="str">
         <f t="shared" si="12"/>
@@ -24554,7 +24604,7 @@
       </c>
       <c r="J99" s="2">
         <f t="shared" si="13"/>
-        <v>31.285443456194969</v>
+        <v>28.85883507219981</v>
       </c>
       <c r="K99" s="1" t="str">
         <f t="shared" si="14"/>
@@ -24574,7 +24624,7 @@
       </c>
       <c r="O99" s="2">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
@@ -24585,30 +24635,30 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="B100" s="2">
-        <v>24.158200000000001</v>
+        <v>35.612499999999997</v>
       </c>
       <c r="C100" s="3">
-        <v>33.402999999999999</v>
+        <v>30.876899999999999</v>
       </c>
       <c r="D100" s="3">
-        <v>3.1322999999999999</v>
+        <v>2.1591999999999998</v>
       </c>
       <c r="E100" s="3">
-        <v>-2.6522899999999998</v>
+        <v>-3.8117700000000001</v>
       </c>
       <c r="F100" s="3">
-        <v>-2.00265</v>
+        <v>-2.2470400000000001</v>
       </c>
       <c r="G100" s="3">
         <f t="shared" si="10"/>
-        <v>3.3234393730892697</v>
+        <v>4.4247914407913065</v>
       </c>
       <c r="H100" s="3">
         <f t="shared" si="11"/>
-        <v>11.964381743121372</v>
+        <v>15.929249186848704</v>
       </c>
       <c r="I100" s="3" t="str">
         <f t="shared" si="12"/>
@@ -24616,11 +24666,11 @@
       </c>
       <c r="J100" s="2">
         <f t="shared" si="13"/>
-        <v>37.787738734611196</v>
+        <v>31.285443456194969</v>
       </c>
       <c r="K100" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NE</v>
+        <v>NNE</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="15"/>
@@ -24636,7 +24686,7 @@
       </c>
       <c r="O100" s="2">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
@@ -24647,42 +24697,42 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="11">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B101" s="2">
-        <v>31.778400000000001</v>
+        <v>24.158200000000001</v>
       </c>
       <c r="C101" s="3">
-        <v>31.387799999999999</v>
+        <v>33.402999999999999</v>
       </c>
       <c r="D101" s="3">
-        <v>1.30263</v>
+        <v>3.1322999999999999</v>
       </c>
       <c r="E101" s="3">
-        <v>0.234096</v>
+        <v>-2.6522899999999998</v>
       </c>
       <c r="F101" s="3">
-        <v>-2.7331299999999999E-2</v>
+        <v>-2.00265</v>
       </c>
       <c r="G101" s="3">
         <f t="shared" si="10"/>
-        <v>0.23568609881724037</v>
+        <v>3.3234393730892697</v>
       </c>
       <c r="H101" s="3">
         <f t="shared" si="11"/>
-        <v>0.8484699557420653</v>
+        <v>11.964381743121372</v>
       </c>
       <c r="I101" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="13"/>
-        <v>173.37484978416961</v>
+        <v>37.787738734611196</v>
       </c>
       <c r="K101" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>S</v>
+        <v>NE</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="15"/>
@@ -24698,7 +24748,7 @@
       </c>
       <c r="O101" s="2">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
@@ -24709,42 +24759,42 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B102" s="2">
-        <v>36.471400000000003</v>
+        <v>31.778400000000001</v>
       </c>
       <c r="C102" s="3">
-        <v>31.433299999999999</v>
+        <v>31.387799999999999</v>
       </c>
       <c r="D102" s="3">
-        <v>2.5084599999999999</v>
+        <v>1.30263</v>
       </c>
       <c r="E102" s="3">
-        <v>-1.41774</v>
+        <v>0.234096</v>
       </c>
       <c r="F102" s="3">
-        <v>2.4510200000000002</v>
+        <v>-2.7331299999999999E-2</v>
       </c>
       <c r="G102" s="3">
         <f t="shared" si="10"/>
-        <v>2.8315165102820785</v>
+        <v>0.23568609881724037</v>
       </c>
       <c r="H102" s="3">
         <f t="shared" si="11"/>
-        <v>10.193459437015482</v>
+        <v>0.8484699557420653</v>
       </c>
       <c r="I102" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
+        <v>Aragem</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="13"/>
-        <v>299.43108739206775</v>
+        <v>173.37484978416961</v>
       </c>
       <c r="K102" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>WNW</v>
+        <v>S</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="15"/>
@@ -24760,7 +24810,7 @@
       </c>
       <c r="O102" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
@@ -24771,30 +24821,30 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B103" s="2">
-        <v>22.6874</v>
+        <v>36.471400000000003</v>
       </c>
       <c r="C103" s="3">
-        <v>33.885300000000001</v>
+        <v>31.433299999999999</v>
       </c>
       <c r="D103" s="3">
-        <v>4.7354399999999996</v>
+        <v>2.5084599999999999</v>
       </c>
       <c r="E103" s="3">
-        <v>1.9272100000000001</v>
+        <v>-1.41774</v>
       </c>
       <c r="F103" s="3">
-        <v>-0.88178599999999996</v>
+        <v>2.4510200000000002</v>
       </c>
       <c r="G103" s="3">
         <f t="shared" si="10"/>
-        <v>2.119359557483345</v>
+        <v>2.8315165102820785</v>
       </c>
       <c r="H103" s="3">
         <f t="shared" si="11"/>
-        <v>7.6296944069400423</v>
+        <v>10.193459437015482</v>
       </c>
       <c r="I103" s="3" t="str">
         <f t="shared" si="12"/>
@@ -24802,11 +24852,11 @@
       </c>
       <c r="J103" s="2">
         <f t="shared" si="13"/>
-        <v>155.53975857193183</v>
+        <v>299.43108739206775</v>
       </c>
       <c r="K103" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>SSE</v>
+        <v>WNW</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="15"/>
@@ -24833,38 +24883,38 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="B104" s="2">
-        <v>37.545299999999997</v>
+        <v>22.6874</v>
       </c>
       <c r="C104" s="3">
-        <v>30.930900000000001</v>
+        <v>33.885300000000001</v>
       </c>
       <c r="D104" s="3">
-        <v>8.5466499999999996</v>
+        <v>4.7354399999999996</v>
       </c>
       <c r="E104" s="3">
-        <v>1.0835600000000001</v>
+        <v>1.9272100000000001</v>
       </c>
       <c r="F104" s="3">
-        <v>-0.61274399999999996</v>
+        <v>-0.88178599999999996</v>
       </c>
       <c r="G104" s="3">
         <f t="shared" si="10"/>
-        <v>1.2448122280633334</v>
+        <v>2.119359557483345</v>
       </c>
       <c r="H104" s="3">
         <f t="shared" si="11"/>
-        <v>4.4813240210280005</v>
+        <v>7.6296944069400423</v>
       </c>
       <c r="I104" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="13"/>
-        <v>150.66333102113381</v>
+        <v>155.53975857193183</v>
       </c>
       <c r="K104" s="1" t="str">
         <f t="shared" si="14"/>
@@ -24884,7 +24934,7 @@
       </c>
       <c r="O104" s="2">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
@@ -24895,50 +24945,50 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="B105" s="2">
-        <v>83.429400000000001</v>
+        <v>37.545299999999997</v>
       </c>
       <c r="C105" s="3">
-        <v>22.2761</v>
+        <v>30.930900000000001</v>
       </c>
       <c r="D105" s="3">
-        <v>6.7525199999999996</v>
+        <v>8.5466499999999996</v>
       </c>
       <c r="E105" s="3">
-        <v>-3.2022599999999999</v>
+        <v>1.0835600000000001</v>
       </c>
       <c r="F105" s="3">
-        <v>-0.74026800000000004</v>
+        <v>-0.61274399999999996</v>
       </c>
       <c r="G105" s="3">
         <f t="shared" si="10"/>
-        <v>3.2867104860976117</v>
+        <v>1.2448122280633334</v>
       </c>
       <c r="H105" s="3">
         <f t="shared" si="11"/>
-        <v>11.832157749951403</v>
+        <v>4.4813240210280005</v>
       </c>
       <c r="I105" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
+        <v>Aragem</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="13"/>
-        <v>13.872219883084313</v>
+        <v>150.66333102113381</v>
       </c>
       <c r="K105" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NNE</v>
+        <v>SSE</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="17"/>
@@ -24946,7 +24996,7 @@
       </c>
       <c r="O105" s="2">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
@@ -24957,30 +25007,30 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
-        <v>44116</v>
+        <v>44115</v>
       </c>
       <c r="B106" s="2">
-        <v>68.196100000000001</v>
+        <v>83.429400000000001</v>
       </c>
       <c r="C106" s="3">
-        <v>24.316500000000001</v>
+        <v>22.2761</v>
       </c>
       <c r="D106" s="3">
-        <v>1.49746</v>
+        <v>6.7525199999999996</v>
       </c>
       <c r="E106" s="3">
-        <v>-1.6287700000000001</v>
+        <v>-3.2022599999999999</v>
       </c>
       <c r="F106" s="3">
-        <v>-1.37073</v>
+        <v>-0.74026800000000004</v>
       </c>
       <c r="G106" s="3">
         <f t="shared" si="10"/>
-        <v>2.1288007059844753</v>
+        <v>3.2867104860976117</v>
       </c>
       <c r="H106" s="3">
         <f t="shared" si="11"/>
-        <v>7.6636825415441114</v>
+        <v>11.832157749951403</v>
       </c>
       <c r="I106" s="3" t="str">
         <f t="shared" si="12"/>
@@ -24988,15 +25038,15 @@
       </c>
       <c r="J106" s="2">
         <f t="shared" si="13"/>
-        <v>40.800146182159381</v>
+        <v>13.872219883084313</v>
       </c>
       <c r="K106" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NE</v>
+        <v>NNE</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="16"/>
@@ -25008,7 +25058,7 @@
       </c>
       <c r="O106" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
@@ -25019,46 +25069,46 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
-        <v>44117</v>
+        <v>44116</v>
       </c>
       <c r="B107" s="2">
-        <v>54.610799999999998</v>
+        <v>68.196100000000001</v>
       </c>
       <c r="C107" s="3">
-        <v>27.154</v>
+        <v>24.316500000000001</v>
       </c>
       <c r="D107" s="3">
-        <v>0.49406800000000001</v>
+        <v>1.49746</v>
       </c>
       <c r="E107" s="3">
-        <v>4.9167000000000002E-2</v>
+        <v>-1.6287700000000001</v>
       </c>
       <c r="F107" s="3">
-        <v>-1.1160600000000001</v>
+        <v>-1.37073</v>
       </c>
       <c r="G107" s="3">
         <f t="shared" si="10"/>
-        <v>1.1171424785984105</v>
+        <v>2.1288007059844753</v>
       </c>
       <c r="H107" s="3">
         <f t="shared" si="11"/>
-        <v>4.0217129229542783</v>
+        <v>7.6636825415441114</v>
       </c>
       <c r="I107" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="13"/>
-        <v>92.970797229644759</v>
+        <v>40.800146182159381</v>
       </c>
       <c r="K107" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>E</v>
+        <v>NE</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="16"/>
@@ -25070,7 +25120,7 @@
       </c>
       <c r="O107" s="2">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
@@ -25081,30 +25131,30 @@
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B108" s="2">
-        <v>39.898600000000002</v>
+        <v>54.610799999999998</v>
       </c>
       <c r="C108" s="3">
-        <v>30.366199999999999</v>
+        <v>27.154</v>
       </c>
       <c r="D108" s="3">
-        <v>1.5845</v>
+        <v>0.49406800000000001</v>
       </c>
       <c r="E108" s="3">
-        <v>-0.384824</v>
+        <v>4.9167000000000002E-2</v>
       </c>
       <c r="F108" s="3">
-        <v>-0.59714699999999998</v>
+        <v>-1.1160600000000001</v>
       </c>
       <c r="G108" s="3">
         <f t="shared" si="10"/>
-        <v>0.71040414595144363</v>
+        <v>1.1171424785984105</v>
       </c>
       <c r="H108" s="3">
         <f t="shared" si="11"/>
-        <v>2.5574549254251973</v>
+        <v>4.0217129229542783</v>
       </c>
       <c r="I108" s="3" t="str">
         <f t="shared" si="12"/>
@@ -25112,19 +25162,19 @@
       </c>
       <c r="J108" s="2">
         <f t="shared" si="13"/>
-        <v>57.830080668658198</v>
+        <v>92.970797229644759</v>
       </c>
       <c r="K108" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>ENE</v>
+        <v>E</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="17"/>
@@ -25132,7 +25182,7 @@
       </c>
       <c r="O108" s="2">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
@@ -25143,30 +25193,30 @@
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="B109" s="2">
-        <v>53.537700000000001</v>
+        <v>39.898600000000002</v>
       </c>
       <c r="C109" s="3">
-        <v>26.674800000000001</v>
+        <v>30.366199999999999</v>
       </c>
       <c r="D109" s="3">
-        <v>26.675799999999999</v>
+        <v>1.5845</v>
       </c>
       <c r="E109" s="3">
-        <v>1.3177399999999999</v>
+        <v>-0.384824</v>
       </c>
       <c r="F109" s="3">
-        <v>0.77607300000000001</v>
+        <v>-0.59714699999999998</v>
       </c>
       <c r="G109" s="3">
         <f t="shared" si="10"/>
-        <v>1.5292900342737474</v>
+        <v>0.71040414595144363</v>
       </c>
       <c r="H109" s="3">
         <f t="shared" si="11"/>
-        <v>5.5054441233854909</v>
+        <v>2.5574549254251973</v>
       </c>
       <c r="I109" s="3" t="str">
         <f t="shared" si="12"/>
@@ -25174,27 +25224,27 @@
       </c>
       <c r="J109" s="2">
         <f t="shared" si="13"/>
-        <v>210.33934852710848</v>
+        <v>57.830080668658198</v>
       </c>
       <c r="K109" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>SSW</v>
+        <v>ENE</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
@@ -25205,46 +25255,46 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B110" s="2">
-        <v>74.9726</v>
+        <v>53.537700000000001</v>
       </c>
       <c r="C110" s="3">
-        <v>23.5608</v>
+        <v>26.674800000000001</v>
       </c>
       <c r="D110" s="3">
-        <v>1.35294</v>
+        <v>26.675799999999999</v>
       </c>
       <c r="E110" s="3">
-        <v>-1.6192299999999999</v>
+        <v>1.3177399999999999</v>
       </c>
       <c r="F110" s="3">
-        <v>0.98723799999999995</v>
+        <v>0.77607300000000001</v>
       </c>
       <c r="G110" s="3">
         <f t="shared" si="10"/>
-        <v>1.8964558158691702</v>
+        <v>1.5292900342737474</v>
       </c>
       <c r="H110" s="3">
         <f t="shared" si="11"/>
-        <v>6.8272409371290133</v>
+        <v>5.5054441233854909</v>
       </c>
       <c r="I110" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
+        <v>Aragem</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="13"/>
-        <v>327.86779221358029</v>
+        <v>210.33934852710848</v>
       </c>
       <c r="K110" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NNW</v>
+        <v>SSW</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="16"/>
@@ -25252,7 +25302,7 @@
       </c>
       <c r="N110" s="2">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="18"/>
@@ -25267,30 +25317,30 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="11">
-        <v>44121</v>
+        <v>44120</v>
       </c>
       <c r="B111" s="2">
-        <v>87.248599999999996</v>
+        <v>74.9726</v>
       </c>
       <c r="C111" s="3">
-        <v>18.868200000000002</v>
+        <v>23.5608</v>
       </c>
       <c r="D111" s="3">
-        <v>5.4615</v>
+        <v>1.35294</v>
       </c>
       <c r="E111" s="3">
-        <v>-1.9718500000000001</v>
+        <v>-1.6192299999999999</v>
       </c>
       <c r="F111" s="3">
-        <v>-0.33843000000000001</v>
+        <v>0.98723799999999995</v>
       </c>
       <c r="G111" s="3">
         <f t="shared" si="10"/>
-        <v>2.0006817056693453</v>
+        <v>1.8964558158691702</v>
       </c>
       <c r="H111" s="3">
         <f t="shared" si="11"/>
-        <v>7.2024541404096434</v>
+        <v>6.8272409371290133</v>
       </c>
       <c r="I111" s="3" t="str">
         <f t="shared" si="12"/>
@@ -25298,19 +25348,19 @@
       </c>
       <c r="J111" s="2">
         <f t="shared" si="13"/>
-        <v>10.611403500343357</v>
+        <v>327.86779221358029</v>
       </c>
       <c r="K111" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>N</v>
+        <v>NNW</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="17"/>
@@ -25318,7 +25368,7 @@
       </c>
       <c r="O111" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
@@ -25329,30 +25379,30 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="11">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="B112" s="2">
-        <v>80.715599999999995</v>
+        <v>87.248599999999996</v>
       </c>
       <c r="C112" s="3">
-        <v>19.0947</v>
+        <v>18.868200000000002</v>
       </c>
       <c r="D112" s="3">
-        <v>0.19817599999999999</v>
+        <v>5.4615</v>
       </c>
       <c r="E112" s="3">
-        <v>-2.16554</v>
+        <v>-1.9718500000000001</v>
       </c>
       <c r="F112" s="3">
-        <v>-0.98217900000000002</v>
+        <v>-0.33843000000000001</v>
       </c>
       <c r="G112" s="3">
         <f t="shared" si="10"/>
-        <v>2.3778643947124065</v>
+        <v>2.0006817056693453</v>
       </c>
       <c r="H112" s="3">
         <f t="shared" si="11"/>
-        <v>8.5603118209646638</v>
+        <v>7.2024541404096434</v>
       </c>
       <c r="I112" s="3" t="str">
         <f t="shared" si="12"/>
@@ -25360,11 +25410,11 @@
       </c>
       <c r="J112" s="2">
         <f t="shared" si="13"/>
-        <v>25.194086129240247</v>
+        <v>10.611403500343357</v>
       </c>
       <c r="K112" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NNE</v>
+        <v>N</v>
       </c>
       <c r="L112" s="2">
         <f t="shared" si="15"/>
@@ -25391,30 +25441,30 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B113" s="2">
-        <v>85.867599999999996</v>
+        <v>80.715599999999995</v>
       </c>
       <c r="C113" s="3">
-        <v>18.042400000000001</v>
+        <v>19.0947</v>
       </c>
       <c r="D113" s="3">
-        <v>4.0137</v>
+        <v>0.19817599999999999</v>
       </c>
       <c r="E113" s="3">
-        <v>-1.9937800000000001</v>
+        <v>-2.16554</v>
       </c>
       <c r="F113" s="3">
-        <v>-0.17364399999999999</v>
+        <v>-0.98217900000000002</v>
       </c>
       <c r="G113" s="3">
         <f t="shared" si="10"/>
-        <v>2.0013272913584128</v>
+        <v>2.3778643947124065</v>
       </c>
       <c r="H113" s="3">
         <f t="shared" si="11"/>
-        <v>7.2047782488902863</v>
+        <v>8.5603118209646638</v>
       </c>
       <c r="I113" s="3" t="str">
         <f t="shared" si="12"/>
@@ -25422,11 +25472,11 @@
       </c>
       <c r="J113" s="2">
         <f t="shared" si="13"/>
-        <v>5.8744697305831153</v>
+        <v>25.194086129240247</v>
       </c>
       <c r="K113" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>N</v>
+        <v>NNE</v>
       </c>
       <c r="L113" s="2">
         <f t="shared" si="15"/>
@@ -25453,42 +25503,42 @@
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
-        <v>44124</v>
+        <v>44123</v>
       </c>
       <c r="B114" s="2">
-        <v>92.075699999999998</v>
+        <v>85.867599999999996</v>
       </c>
       <c r="C114" s="3">
-        <v>17.173400000000001</v>
+        <v>18.042400000000001</v>
       </c>
       <c r="D114" s="3">
-        <v>11.7706</v>
+        <v>4.0137</v>
       </c>
       <c r="E114" s="3">
-        <v>-1.1057900000000001</v>
+        <v>-1.9937800000000001</v>
       </c>
       <c r="F114" s="3">
-        <v>-0.63460300000000003</v>
+        <v>-0.17364399999999999</v>
       </c>
       <c r="G114" s="3">
         <f t="shared" si="10"/>
-        <v>1.2749480349053448</v>
+        <v>2.0013272913584128</v>
       </c>
       <c r="H114" s="3">
         <f t="shared" si="11"/>
-        <v>4.589812925659241</v>
+        <v>7.2047782488902863</v>
       </c>
       <c r="I114" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J114" s="2">
         <f t="shared" si="13"/>
-        <v>30.620629774472974</v>
+        <v>5.8744697305831153</v>
       </c>
       <c r="K114" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NNE</v>
+        <v>N</v>
       </c>
       <c r="L114" s="2">
         <f t="shared" si="15"/>
@@ -25500,11 +25550,11 @@
       </c>
       <c r="N114" s="2">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O114" s="2">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
@@ -25515,30 +25565,30 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="11">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="B115" s="2">
-        <v>72.985699999999994</v>
+        <v>92.075699999999998</v>
       </c>
       <c r="C115" s="3">
-        <v>23.8398</v>
+        <v>17.173400000000001</v>
       </c>
       <c r="D115" s="3">
-        <v>1.32579</v>
+        <v>11.7706</v>
       </c>
       <c r="E115" s="3">
-        <v>-0.85338700000000001</v>
+        <v>-1.1057900000000001</v>
       </c>
       <c r="F115" s="3">
-        <v>1.2407899999999999E-2</v>
+        <v>-0.63460300000000003</v>
       </c>
       <c r="G115" s="3">
         <f t="shared" si="10"/>
-        <v>0.85347719814381096</v>
+        <v>1.2749480349053448</v>
       </c>
       <c r="H115" s="3">
         <f t="shared" si="11"/>
-        <v>3.0725179133177196</v>
+        <v>4.589812925659241</v>
       </c>
       <c r="I115" s="3" t="str">
         <f t="shared" si="12"/>
@@ -25546,27 +25596,27 @@
       </c>
       <c r="J115" s="2">
         <f t="shared" si="13"/>
-        <v>358.24878497691839</v>
+        <v>30.620629774472974</v>
       </c>
       <c r="K115" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>N</v>
+        <v>NNE</v>
       </c>
       <c r="L115" s="2">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M115" s="2">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N115" s="2">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O115" s="2">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
@@ -25577,7 +25627,7 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="11">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="B116" s="2">
         <v>72.985699999999994</v>
@@ -25586,33 +25636,33 @@
         <v>23.8398</v>
       </c>
       <c r="D116" s="3">
-        <v>4.5473699999999999E-2</v>
+        <v>1.32579</v>
       </c>
       <c r="E116" s="3">
-        <v>-1.7144999999999999</v>
+        <v>-0.85338700000000001</v>
       </c>
       <c r="F116" s="3">
-        <v>-0.78810199999999997</v>
+        <v>1.2407899999999999E-2</v>
       </c>
       <c r="G116" s="3">
         <f t="shared" si="10"/>
-        <v>1.8869591973341659</v>
+        <v>0.85347719814381096</v>
       </c>
       <c r="H116" s="3">
         <f t="shared" si="11"/>
-        <v>6.7930531104029974</v>
+        <v>3.0725179133177196</v>
       </c>
       <c r="I116" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
+        <v>Aragem</v>
       </c>
       <c r="J116" s="2">
         <f t="shared" si="13"/>
-        <v>25.482729452284048</v>
+        <v>358.24878497691839</v>
       </c>
       <c r="K116" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NNE</v>
+        <v>N</v>
       </c>
       <c r="L116" s="2">
         <f t="shared" si="15"/>
@@ -25628,7 +25678,7 @@
       </c>
       <c r="O116" s="2">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
@@ -25639,7 +25689,7 @@
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="B117" s="2">
         <v>72.985699999999994</v>
@@ -25648,21 +25698,21 @@
         <v>23.8398</v>
       </c>
       <c r="D117" s="3">
-        <v>2.4640299999999999E-3</v>
+        <v>4.5473699999999999E-2</v>
       </c>
       <c r="E117" s="3">
-        <v>-2.5756100000000002</v>
+        <v>-1.7144999999999999</v>
       </c>
       <c r="F117" s="3">
-        <v>-1.5886100000000001</v>
+        <v>-0.78810199999999997</v>
       </c>
       <c r="G117" s="3">
         <f t="shared" si="10"/>
-        <v>3.0261276582788112</v>
+        <v>1.8869591973341659</v>
       </c>
       <c r="H117" s="3">
         <f t="shared" si="11"/>
-        <v>10.894059569803721</v>
+        <v>6.7930531104029974</v>
       </c>
       <c r="I117" s="3" t="str">
         <f t="shared" si="12"/>
@@ -25670,7 +25720,7 @@
       </c>
       <c r="J117" s="2">
         <f t="shared" si="13"/>
-        <v>32.426062942971669</v>
+        <v>25.482729452284048</v>
       </c>
       <c r="K117" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25690,7 +25740,7 @@
       </c>
       <c r="O117" s="2">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
@@ -25701,7 +25751,7 @@
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B118" s="2">
         <v>72.985699999999994</v>
@@ -25710,33 +25760,33 @@
         <v>23.8398</v>
       </c>
       <c r="D118" s="3">
-        <v>9.1216799999999996</v>
+        <v>2.4640299999999999E-3</v>
       </c>
       <c r="E118" s="3">
-        <v>-1.1997199999999999</v>
+        <v>-2.5756100000000002</v>
       </c>
       <c r="F118" s="3">
-        <v>0.36871599999999999</v>
+        <v>-1.5886100000000001</v>
       </c>
       <c r="G118" s="3">
         <f t="shared" si="10"/>
-        <v>1.2551014170400732</v>
+        <v>3.0261276582788112</v>
       </c>
       <c r="H118" s="3">
         <f t="shared" si="11"/>
-        <v>4.5183651013442638</v>
+        <v>10.894059569803721</v>
       </c>
       <c r="I118" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J118" s="2">
         <f t="shared" si="13"/>
-        <v>342.0810410420429</v>
+        <v>32.426062942971669</v>
       </c>
       <c r="K118" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NNW</v>
+        <v>NNE</v>
       </c>
       <c r="L118" s="2">
         <f t="shared" si="15"/>
@@ -25752,7 +25802,7 @@
       </c>
       <c r="O118" s="2">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
@@ -25763,7 +25813,7 @@
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B119" s="2">
         <v>72.985699999999994</v>
@@ -25772,33 +25822,33 @@
         <v>23.8398</v>
       </c>
       <c r="D119" s="3">
-        <v>8.39011</v>
+        <v>9.1216799999999996</v>
       </c>
       <c r="E119" s="3">
-        <v>1.9906999999999999</v>
+        <v>-1.1997199999999999</v>
       </c>
       <c r="F119" s="3">
-        <v>-0.16781699999999999</v>
+        <v>0.36871599999999999</v>
       </c>
       <c r="G119" s="3">
         <f t="shared" si="10"/>
-        <v>1.9977610055982673</v>
+        <v>1.2551014170400732</v>
       </c>
       <c r="H119" s="3">
         <f t="shared" si="11"/>
-        <v>7.1919396201537626</v>
+        <v>4.5183651013442638</v>
       </c>
       <c r="I119" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
+        <v>Aragem</v>
       </c>
       <c r="J119" s="2">
         <f t="shared" si="13"/>
-        <v>175.20602577619715</v>
+        <v>342.0810410420429</v>
       </c>
       <c r="K119" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>S</v>
+        <v>NNW</v>
       </c>
       <c r="L119" s="2">
         <f t="shared" si="15"/>
@@ -25825,30 +25875,30 @@
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="B120" s="2">
-        <v>55.2956</v>
+        <v>72.985699999999994</v>
       </c>
       <c r="C120" s="3">
-        <v>25.997599999999998</v>
+        <v>23.8398</v>
       </c>
       <c r="D120" s="3">
-        <v>2.2806500000000001</v>
+        <v>8.39011</v>
       </c>
       <c r="E120" s="3">
-        <v>1.7375400000000001</v>
+        <v>1.9906999999999999</v>
       </c>
       <c r="F120" s="3">
-        <v>1.23194</v>
+        <v>-0.16781699999999999</v>
       </c>
       <c r="G120" s="3">
         <f t="shared" si="10"/>
-        <v>2.1299580782729035</v>
+        <v>1.9977610055982673</v>
       </c>
       <c r="H120" s="3">
         <f t="shared" si="11"/>
-        <v>7.6678490817824532</v>
+        <v>7.1919396201537626</v>
       </c>
       <c r="I120" s="3" t="str">
         <f t="shared" si="12"/>
@@ -25856,15 +25906,15 @@
       </c>
       <c r="J120" s="2">
         <f t="shared" si="13"/>
-        <v>215.15607038645044</v>
+        <v>175.20602577619715</v>
       </c>
       <c r="K120" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>SW</v>
+        <v>S</v>
       </c>
       <c r="L120" s="2">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M120" s="2">
         <f t="shared" si="16"/>
@@ -25876,7 +25926,7 @@
       </c>
       <c r="O120" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
@@ -25887,30 +25937,30 @@
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="B121" s="2">
-        <v>55.402099999999997</v>
+        <v>55.2956</v>
       </c>
       <c r="C121" s="3">
-        <v>27.6371</v>
+        <v>25.997599999999998</v>
       </c>
       <c r="D121" s="3">
-        <v>0.254519</v>
+        <v>2.2806500000000001</v>
       </c>
       <c r="E121" s="3">
-        <v>2.8268200000000001</v>
+        <v>1.7375400000000001</v>
       </c>
       <c r="F121" s="3">
-        <v>-1.0678300000000001</v>
+        <v>1.23194</v>
       </c>
       <c r="G121" s="3">
         <f t="shared" si="10"/>
-        <v>3.0217829540355807</v>
+        <v>2.1299580782729035</v>
       </c>
       <c r="H121" s="3">
         <f t="shared" si="11"/>
-        <v>10.87841863452809</v>
+        <v>7.6678490817824532</v>
       </c>
       <c r="I121" s="3" t="str">
         <f t="shared" si="12"/>
@@ -25918,11 +25968,11 @@
       </c>
       <c r="J121" s="2">
         <f t="shared" si="13"/>
-        <v>159.41201957498413</v>
+        <v>215.15607038645044</v>
       </c>
       <c r="K121" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>SSE</v>
+        <v>SW</v>
       </c>
       <c r="L121" s="2">
         <f t="shared" si="15"/>
@@ -25938,7 +25988,7 @@
       </c>
       <c r="O121" s="2">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
@@ -25949,38 +25999,38 @@
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="B122" s="2">
-        <v>52.887099999999997</v>
+        <v>55.402099999999997</v>
       </c>
       <c r="C122" s="3">
-        <v>28.396899999999999</v>
+        <v>27.6371</v>
       </c>
       <c r="D122" s="3">
-        <v>6.6302799999999997E-3</v>
+        <v>0.254519</v>
       </c>
       <c r="E122" s="3">
-        <v>3.7768700000000002</v>
+        <v>2.8268200000000001</v>
       </c>
       <c r="F122" s="3">
-        <v>-1.2322500000000001</v>
+        <v>-1.0678300000000001</v>
       </c>
       <c r="G122" s="3">
         <f t="shared" si="10"/>
-        <v>3.9728059428318421</v>
+        <v>3.0217829540355807</v>
       </c>
       <c r="H122" s="3">
         <f t="shared" si="11"/>
-        <v>14.302101394194631</v>
+        <v>10.87841863452809</v>
       </c>
       <c r="I122" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
+        <v>Brisa Leve</v>
       </c>
       <c r="J122" s="2">
         <f t="shared" si="13"/>
-        <v>162.02305667296085</v>
+        <v>159.41201957498413</v>
       </c>
       <c r="K122" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26011,46 +26061,46 @@
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="11">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B123" s="2">
-        <v>65.772800000000004</v>
+        <v>52.887099999999997</v>
       </c>
       <c r="C123" s="3">
-        <v>26.7239</v>
+        <v>28.396899999999999</v>
       </c>
       <c r="D123" s="3">
-        <v>1.8089200000000001</v>
+        <v>6.6302799999999997E-3</v>
       </c>
       <c r="E123" s="3">
-        <v>0.64633099999999999</v>
+        <v>3.7768700000000002</v>
       </c>
       <c r="F123" s="3">
-        <v>0.216283</v>
+        <v>-1.2322500000000001</v>
       </c>
       <c r="G123" s="3">
         <f t="shared" si="10"/>
-        <v>0.68155857976405809</v>
+        <v>3.9728059428318421</v>
       </c>
       <c r="H123" s="3">
         <f t="shared" si="11"/>
-        <v>2.4536108871506093</v>
+        <v>14.302101394194631</v>
       </c>
       <c r="I123" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
+        <v>Brisa Fraca</v>
       </c>
       <c r="J123" s="2">
         <f t="shared" si="13"/>
-        <v>198.40706653929325</v>
+        <v>162.02305667296085</v>
       </c>
       <c r="K123" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>SSW</v>
+        <v>SSE</v>
       </c>
       <c r="L123" s="2">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M123" s="2">
         <f t="shared" si="16"/>
@@ -26062,7 +26112,7 @@
       </c>
       <c r="O123" s="2">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
@@ -26073,42 +26123,42 @@
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="11">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B124" s="2">
-        <v>79.899000000000001</v>
+        <v>65.772800000000004</v>
       </c>
       <c r="C124" s="3">
-        <v>23.538</v>
+        <v>26.7239</v>
       </c>
       <c r="D124" s="3">
-        <v>2.65246</v>
+        <v>1.8089200000000001</v>
       </c>
       <c r="E124" s="3">
-        <v>-2.0845500000000001</v>
+        <v>0.64633099999999999</v>
       </c>
       <c r="F124" s="3">
-        <v>-0.74063999999999997</v>
+        <v>0.216283</v>
       </c>
       <c r="G124" s="3">
         <f t="shared" si="10"/>
-        <v>2.212215249947437</v>
+        <v>0.68155857976405809</v>
       </c>
       <c r="H124" s="3">
         <f t="shared" si="11"/>
-        <v>7.9639748998107738</v>
+        <v>2.4536108871506093</v>
       </c>
       <c r="I124" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
+        <v>Aragem</v>
       </c>
       <c r="J124" s="2">
         <f t="shared" si="13"/>
-        <v>20.382352285942204</v>
+        <v>198.40706653929325</v>
       </c>
       <c r="K124" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NNE</v>
+        <v>SSW</v>
       </c>
       <c r="L124" s="2">
         <f t="shared" si="15"/>
@@ -26124,7 +26174,7 @@
       </c>
       <c r="O124" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
@@ -26135,30 +26185,30 @@
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="11">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="B125" s="2">
-        <v>95.826400000000007</v>
+        <v>79.899000000000001</v>
       </c>
       <c r="C125" s="3">
-        <v>17.6234</v>
+        <v>23.538</v>
       </c>
       <c r="D125" s="3">
-        <v>13.725099999999999</v>
+        <v>2.65246</v>
       </c>
       <c r="E125" s="3">
-        <v>-1.1789400000000001</v>
+        <v>-2.0845500000000001</v>
       </c>
       <c r="F125" s="3">
-        <v>1.6653100000000001</v>
+        <v>-0.74063999999999997</v>
       </c>
       <c r="G125" s="3">
         <f t="shared" si="10"/>
-        <v>2.0403815622819179</v>
+        <v>2.212215249947437</v>
       </c>
       <c r="H125" s="3">
         <f t="shared" si="11"/>
-        <v>7.345373624214905</v>
+        <v>7.9639748998107738</v>
       </c>
       <c r="I125" s="3" t="str">
         <f t="shared" si="12"/>
@@ -26166,23 +26216,23 @@
       </c>
       <c r="J125" s="2">
         <f t="shared" si="13"/>
-        <v>304.65408089544644</v>
+        <v>20.382352285942204</v>
       </c>
       <c r="K125" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NW</v>
+        <v>NNE</v>
       </c>
       <c r="L125" s="2">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M125" s="2">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N125" s="2">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O125" s="2">
         <f t="shared" si="18"/>
@@ -26196,58 +26246,59 @@
       <c r="U125" s="2"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A126" s="9" t="s">
-        <v>32</v>
+      <c r="A126" s="11">
+        <v>44135</v>
       </c>
       <c r="B126" s="2">
-        <f>MIN(B3:B125)</f>
-        <v>17.949100000000001</v>
+        <v>95.826400000000007</v>
       </c>
       <c r="C126" s="3">
-        <f>MIN(C3:C125)</f>
-        <v>13.118499999999999</v>
+        <v>17.6234</v>
       </c>
       <c r="D126" s="3">
-        <f>MIN(D3:D125)</f>
-        <v>0</v>
+        <v>13.725099999999999</v>
       </c>
       <c r="E126" s="3">
-        <f t="shared" ref="E126:J126" si="19">MIN(E3:E125)</f>
-        <v>-4.8403499999999999</v>
+        <v>-1.1789400000000001</v>
       </c>
       <c r="F126" s="3">
-        <f t="shared" si="19"/>
-        <v>-2.6864499999999998</v>
+        <v>1.6653100000000001</v>
       </c>
       <c r="G126" s="3">
-        <f t="shared" si="19"/>
-        <v>0.23568609881724037</v>
+        <f t="shared" si="10"/>
+        <v>2.0403815622819179</v>
       </c>
       <c r="H126" s="3">
-        <f t="shared" si="19"/>
-        <v>0.8484699557420653</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>7.345373624214905</v>
+      </c>
+      <c r="I126" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Brisa Leve</v>
       </c>
       <c r="J126" s="2">
-        <f t="shared" si="19"/>
-        <v>1.654842867685943</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N126" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O126" s="1" t="s">
-        <v>13</v>
+        <f t="shared" si="13"/>
+        <v>304.65408089544644</v>
+      </c>
+      <c r="K126" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NW</v>
+      </c>
+      <c r="L126" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="M126" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N126" s="2">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="O126" s="2">
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
@@ -26258,42 +26309,42 @@
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B127" s="2">
-        <f>AVERAGE(B3:B125)</f>
-        <v>50.616477235772386</v>
+        <f>MIN(B4:B126)</f>
+        <v>17.949100000000001</v>
       </c>
       <c r="C127" s="3">
-        <f>AVERAGE(C3:C125)</f>
-        <v>24.601682926829277</v>
+        <f>MIN(C4:C126)</f>
+        <v>13.118499999999999</v>
       </c>
       <c r="D127" s="3">
-        <f>AVERAGE(D3:D125)</f>
-        <v>1.1841362426634143</v>
+        <f>MIN(D4:D126)</f>
+        <v>0</v>
       </c>
       <c r="E127" s="3">
-        <f t="shared" ref="E127:J127" si="20">AVERAGE(E3:E125)</f>
-        <v>-2.1571129512195126</v>
+        <f t="shared" ref="E127:J127" si="19">MIN(E4:E126)</f>
+        <v>-4.8403499999999999</v>
       </c>
       <c r="F127" s="3">
-        <f t="shared" si="20"/>
-        <v>-0.60344321463414607</v>
+        <f t="shared" si="19"/>
+        <v>-2.6864499999999998</v>
       </c>
       <c r="G127" s="3">
-        <f t="shared" si="20"/>
-        <v>2.8619669853498917</v>
+        <f t="shared" si="19"/>
+        <v>0.23568609881724037</v>
       </c>
       <c r="H127" s="3">
-        <f t="shared" si="20"/>
-        <v>10.30308114725961</v>
+        <f t="shared" si="19"/>
+        <v>0.8484699557420653</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J127" s="2">
-        <f t="shared" si="20"/>
-        <v>99.221392948725665</v>
+        <f t="shared" si="19"/>
+        <v>1.654842867685943</v>
       </c>
       <c r="K127" s="1" t="s">
         <v>13</v>
@@ -26319,42 +26370,42 @@
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B128" s="2">
-        <f>MAX(B3:B125)</f>
-        <v>95.826400000000007</v>
+        <f>AVERAGE(B4:B126)</f>
+        <v>50.616477235772386</v>
       </c>
       <c r="C128" s="3">
-        <f>MAX(C3:C125)</f>
-        <v>33.968899999999998</v>
+        <f>AVERAGE(C4:C126)</f>
+        <v>24.601682926829277</v>
       </c>
       <c r="D128" s="3">
-        <f>MAX(D3:D125)</f>
-        <v>26.675799999999999</v>
+        <f>AVERAGE(D4:D126)</f>
+        <v>1.1841362426634143</v>
       </c>
       <c r="E128" s="3">
-        <f t="shared" ref="E128:J128" si="21">MAX(E3:E125)</f>
-        <v>3.7768700000000002</v>
+        <f t="shared" ref="E128:J128" si="20">AVERAGE(E4:E126)</f>
+        <v>-2.1571129512195126</v>
       </c>
       <c r="F128" s="3">
-        <f t="shared" si="21"/>
-        <v>2.4510200000000002</v>
+        <f t="shared" si="20"/>
+        <v>-0.60344321463414607</v>
       </c>
       <c r="G128" s="3">
-        <f t="shared" si="21"/>
-        <v>4.9383324730333822</v>
+        <f t="shared" si="20"/>
+        <v>2.8619669853498917</v>
       </c>
       <c r="H128" s="3">
-        <f t="shared" si="21"/>
-        <v>17.777996902920176</v>
+        <f t="shared" si="20"/>
+        <v>10.30308114725961</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J128" s="2">
-        <f t="shared" si="21"/>
-        <v>358.24878497691839</v>
+        <f t="shared" si="20"/>
+        <v>99.221392948725665</v>
       </c>
       <c r="K128" s="1" t="s">
         <v>13</v>
@@ -26378,64 +26429,129 @@
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B129" s="2">
-        <f>COUNTA(B3:B125)</f>
+        <f>MAX(B4:B126)</f>
+        <v>95.826400000000007</v>
+      </c>
+      <c r="C129" s="3">
+        <f>MAX(C4:C126)</f>
+        <v>33.968899999999998</v>
+      </c>
+      <c r="D129" s="3">
+        <f>MAX(D4:D126)</f>
+        <v>26.675799999999999</v>
+      </c>
+      <c r="E129" s="3">
+        <f t="shared" ref="E129:J129" si="21">MAX(E4:E126)</f>
+        <v>3.7768700000000002</v>
+      </c>
+      <c r="F129" s="3">
+        <f t="shared" si="21"/>
+        <v>2.4510200000000002</v>
+      </c>
+      <c r="G129" s="3">
+        <f t="shared" si="21"/>
+        <v>4.9383324730333822</v>
+      </c>
+      <c r="H129" s="3">
+        <f t="shared" si="21"/>
+        <v>17.777996902920176</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J129" s="2">
+        <f t="shared" si="21"/>
+        <v>358.24878497691839</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A130" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B130" s="2">
+        <f>COUNTA(B4:B126)</f>
         <v>123</v>
       </c>
-      <c r="C129" s="2">
-        <f>COUNTA(C3:C125)</f>
+      <c r="C130" s="2">
+        <f>COUNTA(C4:C126)</f>
         <v>123</v>
       </c>
-      <c r="D129" s="2">
-        <f>COUNTA(D3:D125)</f>
+      <c r="D130" s="2">
+        <f>COUNTA(D4:D126)</f>
         <v>123</v>
       </c>
-      <c r="E129" s="2">
-        <f t="shared" ref="E129:K129" si="22">COUNTA(E3:E125)</f>
+      <c r="E130" s="2">
+        <f t="shared" ref="E130:K130" si="22">COUNTA(E4:E126)</f>
         <v>123</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F130" s="2">
         <f t="shared" si="22"/>
         <v>123</v>
       </c>
-      <c r="G129" s="2">
+      <c r="G130" s="2">
         <f t="shared" si="22"/>
         <v>123</v>
       </c>
-      <c r="H129" s="2">
+      <c r="H130" s="2">
         <f t="shared" si="22"/>
         <v>123</v>
       </c>
-      <c r="I129" s="2">
-        <f>COUNTA(I3:I125)</f>
+      <c r="I130" s="2">
+        <f>COUNTA(I4:I126)</f>
         <v>123</v>
       </c>
-      <c r="J129" s="2">
+      <c r="J130" s="2">
         <f t="shared" si="22"/>
         <v>123</v>
       </c>
-      <c r="K129" s="2">
+      <c r="K130" s="2">
         <f t="shared" si="22"/>
         <v>123</v>
       </c>
-      <c r="L129" s="1" t="s">
+      <c r="L130" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M129" s="1" t="s">
+      <c r="M130" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N129" s="1" t="s">
+      <c r="N130" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O129" s="1" t="s">
+      <c r="O130" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:K1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -26457,7 +26573,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>40</v>
@@ -26545,8 +26661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A632473-3792-4311-8E43-2519F04EA71D}">
   <dimension ref="A3:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26582,7 +26698,7 @@
         <v>0.12195121951219512</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -26597,7 +26713,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -26612,7 +26728,7 @@
         <v>0.54471544715447151</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -26638,8 +26754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC92A6F-01DD-4D10-9A51-1A59650D265A}">
   <dimension ref="A3:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/script/serra_cipo_serie_temporal_julaout_2020.xlsx
+++ b/script/serra_cipo_serie_temporal_julaout_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Downloads\SerraCipo\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A55B9C-EE9B-42C7-B00B-D77C5FBD3BEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D7811C-6E4D-48D4-A9D3-75C43F5BB944}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{B7846D64-A367-46AC-B413-2EB09A9FB57C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B7846D64-A367-46AC-B413-2EB09A9FB57C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados diarios" sheetId="1" r:id="rId1"/>
@@ -261,8 +261,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -327,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,6 +366,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -17964,7 +17968,7 @@
   <dataFields count="1">
     <dataField name="Contagem de -" fld="9" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="12">
+  <chartFormats count="4">
     <chartFormat chart="3" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -18006,96 +18010,6 @@
           </reference>
           <reference field="7" count="1" selected="0">
             <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -18548,8 +18462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DF961B-DA8B-42AF-9C91-E2954F467ED3}">
   <dimension ref="A1:U130"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26433,7 +26347,7 @@
       <c r="A129" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="15">
         <f>MAX(B4:B126)</f>
         <v>95.826400000000007</v>
       </c>
@@ -26754,7 +26668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC92A6F-01DD-4D10-9A51-1A59650D265A}">
   <dimension ref="A3:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/script/serra_cipo_serie_temporal_julaout_2020.xlsx
+++ b/script/serra_cipo_serie_temporal_julaout_2020.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Downloads\SerraCipo\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D7811C-6E4D-48D4-A9D3-75C43F5BB944}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3E263D-2642-4410-98E8-E7C2EFDD449F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B7846D64-A367-46AC-B413-2EB09A9FB57C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="828" activeTab="4" xr2:uid="{B7846D64-A367-46AC-B413-2EB09A9FB57C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados diarios" sheetId="1" r:id="rId1"/>
     <sheet name="Número de dias sem chuva" sheetId="5" r:id="rId2"/>
     <sheet name="Categoria Velocidade do Vento" sheetId="16" r:id="rId3"/>
     <sheet name="Direção do vento" sheetId="2" r:id="rId4"/>
+    <sheet name="Umidade do Solo" sheetId="17" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dados diarios'!$I$2:$I$131</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Dados diarios'!$D$4:$D$126</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Dados diarios'!$C$4:$C$126</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Dados diarios'!$B$4:$B$126</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Dados diarios'!$G$4:$G$126</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Dados diarios'!$C$4:$C$126</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Dados diarios'!$D$4:$D$126</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Dados diarios'!$G$4:$G$126</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Dados diarios'!$B$4:$B$126</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Dados diarios'!$B$4:$B$126</definedName>
     <definedName name="serie_temporal_PREC.IMERG.20200701.20201031" localSheetId="0">'Dados diarios'!$D$4:$D$126</definedName>
     <definedName name="serie_temporal_RH2M.GFS.ANL.20200701.20201031.nc" localSheetId="0">'Dados diarios'!$B$4:$B$126</definedName>
     <definedName name="serie_temporal_TEMP2M.GFS.ANL.20200701.20201031" localSheetId="0">'Dados diarios'!$C$4:$C$126</definedName>
@@ -32,8 +34,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -84,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>Umidade Relativa</t>
   </si>
@@ -224,18 +226,6 @@
     <t>Brisa Leve</t>
   </si>
   <si>
-    <t>Frequência de Vento</t>
-  </si>
-  <si>
-    <t>Frequência de Precipitação</t>
-  </si>
-  <si>
-    <t>Frequência de Umidade Relativa</t>
-  </si>
-  <si>
-    <t>Frequência de Temperatura</t>
-  </si>
-  <si>
     <t>Número de elementos</t>
   </si>
   <si>
@@ -255,6 +245,15 @@
   </si>
   <si>
     <t>(3,3-5,4)</t>
+  </si>
+  <si>
+    <t>Triplo30</t>
+  </si>
+  <si>
+    <t>NASA GRACE</t>
+  </si>
+  <si>
+    <t>Umidade do Solo</t>
   </si>
 </sst>
 </file>
@@ -328,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,10 +364,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5045,6 +5050,8 @@
         <c:axId val="1741570832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="360"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -5551,7 +5558,7 @@
                   <a:rPr lang="pt-BR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>(R&lt;=1mm/dia)</a:t>
+                  <a:t>sem chuva</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-BR" sz="1200"/>
               </a:p>
@@ -7050,12 +7057,563 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Serra</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> do Cipó - 2020</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Umidade do Solo'!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Umidade do Solo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Umidade do Solo'!$A$4:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Umidade do Solo'!$B$4:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>39.680599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.587600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.944299999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.636399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.4834</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.638000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.367000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.760999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.444800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.879099999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.7576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.5340399999999992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.8384799999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15170400000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8378500000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.810400000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.042400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B1A-4AB1-847D-B69BA3C5A724}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="2"/>
+        <c:axId val="82774624"/>
+        <c:axId val="82773792"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="82774624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82773792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="82773792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Percentil (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82774624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7132,7 +7690,7 @@
         <cx:title>
           <cx:tx>
             <cx:txData>
-              <cx:v>Classes</cx:v>
+              <cx:v>Classes (%)</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:txPr>
@@ -7152,7 +7710,7 @@
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
-                <a:t>Classes</a:t>
+                <a:t>Classes (%)</a:t>
               </a:r>
             </a:p>
           </cx:txPr>
@@ -7238,7 +7796,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7315,7 +7873,7 @@
         <cx:title>
           <cx:tx>
             <cx:txData>
-              <cx:v>Classes</cx:v>
+              <cx:v>Classes (ºC)</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:txPr>
@@ -7335,7 +7893,7 @@
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
-                <a:t>Classes</a:t>
+                <a:t>Classes (ºC)</a:t>
               </a:r>
             </a:p>
           </cx:txPr>
@@ -7422,7 +7980,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7493,7 +8051,7 @@
         <cx:title>
           <cx:tx>
             <cx:txData>
-              <cx:v>Classes</cx:v>
+              <cx:v>Classes (mm/dia)</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:txPr>
@@ -7513,7 +8071,7 @@
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
-                <a:t>Classes</a:t>
+                <a:t>Classes (mm/dia)</a:t>
               </a:r>
             </a:p>
           </cx:txPr>
@@ -7609,7 +8167,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7686,7 +8244,7 @@
         <cx:title>
           <cx:tx>
             <cx:txData>
-              <cx:v>Classes</cx:v>
+              <cx:v>Classes (m/s)</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:txPr>
@@ -7706,7 +8264,7 @@
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
-                <a:t>Classes</a:t>
+                <a:t>Classes (m/s)</a:t>
               </a:r>
             </a:p>
           </cx:txPr>
@@ -7878,6 +8436,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9727,8 +10325,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10230,7 +10828,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10733,6 +11331,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
@@ -13791,13 +14892,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>30903</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>57996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>874606</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>171872</xdr:rowOff>
@@ -13827,13 +14928,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>22437</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>900430</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>71967</xdr:rowOff>
@@ -13863,13 +14964,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>22753</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>163089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>901699</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
@@ -13899,13 +15000,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>35106</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>32566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>859155</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>128088</xdr:rowOff>
@@ -13977,13 +15078,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>972610</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>1788585</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>93980</xdr:rowOff>
@@ -14055,13 +15156,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>49530</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>30268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>287232</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>78528</xdr:rowOff>
@@ -14133,13 +15234,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>486834</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>21167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>132927</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>75142</xdr:rowOff>
@@ -14257,16 +15358,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>520064</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>134302</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>146684</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>65722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>541019</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14371,10 +15472,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B77501A4-8D0C-4C00-BCF1-CD063E26955D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Guilherme" refreshedDate="44231.439951273147" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="123" xr:uid="{8355AEA8-8534-4B14-B469-DE339CDB4074}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B3:L126" sheet="Dados diarios"/>
+    <worksheetSource ref="B3:K126" sheet="Dados diarios"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="(%)" numFmtId="1">
@@ -14430,7 +15572,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Guilherme" refreshedDate="44231.553814236111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="127" xr:uid="{A50D01BA-A700-4035-AD3A-495E48C4621A}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B3:O130" sheet="Dados diarios"/>
+    <worksheetSource ref="B3:K130" sheet="Dados diarios"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="(%)" numFmtId="1">
@@ -17908,7 +19050,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE6346CF-4F19-4C84-9BEC-461E1ACFB9F5}" name="Tabela dinâmica39" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE6346CF-4F19-4C84-9BEC-461E1ACFB9F5}" name="Tabela dinâmica39" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="1" showAll="0"/>
@@ -18028,7 +19170,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED8A6DCF-9EA5-4CED-A93F-1DE61450A9EE}" name="Tabela dinâmica8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED8A6DCF-9EA5-4CED-A93F-1DE61450A9EE}" name="Tabela dinâmica8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="1" showAll="0"/>
@@ -18460,10 +19602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DF961B-DA8B-42AF-9C91-E2954F467ED3}">
-  <dimension ref="A1:U130"/>
+  <dimension ref="A1:T130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18476,32 +19618,33 @@
     <col min="9" max="9" width="12.21875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="27.33203125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="14" width="10.44140625" style="1" customWidth="1"/>
+    <col min="15" max="20" width="27.33203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="14"/>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="15"/>
       <c r="D1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -18536,19 +19679,10 @@
         <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -18585,17 +19719,8 @@
       <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>44013</v>
       </c>
@@ -18634,30 +19759,18 @@
         <f>IF(J4&gt;348.75,"N",IF(J4&lt;=11.25,"N",IF(AND(J4&gt;11.25,J4&lt;=33.73),"NNE",IF(AND(J4&gt;33.75,J4&lt;=56.25),"NE",IF(AND(J4&gt;56.25,J4&lt;=78.75),"ENE",IF(AND(J4&gt;78.75,J4&lt;=101.25),"E",IF(AND(J4&gt;101.25,J4&lt;=123.75),"ESE",IF(AND(J4&gt;123.75,J4&lt;=146.25),"SE",IF(AND(J4&gt;146.25,J4&lt;=168.75),"SSE",IF(AND(J4&gt;168.75,J4&lt;=191.25),"S",IF(AND(J4&gt;191.25,J4&lt;=213.75),"SSW",IF(AND(J4&gt;213.75,J4&lt;=236.25),"SW",IF(AND(J4&gt;236.25,J4&lt;=258.75),"WSW",IF(AND(J4&gt;258.75,J4&lt;=281.25),"W",IF(AND(J4&gt;281.25,J4&lt;=303.75),"WNW",IF(AND(J4&gt;303.75,J4&lt;=326.25),"NW",IF(AND(J4&gt;326.25,J4&lt;=348.75),"NNW")))))))))))))))))</f>
         <v>SSE</v>
       </c>
-      <c r="L4" s="2">
-        <f>IF(B4&lt;=20,1,IF(AND(B4&gt;20,B4&lt;=40),2,IF(AND(B4&gt;40,B4&lt;=60),3,IF(AND(B4&gt;60,B4&lt;=80),4,IF(AND(B4&gt;80,B4&lt;=100),5)))))</f>
-        <v>3</v>
-      </c>
-      <c r="M4" s="2">
-        <f>IF(C4&lt;=20,1,IF(AND(C4&gt;20,C4&lt;=30),2,IF(AND(C4&gt;30,C4&lt;=40),3)))</f>
-        <v>2</v>
-      </c>
-      <c r="N4" s="2">
-        <f>IF(D4&lt;=10,1,IF(AND(D4&gt;10,D4&lt;=20),2,IF(AND(D4&gt;20,D4&lt;=30),3,IF(AND(D4&gt;30,D4&lt;=40),4))))</f>
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
-        <f>IF(G4&lt;=1,1,IF(AND(G4&gt;1,G4&lt;=2),2,IF(AND(G4&gt;2,G4&lt;=3),3,IF(AND(G4&gt;3,G4&lt;=4),4,IF(AND(G4&gt;4,G4&lt;=5),5)))))</f>
-        <v>4</v>
-      </c>
+      <c r="L4" s="1" t="str">
+        <f>IF(AND(B4&lt;=30,C4&gt;=30,H4&gt;=30),"FOGO","CALMO")</f>
+        <v>CALMO</v>
+      </c>
+      <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>44014</v>
       </c>
@@ -18696,30 +19809,18 @@
         <f t="shared" ref="K5:K68" si="4">IF(J5&gt;348.75,"N",IF(J5&lt;=11.25,"N",IF(AND(J5&gt;11.25,J5&lt;=33.73),"NNE",IF(AND(J5&gt;33.75,J5&lt;=56.25),"NE",IF(AND(J5&gt;56.25,J5&lt;=78.75),"ENE",IF(AND(J5&gt;78.75,J5&lt;=101.25),"E",IF(AND(J5&gt;101.25,J5&lt;=123.75),"ESE",IF(AND(J5&gt;123.75,J5&lt;=146.25),"SE",IF(AND(J5&gt;146.25,J5&lt;=168.75),"SSE",IF(AND(J5&gt;168.75,J5&lt;=191.25),"S",IF(AND(J5&gt;191.25,J5&lt;=213.75),"SSW",IF(AND(J5&gt;213.75,J5&lt;=236.25),"SW",IF(AND(J5&gt;236.25,J5&lt;=258.75),"WSW",IF(AND(J5&gt;258.75,J5&lt;=281.25),"W",IF(AND(J5&gt;281.25,J5&lt;=303.75),"WNW",IF(AND(J5&gt;303.75,J5&lt;=326.25),"NW",IF(AND(J5&gt;326.25,J5&lt;=348.75),"NNW")))))))))))))))))</f>
         <v>SSE</v>
       </c>
-      <c r="L5" s="2">
-        <f t="shared" ref="L5:L68" si="5">IF(B5&lt;=20,1,IF(AND(B5&gt;20,B5&lt;=40),2,IF(AND(B5&gt;40,B5&lt;=60),3,IF(AND(B5&gt;60,B5&lt;=80),4,IF(AND(B5&gt;80,B5&lt;=100),5)))))</f>
-        <v>4</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" ref="M5:M68" si="6">IF(C5&lt;=20,1,IF(AND(C5&gt;20,C5&lt;=30),2,IF(AND(C5&gt;30,C5&lt;=40),3)))</f>
-        <v>2</v>
-      </c>
-      <c r="N5" s="2">
-        <f t="shared" ref="N5:N68" si="7">IF(D5&lt;=10,1,IF(AND(D5&gt;10,D5&lt;=20),2,IF(AND(D5&gt;20,D5&lt;=30),3,IF(AND(D5&gt;30,D5&lt;=40),4))))</f>
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" ref="O5:O68" si="8">IF(G5&lt;=1,1,IF(AND(G5&gt;1,G5&lt;=2),2,IF(AND(G5&gt;2,G5&lt;=3),3,IF(AND(G5&gt;3,G5&lt;=4),4,IF(AND(G5&gt;4,G5&lt;=5),5)))))</f>
-        <v>4</v>
-      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" ref="L5:L68" si="5">IF(AND(B5&lt;=30,C5&gt;=30,H5&gt;=30),"FOGO","CALMO")</f>
+        <v>CALMO</v>
+      </c>
+      <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>44015</v>
       </c>
@@ -18758,30 +19859,18 @@
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>44016</v>
       </c>
@@ -18820,30 +19909,18 @@
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>44017</v>
       </c>
@@ -18882,30 +19959,18 @@
         <f t="shared" si="4"/>
         <v>NE</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>44018</v>
       </c>
@@ -18944,30 +20009,18 @@
         <f t="shared" si="4"/>
         <v>NNW</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>44019</v>
       </c>
@@ -19006,30 +20059,18 @@
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>44020</v>
       </c>
@@ -19068,30 +20109,18 @@
         <f t="shared" si="4"/>
         <v>ESE</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>44021</v>
       </c>
@@ -19130,30 +20159,18 @@
         <f t="shared" si="4"/>
         <v>SW</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="2">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>44022</v>
       </c>
@@ -19192,30 +20209,18 @@
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>44023</v>
       </c>
@@ -19254,30 +20259,18 @@
         <f t="shared" si="4"/>
         <v>NE</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>44024</v>
       </c>
@@ -19316,30 +20309,18 @@
         <f t="shared" si="4"/>
         <v>ENE</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>44025</v>
       </c>
@@ -19378,30 +20359,18 @@
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>44026</v>
       </c>
@@ -19440,30 +20409,18 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>44027</v>
       </c>
@@ -19502,30 +20459,18 @@
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>44028</v>
       </c>
@@ -19564,30 +20509,18 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>44029</v>
       </c>
@@ -19626,30 +20559,18 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M20" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N20" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>44030</v>
       </c>
@@ -19688,30 +20609,18 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M21" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>44031</v>
       </c>
@@ -19750,30 +20659,18 @@
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="2">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>44032</v>
       </c>
@@ -19812,30 +20709,18 @@
         <f t="shared" si="4"/>
         <v>NE</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M23" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>44033</v>
       </c>
@@ -19874,30 +20759,18 @@
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M24" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N24" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>44034</v>
       </c>
@@ -19936,30 +20809,18 @@
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M25" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>44035</v>
       </c>
@@ -19998,30 +20859,18 @@
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M26" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>44036</v>
       </c>
@@ -20060,30 +20909,18 @@
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M27" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>44037</v>
       </c>
@@ -20122,30 +20959,18 @@
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N28" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>44038</v>
       </c>
@@ -20184,30 +21009,18 @@
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M29" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N29" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O29" s="2">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>44039</v>
       </c>
@@ -20246,30 +21059,18 @@
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M30" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N30" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O30" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>44040</v>
       </c>
@@ -20308,30 +21109,18 @@
         <f t="shared" si="4"/>
         <v>NE</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M31" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N31" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O31" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>44041</v>
       </c>
@@ -20370,30 +21159,18 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M32" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N32" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O32" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>44042</v>
       </c>
@@ -20432,30 +21209,18 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M33" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N33" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O33" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>44043</v>
       </c>
@@ -20494,30 +21259,18 @@
         <f t="shared" si="4"/>
         <v>NNW</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M34" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N34" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O34" s="2">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>44044</v>
       </c>
@@ -20556,30 +21309,18 @@
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O35" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>44045</v>
       </c>
@@ -20611,37 +21352,25 @@
         <v>Brisa Fraca</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" ref="J36:J68" si="9">(1/0.0175432)*ATAN2(E36,F36)+180</f>
+        <f t="shared" ref="J36:J68" si="6">(1/0.0175432)*ATAN2(E36,F36)+180</f>
         <v>347.20390131131091</v>
       </c>
       <c r="K36" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NNW</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M36" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N36" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O36" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>44046</v>
       </c>
@@ -20673,37 +21402,25 @@
         <v>Brisa Leve</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>352.3669445906902</v>
       </c>
       <c r="K37" s="1" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M37" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O37" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>44047</v>
       </c>
@@ -20735,37 +21452,25 @@
         <v>Brisa Fraca</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>6.8257052293667186</v>
       </c>
       <c r="K38" s="1" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M38" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N38" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O38" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>44048</v>
       </c>
@@ -20797,37 +21502,25 @@
         <v>Brisa Fraca</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>3.2715085225820246</v>
       </c>
       <c r="K39" s="1" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M39" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N39" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O39" s="2">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>44049</v>
       </c>
@@ -20859,37 +21552,25 @@
         <v>Brisa Fraca</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>17.835821204681451</v>
       </c>
       <c r="K40" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M40" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="N40" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O40" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>44050</v>
       </c>
@@ -20921,37 +21602,25 @@
         <v>Brisa Fraca</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>11.189892602742219</v>
       </c>
       <c r="K41" s="1" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M41" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N41" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O41" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>44051</v>
       </c>
@@ -20983,37 +21652,25 @@
         <v>Brisa Fraca</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>14.775292609296088</v>
       </c>
       <c r="K42" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M42" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N42" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O42" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>44052</v>
       </c>
@@ -21045,37 +21702,25 @@
         <v>Brisa Leve</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>24.27435262507521</v>
       </c>
       <c r="K43" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M43" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N43" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O43" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>44053</v>
       </c>
@@ -21107,37 +21752,25 @@
         <v>Brisa Leve</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>23.699133650254595</v>
       </c>
       <c r="K44" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M44" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N44" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O44" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>44054</v>
       </c>
@@ -21169,37 +21802,25 @@
         <v>Brisa Leve</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>31.332363811101743</v>
       </c>
       <c r="K45" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M45" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N45" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O45" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>44055</v>
       </c>
@@ -21231,37 +21852,25 @@
         <v>Brisa Fraca</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>40.486779370849519</v>
       </c>
       <c r="K46" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NE</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M46" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N46" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O46" s="2">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>44056</v>
       </c>
@@ -21293,37 +21902,25 @@
         <v>Brisa Leve</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>31.96041578190048</v>
       </c>
       <c r="K47" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M47" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N47" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O47" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>44057</v>
       </c>
@@ -21355,37 +21952,25 @@
         <v>Brisa Leve</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>4.2135462768941636</v>
       </c>
       <c r="K48" s="1" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M48" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N48" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O48" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>44058</v>
       </c>
@@ -21417,37 +22002,25 @@
         <v>Aragem</v>
       </c>
       <c r="J49" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>15.25546714853013</v>
       </c>
       <c r="K49" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M49" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N49" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O49" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>44059</v>
       </c>
@@ -21479,37 +22052,25 @@
         <v>Brisa Fraca</v>
       </c>
       <c r="J50" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>23.852799002256631</v>
       </c>
       <c r="K50" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M50" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N50" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O50" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>44060</v>
       </c>
@@ -21541,37 +22102,25 @@
         <v>Brisa Leve</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>35.029346395084133</v>
       </c>
       <c r="K51" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NE</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M51" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N51" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O51" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>44061</v>
       </c>
@@ -21603,37 +22152,25 @@
         <v>Brisa Fraca</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>34.152206350000512</v>
       </c>
       <c r="K52" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NE</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M52" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N52" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O52" s="2">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>44062</v>
       </c>
@@ -21665,37 +22202,25 @@
         <v>Brisa Leve</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>44.322408331552793</v>
       </c>
       <c r="K53" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NE</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M53" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N53" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O53" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>44063</v>
       </c>
@@ -21727,37 +22252,25 @@
         <v>Brisa Fraca</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>6.4598609444107353</v>
       </c>
       <c r="K54" s="1" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M54" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N54" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O54" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>44064</v>
       </c>
@@ -21789,37 +22302,25 @@
         <v>Brisa Leve</v>
       </c>
       <c r="J55" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>311.22953994219938</v>
       </c>
       <c r="K55" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NW</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M55" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N55" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O55" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>44065</v>
       </c>
@@ -21851,37 +22352,25 @@
         <v>Brisa Leve</v>
       </c>
       <c r="J56" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>332.08310463402518</v>
       </c>
       <c r="K56" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NNW</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="M56" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="N56" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O56" s="2">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>44066</v>
       </c>
@@ -21913,37 +22402,25 @@
         <v>Brisa Leve</v>
       </c>
       <c r="J57" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>338.73047837557272</v>
       </c>
       <c r="K57" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NNW</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="M57" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="N57" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O57" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>44067</v>
       </c>
@@ -21975,37 +22452,25 @@
         <v>Brisa Fraca</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>318.87260324820716</v>
       </c>
       <c r="K58" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NW</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M58" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="N58" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O58" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>44068</v>
       </c>
@@ -22037,37 +22502,25 @@
         <v>Brisa Leve</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>321.9904274662066</v>
       </c>
       <c r="K59" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NW</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L59" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M59" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N59" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O59" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>44069</v>
       </c>
@@ -22099,37 +22552,25 @@
         <v>Brisa Fraca</v>
       </c>
       <c r="J60" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>325.70257061337213</v>
       </c>
       <c r="K60" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NW</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L60" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M60" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N60" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O60" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>44070</v>
       </c>
@@ -22161,37 +22602,25 @@
         <v>Brisa Leve</v>
       </c>
       <c r="J61" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>8.3415443442487742</v>
       </c>
       <c r="K61" s="1" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L61" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M61" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N61" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O61" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>44071</v>
       </c>
@@ -22223,37 +22652,25 @@
         <v>Brisa Fraca</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>14.261152811692426</v>
       </c>
       <c r="K62" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L62" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M62" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N62" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O62" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>44072</v>
       </c>
@@ -22285,37 +22702,25 @@
         <v>Brisa Fraca</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>34.614824172658501</v>
       </c>
       <c r="K63" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NE</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L63" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M63" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N63" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O63" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>44073</v>
       </c>
@@ -22347,37 +22752,25 @@
         <v>Brisa Leve</v>
       </c>
       <c r="J64" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>35.926034382098294</v>
       </c>
       <c r="K64" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NE</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M64" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N64" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O64" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>44074</v>
       </c>
@@ -22409,37 +22802,25 @@
         <v>Brisa Fraca</v>
       </c>
       <c r="J65" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>10.268831975593486</v>
       </c>
       <c r="K65" s="1" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="L65" s="2">
+      <c r="L65" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M65" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N65" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O65" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>44075</v>
       </c>
@@ -22471,37 +22852,25 @@
         <v>Brisa Fraca</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>3.4270188297834068</v>
       </c>
       <c r="K66" s="1" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L66" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M66" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N66" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O66" s="2">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>44076</v>
       </c>
@@ -22533,37 +22902,25 @@
         <v>Brisa Fraca</v>
       </c>
       <c r="J67" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>12.296425158156694</v>
       </c>
       <c r="K67" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M67" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N67" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O67" s="2">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>44077</v>
       </c>
@@ -22595,37 +22952,25 @@
         <v>Brisa Leve</v>
       </c>
       <c r="J68" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>25.229492526296468</v>
       </c>
       <c r="K68" s="1" t="str">
         <f t="shared" si="4"/>
         <v>NNE</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M68" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N68" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O68" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <v>44078</v>
       </c>
@@ -22645,49 +22990,37 @@
         <v>-0.57498700000000003</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" ref="G69:G126" si="10">SQRT(E69*E69+F69*F69)</f>
+        <f t="shared" ref="G69:G126" si="7">SQRT(E69*E69+F69*F69)</f>
         <v>2.867107348839419</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" ref="H69:H126" si="11">G69*3.6</f>
+        <f t="shared" ref="H69:H126" si="8">G69*3.6</f>
         <v>10.321586455821908</v>
       </c>
       <c r="I69" s="3" t="str">
-        <f t="shared" ref="I69:I126" si="12">IF(G69&lt;=0.2,"Calmo",IF(AND(G69&gt;0.2,G69&lt;=1.6),"Aragem",IF(AND(G69&gt;1.6,G69&lt;=3.3),"Brisa Leve",IF(AND(G69&gt;3.3,G69&lt;=5.4),"Brisa Fraca",IF(AND(G69&gt;5.4,G69&lt;=7.9),"Brisa Moderada",)))))</f>
+        <f t="shared" ref="I69:I126" si="9">IF(G69&lt;=0.2,"Calmo",IF(AND(G69&gt;0.2,G69&lt;=1.6),"Aragem",IF(AND(G69&gt;1.6,G69&lt;=3.3),"Brisa Leve",IF(AND(G69&gt;3.3,G69&lt;=5.4),"Brisa Fraca",IF(AND(G69&gt;5.4,G69&lt;=7.9),"Brisa Moderada",)))))</f>
         <v>Brisa Leve</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" ref="J69:J126" si="13">(1/0.0175432)*ATAN2(E69,F69)+180</f>
+        <f t="shared" ref="J69:J126" si="10">(1/0.0175432)*ATAN2(E69,F69)+180</f>
         <v>12.432087062202669</v>
       </c>
       <c r="K69" s="1" t="str">
-        <f t="shared" ref="K69:K126" si="14">IF(J69&gt;348.75,"N",IF(J69&lt;=11.25,"N",IF(AND(J69&gt;11.25,J69&lt;=33.73),"NNE",IF(AND(J69&gt;33.75,J69&lt;=56.25),"NE",IF(AND(J69&gt;56.25,J69&lt;=78.75),"ENE",IF(AND(J69&gt;78.75,J69&lt;=101.25),"E",IF(AND(J69&gt;101.25,J69&lt;=123.75),"ESE",IF(AND(J69&gt;123.75,J69&lt;=146.25),"SE",IF(AND(J69&gt;146.25,J69&lt;=168.75),"SSE",IF(AND(J69&gt;168.75,J69&lt;=191.25),"S",IF(AND(J69&gt;191.25,J69&lt;=213.75),"SSW",IF(AND(J69&gt;213.75,J69&lt;=236.25),"SW",IF(AND(J69&gt;236.25,J69&lt;=258.75),"WSW",IF(AND(J69&gt;258.75,J69&lt;=281.25),"W",IF(AND(J69&gt;281.25,J69&lt;=303.75),"WNW",IF(AND(J69&gt;303.75,J69&lt;=326.25),"NW",IF(AND(J69&gt;326.25,J69&lt;=348.75),"NNW")))))))))))))))))</f>
+        <f t="shared" ref="K69:K126" si="11">IF(J69&gt;348.75,"N",IF(J69&lt;=11.25,"N",IF(AND(J69&gt;11.25,J69&lt;=33.73),"NNE",IF(AND(J69&gt;33.75,J69&lt;=56.25),"NE",IF(AND(J69&gt;56.25,J69&lt;=78.75),"ENE",IF(AND(J69&gt;78.75,J69&lt;=101.25),"E",IF(AND(J69&gt;101.25,J69&lt;=123.75),"ESE",IF(AND(J69&gt;123.75,J69&lt;=146.25),"SE",IF(AND(J69&gt;146.25,J69&lt;=168.75),"SSE",IF(AND(J69&gt;168.75,J69&lt;=191.25),"S",IF(AND(J69&gt;191.25,J69&lt;=213.75),"SSW",IF(AND(J69&gt;213.75,J69&lt;=236.25),"SW",IF(AND(J69&gt;236.25,J69&lt;=258.75),"WSW",IF(AND(J69&gt;258.75,J69&lt;=281.25),"W",IF(AND(J69&gt;281.25,J69&lt;=303.75),"WNW",IF(AND(J69&gt;303.75,J69&lt;=326.25),"NW",IF(AND(J69&gt;326.25,J69&lt;=348.75),"NNW")))))))))))))))))</f>
         <v>NNE</v>
       </c>
-      <c r="L69" s="2">
-        <f t="shared" ref="L69:L126" si="15">IF(B69&lt;=20,1,IF(AND(B69&gt;20,B69&lt;=40),2,IF(AND(B69&gt;40,B69&lt;=60),3,IF(AND(B69&gt;60,B69&lt;=80),4,IF(AND(B69&gt;80,B69&lt;=100),5)))))</f>
-        <v>2</v>
-      </c>
-      <c r="M69" s="2">
-        <f t="shared" ref="M69:M126" si="16">IF(C69&lt;=20,1,IF(AND(C69&gt;20,C69&lt;=30),2,IF(AND(C69&gt;30,C69&lt;=40),3)))</f>
-        <v>2</v>
-      </c>
-      <c r="N69" s="2">
-        <f t="shared" ref="N69:N126" si="17">IF(D69&lt;=10,1,IF(AND(D69&gt;10,D69&lt;=20),2,IF(AND(D69&gt;20,D69&lt;=30),3,IF(AND(D69&gt;30,D69&lt;=40),4))))</f>
-        <v>1</v>
-      </c>
-      <c r="O69" s="2">
-        <f t="shared" ref="O69:O126" si="18">IF(G69&lt;=1,1,IF(AND(G69&gt;1,G69&lt;=2),2,IF(AND(G69&gt;2,G69&lt;=3),3,IF(AND(G69&gt;3,G69&lt;=4),4,IF(AND(G69&gt;4,G69&lt;=5),5)))))</f>
-        <v>3</v>
-      </c>
+      <c r="L69" s="1" t="str">
+        <f t="shared" ref="L69:L127" si="12">IF(AND(B69&lt;=30,C69&gt;=30,H69&gt;=30),"FOGO","CALMO")</f>
+        <v>CALMO</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>44079</v>
       </c>
@@ -22707,49 +23040,37 @@
         <v>-0.58772100000000005</v>
       </c>
       <c r="G70" s="3">
+        <f t="shared" si="7"/>
+        <v>4.1620448927709797</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" si="8"/>
+        <v>14.983361613975527</v>
+      </c>
+      <c r="I70" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Fraca</v>
+      </c>
+      <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>4.1620448927709797</v>
-      </c>
-      <c r="H70" s="3">
+        <v>8.9987329749251046</v>
+      </c>
+      <c r="K70" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>14.983361613975527</v>
-      </c>
-      <c r="I70" s="3" t="str">
+        <v>N</v>
+      </c>
+      <c r="L70" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
-      </c>
-      <c r="J70" s="2">
-        <f t="shared" si="13"/>
-        <v>8.9987329749251046</v>
-      </c>
-      <c r="K70" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>N</v>
-      </c>
-      <c r="L70" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M70" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N70" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O70" s="2">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
-      <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>44080</v>
       </c>
@@ -22769,49 +23090,37 @@
         <v>-1.7291700000000001</v>
       </c>
       <c r="G71" s="3">
+        <f t="shared" si="7"/>
+        <v>2.8256372452599079</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="8"/>
+        <v>10.172294082935668</v>
+      </c>
+      <c r="I71" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>2.8256372452599079</v>
-      </c>
-      <c r="H71" s="3">
+        <v>38.460296572691362</v>
+      </c>
+      <c r="K71" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>10.172294082935668</v>
-      </c>
-      <c r="I71" s="3" t="str">
+        <v>NE</v>
+      </c>
+      <c r="L71" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J71" s="2">
-        <f t="shared" si="13"/>
-        <v>38.460296572691362</v>
-      </c>
-      <c r="K71" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NE</v>
-      </c>
-      <c r="L71" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M71" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N71" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O71" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>44081</v>
       </c>
@@ -22831,49 +23140,37 @@
         <v>-0.71766099999999999</v>
       </c>
       <c r="G72" s="3">
+        <f t="shared" si="7"/>
+        <v>2.8030479580843779</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="8"/>
+        <v>10.09097264910376</v>
+      </c>
+      <c r="I72" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>2.8030479580843779</v>
-      </c>
-      <c r="H72" s="3">
+        <v>15.681014360046078</v>
+      </c>
+      <c r="K72" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>10.09097264910376</v>
-      </c>
-      <c r="I72" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L72" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J72" s="2">
-        <f t="shared" si="13"/>
-        <v>15.681014360046078</v>
-      </c>
-      <c r="K72" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L72" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M72" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N72" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O72" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>44082</v>
       </c>
@@ -22893,49 +23190,37 @@
         <v>-0.244141</v>
       </c>
       <c r="G73" s="3">
+        <f t="shared" si="7"/>
+        <v>2.5623872386470006</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" si="8"/>
+        <v>9.2245940591292026</v>
+      </c>
+      <c r="I73" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>2.5623872386470006</v>
-      </c>
-      <c r="H73" s="3">
+        <v>6.3618282340802352</v>
+      </c>
+      <c r="K73" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>9.2245940591292026</v>
-      </c>
-      <c r="I73" s="3" t="str">
+        <v>N</v>
+      </c>
+      <c r="L73" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J73" s="2">
-        <f t="shared" si="13"/>
-        <v>6.3618282340802352</v>
-      </c>
-      <c r="K73" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>N</v>
-      </c>
-      <c r="L73" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M73" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N73" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O73" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>44083</v>
       </c>
@@ -22955,49 +23240,37 @@
         <v>-1.1944300000000001</v>
       </c>
       <c r="G74" s="3">
+        <f t="shared" si="7"/>
+        <v>4.3968171881259748</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" si="8"/>
+        <v>15.82854187725351</v>
+      </c>
+      <c r="I74" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Fraca</v>
+      </c>
+      <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>4.3968171881259748</v>
-      </c>
-      <c r="H74" s="3">
+        <v>16.604645345142728</v>
+      </c>
+      <c r="K74" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>15.82854187725351</v>
-      </c>
-      <c r="I74" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L74" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
-      </c>
-      <c r="J74" s="2">
-        <f t="shared" si="13"/>
-        <v>16.604645345142728</v>
-      </c>
-      <c r="K74" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L74" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M74" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N74" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O74" s="2">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>44084</v>
       </c>
@@ -23017,49 +23290,37 @@
         <v>-0.74956699999999998</v>
       </c>
       <c r="G75" s="3">
+        <f t="shared" si="7"/>
+        <v>2.7284607378316807</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="8"/>
+        <v>9.8224586561940512</v>
+      </c>
+      <c r="I75" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>2.7284607378316807</v>
-      </c>
-      <c r="H75" s="3">
+        <v>16.786188295625095</v>
+      </c>
+      <c r="K75" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>9.8224586561940512</v>
-      </c>
-      <c r="I75" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L75" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J75" s="2">
-        <f t="shared" si="13"/>
-        <v>16.786188295625095</v>
-      </c>
-      <c r="K75" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L75" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M75" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N75" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O75" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>44085</v>
       </c>
@@ -23079,49 +23340,37 @@
         <v>-1.0213099999999999</v>
       </c>
       <c r="G76" s="3">
+        <f t="shared" si="7"/>
+        <v>3.0050287750036606</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="8"/>
+        <v>10.818103590013179</v>
+      </c>
+      <c r="I76" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>3.0050287750036606</v>
-      </c>
-      <c r="H76" s="3">
+        <v>20.68942847498451</v>
+      </c>
+      <c r="K76" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>10.818103590013179</v>
-      </c>
-      <c r="I76" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L76" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J76" s="2">
-        <f t="shared" si="13"/>
-        <v>20.68942847498451</v>
-      </c>
-      <c r="K76" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L76" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M76" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N76" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O76" s="2">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>44086</v>
       </c>
@@ -23141,49 +23390,37 @@
         <v>-1.32673</v>
       </c>
       <c r="G77" s="3">
+        <f t="shared" si="7"/>
+        <v>4.3179282526924876</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" si="8"/>
+        <v>15.544541709692956</v>
+      </c>
+      <c r="I77" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Fraca</v>
+      </c>
+      <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>4.3179282526924876</v>
-      </c>
-      <c r="H77" s="3">
+        <v>18.72500858347405</v>
+      </c>
+      <c r="K77" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>15.544541709692956</v>
-      </c>
-      <c r="I77" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L77" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
-      </c>
-      <c r="J77" s="2">
-        <f t="shared" si="13"/>
-        <v>18.72500858347405</v>
-      </c>
-      <c r="K77" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L77" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M77" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N77" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O77" s="2">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>44087</v>
       </c>
@@ -23203,49 +23440,37 @@
         <v>-0.97300399999999998</v>
       </c>
       <c r="G78" s="3">
+        <f t="shared" si="7"/>
+        <v>3.8623291679524159</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" si="8"/>
+        <v>13.904385004628697</v>
+      </c>
+      <c r="I78" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Fraca</v>
+      </c>
+      <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>3.8623291679524159</v>
-      </c>
-      <c r="H78" s="3">
+        <v>15.438956011416082</v>
+      </c>
+      <c r="K78" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>13.904385004628697</v>
-      </c>
-      <c r="I78" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L78" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
-      </c>
-      <c r="J78" s="2">
-        <f t="shared" si="13"/>
-        <v>15.438956011416082</v>
-      </c>
-      <c r="K78" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L78" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M78" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N78" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O78" s="2">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>44088</v>
       </c>
@@ -23265,49 +23490,37 @@
         <v>-1.4121900000000001</v>
       </c>
       <c r="G79" s="3">
+        <f t="shared" si="7"/>
+        <v>2.7163632990636581</v>
+      </c>
+      <c r="H79" s="3">
+        <f t="shared" si="8"/>
+        <v>9.7789078766291695</v>
+      </c>
+      <c r="I79" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>2.7163632990636581</v>
-      </c>
-      <c r="H79" s="3">
+        <v>32.086327047242008</v>
+      </c>
+      <c r="K79" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>9.7789078766291695</v>
-      </c>
-      <c r="I79" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L79" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J79" s="2">
-        <f t="shared" si="13"/>
-        <v>32.086327047242008</v>
-      </c>
-      <c r="K79" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L79" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M79" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N79" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O79" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>44089</v>
       </c>
@@ -23327,49 +23540,37 @@
         <v>1.1654100000000001</v>
       </c>
       <c r="G80" s="3">
+        <f t="shared" si="7"/>
+        <v>4.2324315305152895</v>
+      </c>
+      <c r="H80" s="3">
+        <f t="shared" si="8"/>
+        <v>15.236753509855042</v>
+      </c>
+      <c r="I80" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Fraca</v>
+      </c>
+      <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>4.2324315305152895</v>
-      </c>
-      <c r="H80" s="3">
+        <v>343.17641275442088</v>
+      </c>
+      <c r="K80" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>15.236753509855042</v>
-      </c>
-      <c r="I80" s="3" t="str">
+        <v>NNW</v>
+      </c>
+      <c r="L80" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
-      </c>
-      <c r="J80" s="2">
-        <f t="shared" si="13"/>
-        <v>343.17641275442088</v>
-      </c>
-      <c r="K80" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNW</v>
-      </c>
-      <c r="L80" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M80" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N80" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O80" s="2">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="11">
         <v>44090</v>
       </c>
@@ -23389,49 +23590,37 @@
         <v>-1.3261099999999999</v>
       </c>
       <c r="G81" s="3">
+        <f t="shared" si="7"/>
+        <v>2.5130512200311395</v>
+      </c>
+      <c r="H81" s="3">
+        <f t="shared" si="8"/>
+        <v>9.0469843921121029</v>
+      </c>
+      <c r="I81" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>2.5130512200311395</v>
-      </c>
-      <c r="H81" s="3">
+        <v>32.608715803626893</v>
+      </c>
+      <c r="K81" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>9.0469843921121029</v>
-      </c>
-      <c r="I81" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L81" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J81" s="2">
-        <f t="shared" si="13"/>
-        <v>32.608715803626893</v>
-      </c>
-      <c r="K81" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L81" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M81" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N81" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O81" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>44091</v>
       </c>
@@ -23451,49 +23640,37 @@
         <v>0.34026400000000001</v>
       </c>
       <c r="G82" s="3">
+        <f t="shared" si="7"/>
+        <v>1.5749068651180613</v>
+      </c>
+      <c r="H82" s="3">
+        <f t="shared" si="8"/>
+        <v>5.6696647144250205</v>
+      </c>
+      <c r="I82" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Aragem</v>
+      </c>
+      <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>1.5749068651180613</v>
-      </c>
-      <c r="H82" s="3">
+        <v>346.66412397139408</v>
+      </c>
+      <c r="K82" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>5.6696647144250205</v>
-      </c>
-      <c r="I82" s="3" t="str">
+        <v>NNW</v>
+      </c>
+      <c r="L82" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
-      </c>
-      <c r="J82" s="2">
-        <f t="shared" si="13"/>
-        <v>346.66412397139408</v>
-      </c>
-      <c r="K82" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNW</v>
-      </c>
-      <c r="L82" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M82" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N82" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O82" s="2">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>44092</v>
       </c>
@@ -23513,49 +23690,37 @@
         <v>-0.50455000000000005</v>
       </c>
       <c r="G83" s="3">
+        <f t="shared" si="7"/>
+        <v>3.6846878704850972</v>
+      </c>
+      <c r="H83" s="3">
+        <f t="shared" si="8"/>
+        <v>13.264876333746351</v>
+      </c>
+      <c r="I83" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Fraca</v>
+      </c>
+      <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>3.6846878704850972</v>
-      </c>
-      <c r="H83" s="3">
+        <v>8.7524772421677994</v>
+      </c>
+      <c r="K83" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>13.264876333746351</v>
-      </c>
-      <c r="I83" s="3" t="str">
+        <v>N</v>
+      </c>
+      <c r="L83" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
-      </c>
-      <c r="J83" s="2">
-        <f t="shared" si="13"/>
-        <v>8.7524772421677994</v>
-      </c>
-      <c r="K83" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>N</v>
-      </c>
-      <c r="L83" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M83" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N83" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O83" s="2">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>44093</v>
       </c>
@@ -23575,49 +23740,37 @@
         <v>-0.88747699999999996</v>
       </c>
       <c r="G84" s="3">
+        <f t="shared" si="7"/>
+        <v>2.7005124876454469</v>
+      </c>
+      <c r="H84" s="3">
+        <f t="shared" si="8"/>
+        <v>9.7218449555236095</v>
+      </c>
+      <c r="I84" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>2.7005124876454469</v>
-      </c>
-      <c r="H84" s="3">
+        <v>20.009973148127841</v>
+      </c>
+      <c r="K84" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>9.7218449555236095</v>
-      </c>
-      <c r="I84" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L84" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J84" s="2">
-        <f t="shared" si="13"/>
-        <v>20.009973148127841</v>
-      </c>
-      <c r="K84" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L84" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M84" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N84" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O84" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
         <v>44094</v>
       </c>
@@ -23637,49 +23790,37 @@
         <v>-1.66177</v>
       </c>
       <c r="G85" s="3">
+        <f t="shared" si="7"/>
+        <v>4.1365205590447633</v>
+      </c>
+      <c r="H85" s="3">
+        <f t="shared" si="8"/>
+        <v>14.891474012561149</v>
+      </c>
+      <c r="I85" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Fraca</v>
+      </c>
+      <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>4.1365205590447633</v>
-      </c>
-      <c r="H85" s="3">
+        <v>24.487552654330045</v>
+      </c>
+      <c r="K85" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>14.891474012561149</v>
-      </c>
-      <c r="I85" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L85" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
-      </c>
-      <c r="J85" s="2">
-        <f t="shared" si="13"/>
-        <v>24.487552654330045</v>
-      </c>
-      <c r="K85" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L85" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M85" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N85" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O85" s="2">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
-      <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>44095</v>
       </c>
@@ -23699,49 +23840,37 @@
         <v>-1.3440000000000001</v>
       </c>
       <c r="G86" s="3">
+        <f t="shared" si="7"/>
+        <v>2.7482983030413566</v>
+      </c>
+      <c r="H86" s="3">
+        <f t="shared" si="8"/>
+        <v>9.8938738909488837</v>
+      </c>
+      <c r="I86" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>2.7482983030413566</v>
-      </c>
-      <c r="H86" s="3">
+        <v>30.049282585265161</v>
+      </c>
+      <c r="K86" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>9.8938738909488837</v>
-      </c>
-      <c r="I86" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L86" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J86" s="2">
-        <f t="shared" si="13"/>
-        <v>30.049282585265161</v>
-      </c>
-      <c r="K86" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L86" s="2">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="M86" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N86" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O86" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
-      <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="11">
         <v>44096</v>
       </c>
@@ -23761,49 +23890,37 @@
         <v>-8.7806300000000004E-2</v>
       </c>
       <c r="G87" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97398899729344479</v>
+      </c>
+      <c r="H87" s="3">
+        <f t="shared" si="8"/>
+        <v>3.5063603902564013</v>
+      </c>
+      <c r="I87" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Aragem</v>
+      </c>
+      <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>0.97398899729344479</v>
-      </c>
-      <c r="H87" s="3">
+        <v>6.0682847139323712</v>
+      </c>
+      <c r="K87" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>3.5063603902564013</v>
-      </c>
-      <c r="I87" s="3" t="str">
+        <v>N</v>
+      </c>
+      <c r="L87" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
-      </c>
-      <c r="J87" s="2">
-        <f t="shared" si="13"/>
-        <v>6.0682847139323712</v>
-      </c>
-      <c r="K87" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>N</v>
-      </c>
-      <c r="L87" s="2">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="M87" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="N87" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O87" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <v>44097</v>
       </c>
@@ -23823,49 +23940,37 @@
         <v>1.64574</v>
       </c>
       <c r="G88" s="3">
+        <f t="shared" si="7"/>
+        <v>2.2508470691053182</v>
+      </c>
+      <c r="H88" s="3">
+        <f t="shared" si="8"/>
+        <v>8.1030494487791458</v>
+      </c>
+      <c r="I88" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>2.2508470691053182</v>
-      </c>
-      <c r="H88" s="3">
+        <v>312.33417747907095</v>
+      </c>
+      <c r="K88" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>8.1030494487791458</v>
-      </c>
-      <c r="I88" s="3" t="str">
+        <v>NW</v>
+      </c>
+      <c r="L88" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J88" s="2">
-        <f t="shared" si="13"/>
-        <v>312.33417747907095</v>
-      </c>
-      <c r="K88" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NW</v>
-      </c>
-      <c r="L88" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="M88" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N88" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O88" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
         <v>44098</v>
       </c>
@@ -23885,49 +23990,37 @@
         <v>0.50737600000000005</v>
       </c>
       <c r="G89" s="3">
+        <f t="shared" si="7"/>
+        <v>2.7705741361270233</v>
+      </c>
+      <c r="H89" s="3">
+        <f t="shared" si="8"/>
+        <v>9.9740668900572835</v>
+      </c>
+      <c r="I89" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>2.7705741361270233</v>
-      </c>
-      <c r="H89" s="3">
+        <v>348.5794506813844</v>
+      </c>
+      <c r="K89" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>9.9740668900572835</v>
-      </c>
-      <c r="I89" s="3" t="str">
+        <v>NNW</v>
+      </c>
+      <c r="L89" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J89" s="2">
-        <f t="shared" si="13"/>
-        <v>348.5794506813844</v>
-      </c>
-      <c r="K89" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNW</v>
-      </c>
-      <c r="L89" s="2">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="M89" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N89" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O89" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <v>44099</v>
       </c>
@@ -23947,49 +24040,37 @@
         <v>-1.5995699999999999</v>
       </c>
       <c r="G90" s="3">
+        <f t="shared" si="7"/>
+        <v>3.1363591989598385</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" si="8"/>
+        <v>11.290893116255418</v>
+      </c>
+      <c r="I90" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>3.1363591989598385</v>
-      </c>
-      <c r="H90" s="3">
+        <v>31.429731966736966</v>
+      </c>
+      <c r="K90" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>11.290893116255418</v>
-      </c>
-      <c r="I90" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L90" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J90" s="2">
-        <f t="shared" si="13"/>
-        <v>31.429731966736966</v>
-      </c>
-      <c r="K90" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L90" s="2">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="M90" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N90" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O90" s="2">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
-      <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
         <v>44100</v>
       </c>
@@ -24009,49 +24090,37 @@
         <v>-0.96032200000000001</v>
       </c>
       <c r="G91" s="3">
+        <f t="shared" si="7"/>
+        <v>2.5579670606331115</v>
+      </c>
+      <c r="H91" s="3">
+        <f t="shared" si="8"/>
+        <v>9.2086814182792018</v>
+      </c>
+      <c r="I91" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>2.5579670606331115</v>
-      </c>
-      <c r="H91" s="3">
+        <v>22.859993912190902</v>
+      </c>
+      <c r="K91" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>9.2086814182792018</v>
-      </c>
-      <c r="I91" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L91" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J91" s="2">
-        <f t="shared" si="13"/>
-        <v>22.859993912190902</v>
-      </c>
-      <c r="K91" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L91" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M91" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N91" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O91" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
-      <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>44101</v>
       </c>
@@ -24071,49 +24140,37 @@
         <v>-1.41025</v>
       </c>
       <c r="G92" s="3">
+        <f t="shared" si="7"/>
+        <v>1.7593640292446586</v>
+      </c>
+      <c r="H92" s="3">
+        <f t="shared" si="8"/>
+        <v>6.333710505280771</v>
+      </c>
+      <c r="I92" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>1.7593640292446586</v>
-      </c>
-      <c r="H92" s="3">
+        <v>53.929531605428409</v>
+      </c>
+      <c r="K92" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>6.333710505280771</v>
-      </c>
-      <c r="I92" s="3" t="str">
+        <v>NE</v>
+      </c>
+      <c r="L92" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J92" s="2">
-        <f t="shared" si="13"/>
-        <v>53.929531605428409</v>
-      </c>
-      <c r="K92" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NE</v>
-      </c>
-      <c r="L92" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M92" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N92" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O92" s="2">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
         <v>44102</v>
       </c>
@@ -24133,49 +24190,37 @@
         <v>-1.2664299999999999</v>
       </c>
       <c r="G93" s="3">
+        <f t="shared" si="7"/>
+        <v>2.932661719206632</v>
+      </c>
+      <c r="H93" s="3">
+        <f t="shared" si="8"/>
+        <v>10.557582189143876</v>
+      </c>
+      <c r="I93" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>2.932661719206632</v>
-      </c>
-      <c r="H93" s="3">
+        <v>26.375526245045165</v>
+      </c>
+      <c r="K93" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>10.557582189143876</v>
-      </c>
-      <c r="I93" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L93" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J93" s="2">
-        <f t="shared" si="13"/>
-        <v>26.375526245045165</v>
-      </c>
-      <c r="K93" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L93" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M93" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N93" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O93" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
-      <c r="U93" s="2"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
         <v>44103</v>
       </c>
@@ -24195,49 +24240,37 @@
         <v>-4.4647600000000003E-2</v>
       </c>
       <c r="G94" s="3">
+        <f t="shared" si="7"/>
+        <v>3.4751868177388334</v>
+      </c>
+      <c r="H94" s="3">
+        <f t="shared" si="8"/>
+        <v>12.510672543859801</v>
+      </c>
+      <c r="I94" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Fraca</v>
+      </c>
+      <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>3.4751868177388334</v>
-      </c>
-      <c r="H94" s="3">
+        <v>1.654842867685943</v>
+      </c>
+      <c r="K94" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>12.510672543859801</v>
-      </c>
-      <c r="I94" s="3" t="str">
+        <v>N</v>
+      </c>
+      <c r="L94" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
-      </c>
-      <c r="J94" s="2">
-        <f t="shared" si="13"/>
-        <v>1.654842867685943</v>
-      </c>
-      <c r="K94" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>N</v>
-      </c>
-      <c r="L94" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M94" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N94" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O94" s="2">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <v>44104</v>
       </c>
@@ -24257,49 +24290,37 @@
         <v>-0.85203300000000004</v>
       </c>
       <c r="G95" s="3">
+        <f t="shared" si="7"/>
+        <v>3.9462975814665824</v>
+      </c>
+      <c r="H95" s="3">
+        <f t="shared" si="8"/>
+        <v>14.206671293279697</v>
+      </c>
+      <c r="I95" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Fraca</v>
+      </c>
+      <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>3.9462975814665824</v>
-      </c>
-      <c r="H95" s="3">
+        <v>13.32732453332352</v>
+      </c>
+      <c r="K95" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>14.206671293279697</v>
-      </c>
-      <c r="I95" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L95" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
-      </c>
-      <c r="J95" s="2">
-        <f t="shared" si="13"/>
-        <v>13.32732453332352</v>
-      </c>
-      <c r="K95" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L95" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M95" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N95" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O95" s="2">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
-      <c r="U95" s="2"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
         <v>44105</v>
       </c>
@@ -24319,49 +24340,37 @@
         <v>-0.75151999999999997</v>
       </c>
       <c r="G96" s="3">
+        <f t="shared" si="7"/>
+        <v>3.0548915742624971</v>
+      </c>
+      <c r="H96" s="3">
+        <f t="shared" si="8"/>
+        <v>10.997609667344991</v>
+      </c>
+      <c r="I96" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>3.0548915742624971</v>
-      </c>
-      <c r="H96" s="3">
+        <v>15.090761052590665</v>
+      </c>
+      <c r="K96" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>10.997609667344991</v>
-      </c>
-      <c r="I96" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L96" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J96" s="2">
-        <f t="shared" si="13"/>
-        <v>15.090761052590665</v>
-      </c>
-      <c r="K96" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L96" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M96" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N96" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O96" s="2">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
-      <c r="U96" s="2"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
         <v>44106</v>
       </c>
@@ -24381,49 +24390,37 @@
         <v>-0.64268800000000004</v>
       </c>
       <c r="G97" s="3">
+        <f t="shared" si="7"/>
+        <v>3.1638341300144037</v>
+      </c>
+      <c r="H97" s="3">
+        <f t="shared" si="8"/>
+        <v>11.389802868051854</v>
+      </c>
+      <c r="I97" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>3.1638341300144037</v>
-      </c>
-      <c r="H97" s="3">
+        <v>12.582812066739621</v>
+      </c>
+      <c r="K97" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>11.389802868051854</v>
-      </c>
-      <c r="I97" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L97" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J97" s="2">
-        <f t="shared" si="13"/>
-        <v>12.582812066739621</v>
-      </c>
-      <c r="K97" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L97" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M97" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N97" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O97" s="2">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>44107</v>
       </c>
@@ -24443,49 +24440,37 @@
         <v>-1.44794</v>
       </c>
       <c r="G98" s="3">
+        <f t="shared" si="7"/>
+        <v>4.4438105195428843</v>
+      </c>
+      <c r="H98" s="3">
+        <f t="shared" si="8"/>
+        <v>15.997717870354384</v>
+      </c>
+      <c r="I98" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Fraca</v>
+      </c>
+      <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>4.4438105195428843</v>
-      </c>
-      <c r="H98" s="3">
+        <v>19.841077854985542</v>
+      </c>
+      <c r="K98" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>15.997717870354384</v>
-      </c>
-      <c r="I98" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L98" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
-      </c>
-      <c r="J98" s="2">
-        <f t="shared" si="13"/>
-        <v>19.841077854985542</v>
-      </c>
-      <c r="K98" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L98" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="M98" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N98" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O98" s="2">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
-      <c r="U98" s="2"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
         <v>44108</v>
       </c>
@@ -24505,49 +24490,37 @@
         <v>-1.8432900000000001</v>
       </c>
       <c r="G99" s="3">
+        <f t="shared" si="7"/>
+        <v>3.9159953301427723</v>
+      </c>
+      <c r="H99" s="3">
+        <f t="shared" si="8"/>
+        <v>14.097583188513982</v>
+      </c>
+      <c r="I99" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Fraca</v>
+      </c>
+      <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>3.9159953301427723</v>
-      </c>
-      <c r="H99" s="3">
+        <v>28.85883507219981</v>
+      </c>
+      <c r="K99" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>14.097583188513982</v>
-      </c>
-      <c r="I99" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L99" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
-      </c>
-      <c r="J99" s="2">
-        <f t="shared" si="13"/>
-        <v>28.85883507219981</v>
-      </c>
-      <c r="K99" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L99" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M99" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N99" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O99" s="2">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>44109</v>
       </c>
@@ -24567,49 +24540,37 @@
         <v>-2.2470400000000001</v>
       </c>
       <c r="G100" s="3">
+        <f t="shared" si="7"/>
+        <v>4.4247914407913065</v>
+      </c>
+      <c r="H100" s="3">
+        <f t="shared" si="8"/>
+        <v>15.929249186848704</v>
+      </c>
+      <c r="I100" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Fraca</v>
+      </c>
+      <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>4.4247914407913065</v>
-      </c>
-      <c r="H100" s="3">
+        <v>31.285443456194969</v>
+      </c>
+      <c r="K100" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>15.929249186848704</v>
-      </c>
-      <c r="I100" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L100" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
-      </c>
-      <c r="J100" s="2">
-        <f t="shared" si="13"/>
-        <v>31.285443456194969</v>
-      </c>
-      <c r="K100" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L100" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M100" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N100" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O100" s="2">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="11">
         <v>44110</v>
       </c>
@@ -24629,49 +24590,37 @@
         <v>-2.00265</v>
       </c>
       <c r="G101" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3234393730892697</v>
+      </c>
+      <c r="H101" s="3">
+        <f t="shared" si="8"/>
+        <v>11.964381743121372</v>
+      </c>
+      <c r="I101" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Fraca</v>
+      </c>
+      <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>3.3234393730892697</v>
-      </c>
-      <c r="H101" s="3">
+        <v>37.787738734611196</v>
+      </c>
+      <c r="K101" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>11.964381743121372</v>
-      </c>
-      <c r="I101" s="3" t="str">
+        <v>NE</v>
+      </c>
+      <c r="L101" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
-      </c>
-      <c r="J101" s="2">
-        <f t="shared" si="13"/>
-        <v>37.787738734611196</v>
-      </c>
-      <c r="K101" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NE</v>
-      </c>
-      <c r="L101" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M101" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N101" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O101" s="2">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
-      <c r="U101" s="2"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <v>44111</v>
       </c>
@@ -24691,49 +24640,37 @@
         <v>-2.7331299999999999E-2</v>
       </c>
       <c r="G102" s="3">
+        <f t="shared" si="7"/>
+        <v>0.23568609881724037</v>
+      </c>
+      <c r="H102" s="3">
+        <f t="shared" si="8"/>
+        <v>0.8484699557420653</v>
+      </c>
+      <c r="I102" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Aragem</v>
+      </c>
+      <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>0.23568609881724037</v>
-      </c>
-      <c r="H102" s="3">
+        <v>173.37484978416961</v>
+      </c>
+      <c r="K102" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>0.8484699557420653</v>
-      </c>
-      <c r="I102" s="3" t="str">
+        <v>S</v>
+      </c>
+      <c r="L102" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
-      </c>
-      <c r="J102" s="2">
-        <f t="shared" si="13"/>
-        <v>173.37484978416961</v>
-      </c>
-      <c r="K102" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>S</v>
-      </c>
-      <c r="L102" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M102" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N102" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O102" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
-      <c r="U102" s="2"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <v>44112</v>
       </c>
@@ -24753,49 +24690,37 @@
         <v>2.4510200000000002</v>
       </c>
       <c r="G103" s="3">
+        <f t="shared" si="7"/>
+        <v>2.8315165102820785</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" si="8"/>
+        <v>10.193459437015482</v>
+      </c>
+      <c r="I103" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>2.8315165102820785</v>
-      </c>
-      <c r="H103" s="3">
+        <v>299.43108739206775</v>
+      </c>
+      <c r="K103" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>10.193459437015482</v>
-      </c>
-      <c r="I103" s="3" t="str">
+        <v>WNW</v>
+      </c>
+      <c r="L103" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J103" s="2">
-        <f t="shared" si="13"/>
-        <v>299.43108739206775</v>
-      </c>
-      <c r="K103" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>WNW</v>
-      </c>
-      <c r="L103" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M103" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N103" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O103" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
-      <c r="U103" s="2"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <v>44113</v>
       </c>
@@ -24815,49 +24740,37 @@
         <v>-0.88178599999999996</v>
       </c>
       <c r="G104" s="3">
+        <f t="shared" si="7"/>
+        <v>2.119359557483345</v>
+      </c>
+      <c r="H104" s="3">
+        <f t="shared" si="8"/>
+        <v>7.6296944069400423</v>
+      </c>
+      <c r="I104" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>2.119359557483345</v>
-      </c>
-      <c r="H104" s="3">
+        <v>155.53975857193183</v>
+      </c>
+      <c r="K104" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>7.6296944069400423</v>
-      </c>
-      <c r="I104" s="3" t="str">
+        <v>SSE</v>
+      </c>
+      <c r="L104" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J104" s="2">
-        <f t="shared" si="13"/>
-        <v>155.53975857193183</v>
-      </c>
-      <c r="K104" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>SSE</v>
-      </c>
-      <c r="L104" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M104" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N104" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O104" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O104" s="2"/>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
-      <c r="U104" s="2"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
         <v>44114</v>
       </c>
@@ -24877,49 +24790,37 @@
         <v>-0.61274399999999996</v>
       </c>
       <c r="G105" s="3">
+        <f t="shared" si="7"/>
+        <v>1.2448122280633334</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" si="8"/>
+        <v>4.4813240210280005</v>
+      </c>
+      <c r="I105" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Aragem</v>
+      </c>
+      <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>1.2448122280633334</v>
-      </c>
-      <c r="H105" s="3">
+        <v>150.66333102113381</v>
+      </c>
+      <c r="K105" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>4.4813240210280005</v>
-      </c>
-      <c r="I105" s="3" t="str">
+        <v>SSE</v>
+      </c>
+      <c r="L105" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
-      </c>
-      <c r="J105" s="2">
-        <f t="shared" si="13"/>
-        <v>150.66333102113381</v>
-      </c>
-      <c r="K105" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>SSE</v>
-      </c>
-      <c r="L105" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M105" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N105" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O105" s="2">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
-      <c r="U105" s="2"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <v>44115</v>
       </c>
@@ -24939,49 +24840,37 @@
         <v>-0.74026800000000004</v>
       </c>
       <c r="G106" s="3">
+        <f t="shared" si="7"/>
+        <v>3.2867104860976117</v>
+      </c>
+      <c r="H106" s="3">
+        <f t="shared" si="8"/>
+        <v>11.832157749951403</v>
+      </c>
+      <c r="I106" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>3.2867104860976117</v>
-      </c>
-      <c r="H106" s="3">
+        <v>13.872219883084313</v>
+      </c>
+      <c r="K106" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>11.832157749951403</v>
-      </c>
-      <c r="I106" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L106" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J106" s="2">
-        <f t="shared" si="13"/>
-        <v>13.872219883084313</v>
-      </c>
-      <c r="K106" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L106" s="2">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="M106" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N106" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O106" s="2">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
-      <c r="U106" s="2"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
         <v>44116</v>
       </c>
@@ -25001,49 +24890,37 @@
         <v>-1.37073</v>
       </c>
       <c r="G107" s="3">
+        <f t="shared" si="7"/>
+        <v>2.1288007059844753</v>
+      </c>
+      <c r="H107" s="3">
+        <f t="shared" si="8"/>
+        <v>7.6636825415441114</v>
+      </c>
+      <c r="I107" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>2.1288007059844753</v>
-      </c>
-      <c r="H107" s="3">
+        <v>40.800146182159381</v>
+      </c>
+      <c r="K107" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>7.6636825415441114</v>
-      </c>
-      <c r="I107" s="3" t="str">
+        <v>NE</v>
+      </c>
+      <c r="L107" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J107" s="2">
-        <f t="shared" si="13"/>
-        <v>40.800146182159381</v>
-      </c>
-      <c r="K107" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NE</v>
-      </c>
-      <c r="L107" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="M107" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N107" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O107" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O107" s="2"/>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
-      <c r="U107" s="2"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>44117</v>
       </c>
@@ -25063,49 +24940,37 @@
         <v>-1.1160600000000001</v>
       </c>
       <c r="G108" s="3">
+        <f t="shared" si="7"/>
+        <v>1.1171424785984105</v>
+      </c>
+      <c r="H108" s="3">
+        <f t="shared" si="8"/>
+        <v>4.0217129229542783</v>
+      </c>
+      <c r="I108" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Aragem</v>
+      </c>
+      <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>1.1171424785984105</v>
-      </c>
-      <c r="H108" s="3">
+        <v>92.970797229644759</v>
+      </c>
+      <c r="K108" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>4.0217129229542783</v>
-      </c>
-      <c r="I108" s="3" t="str">
+        <v>E</v>
+      </c>
+      <c r="L108" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
-      </c>
-      <c r="J108" s="2">
-        <f t="shared" si="13"/>
-        <v>92.970797229644759</v>
-      </c>
-      <c r="K108" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>E</v>
-      </c>
-      <c r="L108" s="2">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="M108" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N108" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O108" s="2">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>44118</v>
       </c>
@@ -25125,49 +24990,37 @@
         <v>-0.59714699999999998</v>
       </c>
       <c r="G109" s="3">
+        <f t="shared" si="7"/>
+        <v>0.71040414595144363</v>
+      </c>
+      <c r="H109" s="3">
+        <f t="shared" si="8"/>
+        <v>2.5574549254251973</v>
+      </c>
+      <c r="I109" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Aragem</v>
+      </c>
+      <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>0.71040414595144363</v>
-      </c>
-      <c r="H109" s="3">
+        <v>57.830080668658198</v>
+      </c>
+      <c r="K109" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>2.5574549254251973</v>
-      </c>
-      <c r="I109" s="3" t="str">
+        <v>ENE</v>
+      </c>
+      <c r="L109" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
-      </c>
-      <c r="J109" s="2">
-        <f t="shared" si="13"/>
-        <v>57.830080668658198</v>
-      </c>
-      <c r="K109" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>ENE</v>
-      </c>
-      <c r="L109" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M109" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N109" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O109" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O109" s="2"/>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
-      <c r="U109" s="2"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>44119</v>
       </c>
@@ -25187,49 +25040,37 @@
         <v>0.77607300000000001</v>
       </c>
       <c r="G110" s="3">
+        <f t="shared" si="7"/>
+        <v>1.5292900342737474</v>
+      </c>
+      <c r="H110" s="3">
+        <f t="shared" si="8"/>
+        <v>5.5054441233854909</v>
+      </c>
+      <c r="I110" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Aragem</v>
+      </c>
+      <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>1.5292900342737474</v>
-      </c>
-      <c r="H110" s="3">
+        <v>210.33934852710848</v>
+      </c>
+      <c r="K110" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>5.5054441233854909</v>
-      </c>
-      <c r="I110" s="3" t="str">
+        <v>SSW</v>
+      </c>
+      <c r="L110" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
-      </c>
-      <c r="J110" s="2">
-        <f t="shared" si="13"/>
-        <v>210.33934852710848</v>
-      </c>
-      <c r="K110" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>SSW</v>
-      </c>
-      <c r="L110" s="2">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="M110" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N110" s="2">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="O110" s="2">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O110" s="2"/>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
-      <c r="U110" s="2"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="11">
         <v>44120</v>
       </c>
@@ -25249,49 +25090,37 @@
         <v>0.98723799999999995</v>
       </c>
       <c r="G111" s="3">
+        <f t="shared" si="7"/>
+        <v>1.8964558158691702</v>
+      </c>
+      <c r="H111" s="3">
+        <f t="shared" si="8"/>
+        <v>6.8272409371290133</v>
+      </c>
+      <c r="I111" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>1.8964558158691702</v>
-      </c>
-      <c r="H111" s="3">
+        <v>327.86779221358029</v>
+      </c>
+      <c r="K111" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>6.8272409371290133</v>
-      </c>
-      <c r="I111" s="3" t="str">
+        <v>NNW</v>
+      </c>
+      <c r="L111" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J111" s="2">
-        <f t="shared" si="13"/>
-        <v>327.86779221358029</v>
-      </c>
-      <c r="K111" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNW</v>
-      </c>
-      <c r="L111" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="M111" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N111" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O111" s="2">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O111" s="2"/>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
       <c r="R111" s="2"/>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
-      <c r="U111" s="2"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="11">
         <v>44121</v>
       </c>
@@ -25311,49 +25140,37 @@
         <v>-0.33843000000000001</v>
       </c>
       <c r="G112" s="3">
+        <f t="shared" si="7"/>
+        <v>2.0006817056693453</v>
+      </c>
+      <c r="H112" s="3">
+        <f t="shared" si="8"/>
+        <v>7.2024541404096434</v>
+      </c>
+      <c r="I112" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J112" s="2">
         <f t="shared" si="10"/>
-        <v>2.0006817056693453</v>
-      </c>
-      <c r="H112" s="3">
+        <v>10.611403500343357</v>
+      </c>
+      <c r="K112" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>7.2024541404096434</v>
-      </c>
-      <c r="I112" s="3" t="str">
+        <v>N</v>
+      </c>
+      <c r="L112" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J112" s="2">
-        <f t="shared" si="13"/>
-        <v>10.611403500343357</v>
-      </c>
-      <c r="K112" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>N</v>
-      </c>
-      <c r="L112" s="2">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="M112" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="N112" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O112" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O112" s="2"/>
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
-      <c r="U112" s="2"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
         <v>44122</v>
       </c>
@@ -25373,49 +25190,37 @@
         <v>-0.98217900000000002</v>
       </c>
       <c r="G113" s="3">
+        <f t="shared" si="7"/>
+        <v>2.3778643947124065</v>
+      </c>
+      <c r="H113" s="3">
+        <f t="shared" si="8"/>
+        <v>8.5603118209646638</v>
+      </c>
+      <c r="I113" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J113" s="2">
         <f t="shared" si="10"/>
-        <v>2.3778643947124065</v>
-      </c>
-      <c r="H113" s="3">
+        <v>25.194086129240247</v>
+      </c>
+      <c r="K113" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>8.5603118209646638</v>
-      </c>
-      <c r="I113" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L113" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J113" s="2">
-        <f t="shared" si="13"/>
-        <v>25.194086129240247</v>
-      </c>
-      <c r="K113" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L113" s="2">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="M113" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="N113" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O113" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
-      <c r="U113" s="2"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
         <v>44123</v>
       </c>
@@ -25435,49 +25240,37 @@
         <v>-0.17364399999999999</v>
       </c>
       <c r="G114" s="3">
+        <f t="shared" si="7"/>
+        <v>2.0013272913584128</v>
+      </c>
+      <c r="H114" s="3">
+        <f t="shared" si="8"/>
+        <v>7.2047782488902863</v>
+      </c>
+      <c r="I114" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J114" s="2">
         <f t="shared" si="10"/>
-        <v>2.0013272913584128</v>
-      </c>
-      <c r="H114" s="3">
+        <v>5.8744697305831153</v>
+      </c>
+      <c r="K114" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>7.2047782488902863</v>
-      </c>
-      <c r="I114" s="3" t="str">
+        <v>N</v>
+      </c>
+      <c r="L114" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J114" s="2">
-        <f t="shared" si="13"/>
-        <v>5.8744697305831153</v>
-      </c>
-      <c r="K114" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>N</v>
-      </c>
-      <c r="L114" s="2">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="M114" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="N114" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O114" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O114" s="2"/>
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
       <c r="R114" s="2"/>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
-      <c r="U114" s="2"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="11">
         <v>44124</v>
       </c>
@@ -25497,49 +25290,37 @@
         <v>-0.63460300000000003</v>
       </c>
       <c r="G115" s="3">
+        <f t="shared" si="7"/>
+        <v>1.2749480349053448</v>
+      </c>
+      <c r="H115" s="3">
+        <f t="shared" si="8"/>
+        <v>4.589812925659241</v>
+      </c>
+      <c r="I115" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Aragem</v>
+      </c>
+      <c r="J115" s="2">
         <f t="shared" si="10"/>
-        <v>1.2749480349053448</v>
-      </c>
-      <c r="H115" s="3">
+        <v>30.620629774472974</v>
+      </c>
+      <c r="K115" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>4.589812925659241</v>
-      </c>
-      <c r="I115" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L115" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
-      </c>
-      <c r="J115" s="2">
-        <f t="shared" si="13"/>
-        <v>30.620629774472974</v>
-      </c>
-      <c r="K115" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L115" s="2">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="M115" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="N115" s="2">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="O115" s="2">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O115" s="2"/>
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
-      <c r="U115" s="2"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="11">
         <v>44125</v>
       </c>
@@ -25559,49 +25340,37 @@
         <v>1.2407899999999999E-2</v>
       </c>
       <c r="G116" s="3">
+        <f t="shared" si="7"/>
+        <v>0.85347719814381096</v>
+      </c>
+      <c r="H116" s="3">
+        <f t="shared" si="8"/>
+        <v>3.0725179133177196</v>
+      </c>
+      <c r="I116" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Aragem</v>
+      </c>
+      <c r="J116" s="2">
         <f t="shared" si="10"/>
-        <v>0.85347719814381096</v>
-      </c>
-      <c r="H116" s="3">
+        <v>358.24878497691839</v>
+      </c>
+      <c r="K116" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>3.0725179133177196</v>
-      </c>
-      <c r="I116" s="3" t="str">
+        <v>N</v>
+      </c>
+      <c r="L116" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
-      </c>
-      <c r="J116" s="2">
-        <f t="shared" si="13"/>
-        <v>358.24878497691839</v>
-      </c>
-      <c r="K116" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>N</v>
-      </c>
-      <c r="L116" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="M116" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N116" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O116" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O116" s="2"/>
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
-      <c r="U116" s="2"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
         <v>44126</v>
       </c>
@@ -25621,49 +25390,37 @@
         <v>-0.78810199999999997</v>
       </c>
       <c r="G117" s="3">
+        <f t="shared" si="7"/>
+        <v>1.8869591973341659</v>
+      </c>
+      <c r="H117" s="3">
+        <f t="shared" si="8"/>
+        <v>6.7930531104029974</v>
+      </c>
+      <c r="I117" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J117" s="2">
         <f t="shared" si="10"/>
-        <v>1.8869591973341659</v>
-      </c>
-      <c r="H117" s="3">
+        <v>25.482729452284048</v>
+      </c>
+      <c r="K117" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>6.7930531104029974</v>
-      </c>
-      <c r="I117" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L117" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J117" s="2">
-        <f t="shared" si="13"/>
-        <v>25.482729452284048</v>
-      </c>
-      <c r="K117" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L117" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="M117" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N117" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O117" s="2">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O117" s="2"/>
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
-      <c r="U117" s="2"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <v>44127</v>
       </c>
@@ -25683,49 +25440,37 @@
         <v>-1.5886100000000001</v>
       </c>
       <c r="G118" s="3">
+        <f t="shared" si="7"/>
+        <v>3.0261276582788112</v>
+      </c>
+      <c r="H118" s="3">
+        <f t="shared" si="8"/>
+        <v>10.894059569803721</v>
+      </c>
+      <c r="I118" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J118" s="2">
         <f t="shared" si="10"/>
-        <v>3.0261276582788112</v>
-      </c>
-      <c r="H118" s="3">
+        <v>32.426062942971669</v>
+      </c>
+      <c r="K118" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>10.894059569803721</v>
-      </c>
-      <c r="I118" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L118" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J118" s="2">
-        <f t="shared" si="13"/>
-        <v>32.426062942971669</v>
-      </c>
-      <c r="K118" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L118" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="M118" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N118" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O118" s="2">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O118" s="2"/>
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
-      <c r="U118" s="2"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
         <v>44128</v>
       </c>
@@ -25745,49 +25490,37 @@
         <v>0.36871599999999999</v>
       </c>
       <c r="G119" s="3">
+        <f t="shared" si="7"/>
+        <v>1.2551014170400732</v>
+      </c>
+      <c r="H119" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5183651013442638</v>
+      </c>
+      <c r="I119" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Aragem</v>
+      </c>
+      <c r="J119" s="2">
         <f t="shared" si="10"/>
-        <v>1.2551014170400732</v>
-      </c>
-      <c r="H119" s="3">
+        <v>342.0810410420429</v>
+      </c>
+      <c r="K119" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>4.5183651013442638</v>
-      </c>
-      <c r="I119" s="3" t="str">
+        <v>NNW</v>
+      </c>
+      <c r="L119" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
-      </c>
-      <c r="J119" s="2">
-        <f t="shared" si="13"/>
-        <v>342.0810410420429</v>
-      </c>
-      <c r="K119" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNW</v>
-      </c>
-      <c r="L119" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="M119" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N119" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O119" s="2">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O119" s="2"/>
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
-      <c r="U119" s="2"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <v>44129</v>
       </c>
@@ -25807,49 +25540,37 @@
         <v>-0.16781699999999999</v>
       </c>
       <c r="G120" s="3">
+        <f t="shared" si="7"/>
+        <v>1.9977610055982673</v>
+      </c>
+      <c r="H120" s="3">
+        <f t="shared" si="8"/>
+        <v>7.1919396201537626</v>
+      </c>
+      <c r="I120" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J120" s="2">
         <f t="shared" si="10"/>
-        <v>1.9977610055982673</v>
-      </c>
-      <c r="H120" s="3">
+        <v>175.20602577619715</v>
+      </c>
+      <c r="K120" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>7.1919396201537626</v>
-      </c>
-      <c r="I120" s="3" t="str">
+        <v>S</v>
+      </c>
+      <c r="L120" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J120" s="2">
-        <f t="shared" si="13"/>
-        <v>175.20602577619715</v>
-      </c>
-      <c r="K120" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>S</v>
-      </c>
-      <c r="L120" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="M120" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N120" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O120" s="2">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O120" s="2"/>
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
-      <c r="U120" s="2"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
         <v>44130</v>
       </c>
@@ -25869,49 +25590,37 @@
         <v>1.23194</v>
       </c>
       <c r="G121" s="3">
+        <f t="shared" si="7"/>
+        <v>2.1299580782729035</v>
+      </c>
+      <c r="H121" s="3">
+        <f t="shared" si="8"/>
+        <v>7.6678490817824532</v>
+      </c>
+      <c r="I121" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J121" s="2">
         <f t="shared" si="10"/>
-        <v>2.1299580782729035</v>
-      </c>
-      <c r="H121" s="3">
+        <v>215.15607038645044</v>
+      </c>
+      <c r="K121" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>7.6678490817824532</v>
-      </c>
-      <c r="I121" s="3" t="str">
+        <v>SW</v>
+      </c>
+      <c r="L121" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J121" s="2">
-        <f t="shared" si="13"/>
-        <v>215.15607038645044</v>
-      </c>
-      <c r="K121" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>SW</v>
-      </c>
-      <c r="L121" s="2">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="M121" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N121" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O121" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O121" s="2"/>
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
-      <c r="U121" s="2"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
         <v>44131</v>
       </c>
@@ -25931,49 +25640,37 @@
         <v>-1.0678300000000001</v>
       </c>
       <c r="G122" s="3">
+        <f t="shared" si="7"/>
+        <v>3.0217829540355807</v>
+      </c>
+      <c r="H122" s="3">
+        <f t="shared" si="8"/>
+        <v>10.87841863452809</v>
+      </c>
+      <c r="I122" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J122" s="2">
         <f t="shared" si="10"/>
-        <v>3.0217829540355807</v>
-      </c>
-      <c r="H122" s="3">
+        <v>159.41201957498413</v>
+      </c>
+      <c r="K122" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>10.87841863452809</v>
-      </c>
-      <c r="I122" s="3" t="str">
+        <v>SSE</v>
+      </c>
+      <c r="L122" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J122" s="2">
-        <f t="shared" si="13"/>
-        <v>159.41201957498413</v>
-      </c>
-      <c r="K122" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>SSE</v>
-      </c>
-      <c r="L122" s="2">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="M122" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N122" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O122" s="2">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O122" s="2"/>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
-      <c r="U122" s="2"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="11">
         <v>44132</v>
       </c>
@@ -25993,49 +25690,37 @@
         <v>-1.2322500000000001</v>
       </c>
       <c r="G123" s="3">
+        <f t="shared" si="7"/>
+        <v>3.9728059428318421</v>
+      </c>
+      <c r="H123" s="3">
+        <f t="shared" si="8"/>
+        <v>14.302101394194631</v>
+      </c>
+      <c r="I123" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Fraca</v>
+      </c>
+      <c r="J123" s="2">
         <f t="shared" si="10"/>
-        <v>3.9728059428318421</v>
-      </c>
-      <c r="H123" s="3">
+        <v>162.02305667296085</v>
+      </c>
+      <c r="K123" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>14.302101394194631</v>
-      </c>
-      <c r="I123" s="3" t="str">
+        <v>SSE</v>
+      </c>
+      <c r="L123" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Fraca</v>
-      </c>
-      <c r="J123" s="2">
-        <f t="shared" si="13"/>
-        <v>162.02305667296085</v>
-      </c>
-      <c r="K123" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>SSE</v>
-      </c>
-      <c r="L123" s="2">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="M123" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N123" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O123" s="2">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O123" s="2"/>
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
-      <c r="U123" s="2"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="11">
         <v>44133</v>
       </c>
@@ -26055,49 +25740,37 @@
         <v>0.216283</v>
       </c>
       <c r="G124" s="3">
+        <f t="shared" si="7"/>
+        <v>0.68155857976405809</v>
+      </c>
+      <c r="H124" s="3">
+        <f t="shared" si="8"/>
+        <v>2.4536108871506093</v>
+      </c>
+      <c r="I124" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Aragem</v>
+      </c>
+      <c r="J124" s="2">
         <f t="shared" si="10"/>
-        <v>0.68155857976405809</v>
-      </c>
-      <c r="H124" s="3">
+        <v>198.40706653929325</v>
+      </c>
+      <c r="K124" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>2.4536108871506093</v>
-      </c>
-      <c r="I124" s="3" t="str">
+        <v>SSW</v>
+      </c>
+      <c r="L124" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Aragem</v>
-      </c>
-      <c r="J124" s="2">
-        <f t="shared" si="13"/>
-        <v>198.40706653929325</v>
-      </c>
-      <c r="K124" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>SSW</v>
-      </c>
-      <c r="L124" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="M124" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N124" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O124" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O124" s="2"/>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
-      <c r="U124" s="2"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="11">
         <v>44134</v>
       </c>
@@ -26117,49 +25790,37 @@
         <v>-0.74063999999999997</v>
       </c>
       <c r="G125" s="3">
+        <f t="shared" si="7"/>
+        <v>2.212215249947437</v>
+      </c>
+      <c r="H125" s="3">
+        <f t="shared" si="8"/>
+        <v>7.9639748998107738</v>
+      </c>
+      <c r="I125" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J125" s="2">
         <f t="shared" si="10"/>
-        <v>2.212215249947437</v>
-      </c>
-      <c r="H125" s="3">
+        <v>20.382352285942204</v>
+      </c>
+      <c r="K125" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>7.9639748998107738</v>
-      </c>
-      <c r="I125" s="3" t="str">
+        <v>NNE</v>
+      </c>
+      <c r="L125" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J125" s="2">
-        <f t="shared" si="13"/>
-        <v>20.382352285942204</v>
-      </c>
-      <c r="K125" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NNE</v>
-      </c>
-      <c r="L125" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="M125" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N125" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O125" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O125" s="2"/>
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
-      <c r="U125" s="2"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
         <v>44135</v>
       </c>
@@ -26179,49 +25840,37 @@
         <v>1.6653100000000001</v>
       </c>
       <c r="G126" s="3">
+        <f t="shared" si="7"/>
+        <v>2.0403815622819179</v>
+      </c>
+      <c r="H126" s="3">
+        <f t="shared" si="8"/>
+        <v>7.345373624214905</v>
+      </c>
+      <c r="I126" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="J126" s="2">
         <f t="shared" si="10"/>
-        <v>2.0403815622819179</v>
-      </c>
-      <c r="H126" s="3">
+        <v>304.65408089544644</v>
+      </c>
+      <c r="K126" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>7.345373624214905</v>
-      </c>
-      <c r="I126" s="3" t="str">
+        <v>NW</v>
+      </c>
+      <c r="L126" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Brisa Leve</v>
-      </c>
-      <c r="J126" s="2">
-        <f t="shared" si="13"/>
-        <v>304.65408089544644</v>
-      </c>
-      <c r="K126" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NW</v>
-      </c>
-      <c r="L126" s="2">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="M126" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="N126" s="2">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="O126" s="2">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
+        <v>CALMO</v>
+      </c>
+      <c r="O126" s="2"/>
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
-      <c r="U126" s="2"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>32</v>
       </c>
@@ -26238,26 +25887,26 @@
         <v>0</v>
       </c>
       <c r="E127" s="3">
-        <f t="shared" ref="E127:J127" si="19">MIN(E4:E126)</f>
+        <f t="shared" ref="E127:J127" si="13">MIN(E4:E126)</f>
         <v>-4.8403499999999999</v>
       </c>
       <c r="F127" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>-2.6864499999999998</v>
       </c>
       <c r="G127" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0.23568609881724037</v>
       </c>
       <c r="H127" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0.8484699557420653</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J127" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>1.654842867685943</v>
       </c>
       <c r="K127" s="1" t="s">
@@ -26266,23 +25915,14 @@
       <c r="L127" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M127" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N127" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O127" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="O127" s="2"/>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
       <c r="R127" s="2"/>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
-      <c r="U127" s="2"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>33</v>
       </c>
@@ -26299,26 +25939,26 @@
         <v>1.1841362426634143</v>
       </c>
       <c r="E128" s="3">
-        <f t="shared" ref="E128:J128" si="20">AVERAGE(E4:E126)</f>
+        <f t="shared" ref="E128:J128" si="14">AVERAGE(E4:E126)</f>
         <v>-2.1571129512195126</v>
       </c>
       <c r="F128" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>-0.60344321463414607</v>
       </c>
       <c r="G128" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>2.8619669853498917</v>
       </c>
       <c r="H128" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>10.30308114725961</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J128" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>99.221392948725665</v>
       </c>
       <c r="K128" s="1" t="s">
@@ -26327,27 +25967,18 @@
       <c r="L128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M128" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N128" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O128" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="O128" s="2"/>
       <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
-      <c r="U128" s="2"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B129" s="15">
+      <c r="B129" s="14">
         <f>MAX(B4:B126)</f>
         <v>95.826400000000007</v>
       </c>
@@ -26360,26 +25991,26 @@
         <v>26.675799999999999</v>
       </c>
       <c r="E129" s="3">
-        <f t="shared" ref="E129:J129" si="21">MAX(E4:E126)</f>
+        <f t="shared" ref="E129:J129" si="15">MAX(E4:E126)</f>
         <v>3.7768700000000002</v>
       </c>
       <c r="F129" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>2.4510200000000002</v>
       </c>
       <c r="G129" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>4.9383324730333822</v>
       </c>
       <c r="H129" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>17.777996902920176</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J129" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>358.24878497691839</v>
       </c>
       <c r="K129" s="1" t="s">
@@ -26388,25 +26019,16 @@
       <c r="L129" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M129" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N129" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O129" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="O129" s="2"/>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
-      <c r="U129" s="2"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B130" s="2">
         <f>COUNTA(B4:B126)</f>
@@ -26421,19 +26043,19 @@
         <v>123</v>
       </c>
       <c r="E130" s="2">
-        <f t="shared" ref="E130:K130" si="22">COUNTA(E4:E126)</f>
+        <f t="shared" ref="E130:K130" si="16">COUNTA(E4:E126)</f>
         <v>123</v>
       </c>
       <c r="F130" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>123</v>
       </c>
       <c r="G130" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>123</v>
       </c>
       <c r="H130" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>123</v>
       </c>
       <c r="I130" s="2">
@@ -26441,30 +26063,23 @@
         <v>123</v>
       </c>
       <c r="J130" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>123</v>
       </c>
       <c r="K130" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>123</v>
       </c>
-      <c r="L130" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N130" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O130" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="L130" s="2">
+        <v>123</v>
+      </c>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E1:L1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -26476,7 +26091,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26487,7 +26102,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>40</v>
@@ -26576,7 +26191,7 @@
   <dimension ref="A3:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26612,7 +26227,7 @@
         <v>0.12195121951219512</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -26627,7 +26242,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -26642,7 +26257,7 @@
         <v>0.54471544715447151</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -26660,16 +26275,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC92A6F-01DD-4D10-9A51-1A59650D265A}">
-  <dimension ref="A3:C17"/>
+  <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26857,8 +26473,248 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539A69B2-B325-4D5F-846E-022264FD4675}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>44018</v>
+      </c>
+      <c r="B4" s="2">
+        <v>39.680599999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>44025</v>
+      </c>
+      <c r="B5" s="2">
+        <v>33.587600000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>44032</v>
+      </c>
+      <c r="B6" s="2">
+        <v>24.944299999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>44039</v>
+      </c>
+      <c r="B7" s="2">
+        <v>26.636399999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>44046</v>
+      </c>
+      <c r="B8" s="2">
+        <v>31.4834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>44053</v>
+      </c>
+      <c r="B9" s="2">
+        <v>26.638000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>44060</v>
+      </c>
+      <c r="B10" s="2">
+        <v>21.367000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>44067</v>
+      </c>
+      <c r="B11" s="2">
+        <v>23.760999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>44074</v>
+      </c>
+      <c r="B12" s="2">
+        <v>12.444800000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>44081</v>
+      </c>
+      <c r="B13" s="2">
+        <v>14.879099999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>44088</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10.7576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>44095</v>
+      </c>
+      <c r="B15" s="2">
+        <v>8.5340399999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>44102</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6.8384799999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>44109</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.15170400000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>44116</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7.8378500000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>44123</v>
+      </c>
+      <c r="B19" s="2">
+        <v>47.810400000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>44130</v>
+      </c>
+      <c r="B20" s="2">
+        <v>80.042400000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="17">
+        <f>MIN(B4:B20)</f>
+        <v>0.15170400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="17">
+        <f>AVERAGE(B4:B20)</f>
+        <v>24.55262788235294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="17">
+        <f>MAX(B4:B20)</f>
+        <v>80.042400000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/script/serra_cipo_serie_temporal_julaout_2020.xlsx
+++ b/script/serra_cipo_serie_temporal_julaout_2020.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Downloads\SerraCipo\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3E263D-2642-4410-98E8-E7C2EFDD449F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1656430-AB18-4F94-9A3A-A643C6823BA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="828" activeTab="4" xr2:uid="{B7846D64-A367-46AC-B413-2EB09A9FB57C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="828" activeTab="5" xr2:uid="{B7846D64-A367-46AC-B413-2EB09A9FB57C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados diarios" sheetId="1" r:id="rId1"/>
-    <sheet name="Número de dias sem chuva" sheetId="5" r:id="rId2"/>
-    <sheet name="Categoria Velocidade do Vento" sheetId="16" r:id="rId3"/>
-    <sheet name="Direção do vento" sheetId="2" r:id="rId4"/>
-    <sheet name="Umidade do Solo" sheetId="17" r:id="rId5"/>
+    <sheet name="Valores Mensais" sheetId="18" r:id="rId2"/>
+    <sheet name="Número de dias sem chuva" sheetId="5" r:id="rId3"/>
+    <sheet name="Categoria Velocidade do Vento" sheetId="16" r:id="rId4"/>
+    <sheet name="Direção do vento" sheetId="2" r:id="rId5"/>
+    <sheet name="Umidade do Solo" sheetId="17" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dados diarios'!$I$2:$I$131</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Dados diarios'!$C$4:$C$126</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Dados diarios'!$D$4:$D$126</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Dados diarios'!$G$4:$G$126</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Dados diarios'!$G$4:$G$126</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Dados diarios'!$D$4:$D$126</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Dados diarios'!$B$4:$B$126</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Dados diarios'!$B$4:$B$126</definedName>
     <definedName name="serie_temporal_PREC.IMERG.20200701.20201031" localSheetId="0">'Dados diarios'!$D$4:$D$126</definedName>
     <definedName name="serie_temporal_RH2M.GFS.ANL.20200701.20201031.nc" localSheetId="0">'Dados diarios'!$B$4:$B$126</definedName>
     <definedName name="serie_temporal_TEMP2M.GFS.ANL.20200701.20201031" localSheetId="0">'Dados diarios'!$C$4:$C$126</definedName>
@@ -34,8 +34,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>Umidade Relativa</t>
   </si>
@@ -255,14 +255,24 @@
   <si>
     <t>Umidade do Solo</t>
   </si>
+  <si>
+    <t>(mm/mês)</t>
+  </si>
+  <si>
+    <t>Probabilidade</t>
+  </si>
+  <si>
+    <t>Predominância</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="mmm/yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -327,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,13 +377,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5280,6 +5293,913 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
+              <a:t>Serra do Cipó - 2020</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Valores Mensais'!$D$2:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Precipitação</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(mm/mês)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Valores Mensais'!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>mmm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Valores Mensais'!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2DAC-4A04-A37E-D2131129E618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1137405808"/>
+        <c:axId val="1137408720"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Valores Mensais'!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Umidade Relativa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Valores Mensais'!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>mmm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Valores Mensais'!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DAC-4A04-A37E-D2131129E618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1137405808"/>
+        <c:axId val="1137408720"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Valores Mensais'!$C$2:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Temperatura</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(ºC)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Valores Mensais'!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>mmm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Valores Mensais'!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DAC-4A04-A37E-D2131129E618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1137415792"/>
+        <c:axId val="1137394576"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1137405808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1137408720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1137408720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>UR (%), Prec (mm/mês)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1137405808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1137394576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Temperatura (ºC)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1137415792"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="1137415792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1137394576"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
               <a:t>Númer</a:t>
             </a:r>
             <a:r>
@@ -5680,7 +6600,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -6163,7 +7083,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -6590,7 +7510,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -7057,7 +7977,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -7980,7 +8900,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8167,7 +9087,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8515,6 +9435,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9318,7 +10278,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9375,7 +10335,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -9426,6 +10386,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9436,12 +10403,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -9479,7 +10453,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -9522,22 +10496,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9642,8 +10617,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9775,19 +10750,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9821,7 +10797,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10025,6 +11001,509 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -10325,7 +11804,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14370,7 +15849,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -14427,7 +15906,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -14478,13 +15957,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -14495,19 +15967,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -14545,7 +16010,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -14588,23 +16053,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -14709,8 +16173,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -14842,20 +16306,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -15045,7 +16508,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="16448586" y="398326"/>
+              <a:off x="11968026" y="398326"/>
               <a:ext cx="4573089" cy="2838722"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -15123,7 +16586,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="21135130" y="415290"/>
+              <a:off x="16654570" y="415290"/>
               <a:ext cx="4565015" cy="2787650"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -15201,7 +16664,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="25835610" y="396028"/>
+              <a:off x="21355050" y="396028"/>
               <a:ext cx="4550622" cy="2791460"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -15279,7 +16742,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="30585834" y="386927"/>
+              <a:off x="26105274" y="386927"/>
               <a:ext cx="4522893" cy="2797175"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -15314,6 +16777,49 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618FE3BC-D1C4-43F7-A9B6-B2A7D6871822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15354,7 +16860,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15395,7 +16901,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15472,7 +16978,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19604,8 +21110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DF961B-DA8B-42AF-9C91-E2954F467ED3}">
   <dimension ref="A1:T130"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="E7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96:K126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19624,25 +21130,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -23010,7 +24516,7 @@
         <v>NNE</v>
       </c>
       <c r="L69" s="1" t="str">
-        <f t="shared" ref="L69:L127" si="12">IF(AND(B69&lt;=30,C69&gt;=30,H69&gt;=30),"FOGO","CALMO")</f>
+        <f t="shared" ref="L69:L126" si="12">IF(AND(B69&lt;=30,C69&gt;=30,H69&gt;=30),"FOGO","CALMO")</f>
         <v>CALMO</v>
       </c>
       <c r="O69" s="2"/>
@@ -26087,6 +27593,220 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65CF29-BE29-4775-AFAA-2F6B81D27E30}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>44013</v>
+      </c>
+      <c r="B4" s="1">
+        <v>55</v>
+      </c>
+      <c r="C4" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <f>E4*3.6</f>
+        <v>10.8</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f>IF(E4&lt;=0.2,"Calmo",IF(AND(E4&gt;0.2,E4&lt;=1.6),"Aragem",IF(AND(E4&gt;1.6,E4&lt;=3.3),"Brisa Leve",IF(AND(E4&gt;3.3,E4&lt;=5.4),"Brisa Fraca",IF(AND(E4&gt;5.4,E4&lt;=7.9),"Brisa Moderada",)))))</f>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>44044</v>
+      </c>
+      <c r="B5" s="1">
+        <v>52</v>
+      </c>
+      <c r="C5" s="3">
+        <v>22.3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:F7" si="0">E5*3.6</f>
+        <v>11.16</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" ref="G5:G7" si="1">IF(E5&lt;=0.2,"Calmo",IF(AND(E5&gt;0.2,E5&lt;=1.6),"Aragem",IF(AND(E5&gt;1.6,E5&lt;=3.3),"Brisa Leve",IF(AND(E5&gt;3.3,E5&lt;=5.4),"Brisa Fraca",IF(AND(E5&gt;5.4,E5&lt;=7.9),"Brisa Moderada",)))))</f>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>44075</v>
+      </c>
+      <c r="B6" s="1">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3">
+        <v>27.4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>11.16</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>44105</v>
+      </c>
+      <c r="B7" s="1">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3">
+        <v>26.3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>121.8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Brisa Leve</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB47C731-4BCA-4027-9FB4-32172C5CA826}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -26186,7 +27906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A632473-3792-4311-8E43-2519F04EA71D}">
   <dimension ref="A3:D7"/>
   <sheetViews>
@@ -26280,11 +28000,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC92A6F-01DD-4D10-9A51-1A59650D265A}">
   <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -26518,12 +28238,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539A69B2-B325-4D5F-846E-022264FD4675}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26690,7 +28410,7 @@
       <c r="A21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <f>MIN(B4:B20)</f>
         <v>0.15170400000000001</v>
       </c>
@@ -26699,7 +28419,7 @@
       <c r="A22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <f>AVERAGE(B4:B20)</f>
         <v>24.55262788235294</v>
       </c>
@@ -26708,7 +28428,7 @@
       <c r="A23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <f>MAX(B4:B20)</f>
         <v>80.042400000000001</v>
       </c>

--- a/script/serra_cipo_serie_temporal_julaout_2020.xlsx
+++ b/script/serra_cipo_serie_temporal_julaout_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Downloads\SerraCipo\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1656430-AB18-4F94-9A3A-A643C6823BA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D232DA-AD0B-4147-A611-12C75C53AD90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="828" activeTab="5" xr2:uid="{B7846D64-A367-46AC-B413-2EB09A9FB57C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="828" activeTab="1" xr2:uid="{B7846D64-A367-46AC-B413-2EB09A9FB57C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados diarios" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dados diarios'!$I$2:$I$131</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Dados diarios'!$C$4:$C$126</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Dados diarios'!$G$4:$G$126</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Dados diarios'!$B$4:$B$126</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Dados diarios'!$D$4:$D$126</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Dados diarios'!$B$4:$B$126</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Dados diarios'!$G$4:$G$126</definedName>
     <definedName name="serie_temporal_PREC.IMERG.20200701.20201031" localSheetId="0">'Dados diarios'!$D$4:$D$126</definedName>
     <definedName name="serie_temporal_RH2M.GFS.ANL.20200701.20201031.nc" localSheetId="0">'Dados diarios'!$B$4:$B$126</definedName>
     <definedName name="serie_temporal_TEMP2M.GFS.ANL.20200701.20201031" localSheetId="0">'Dados diarios'!$C$4:$C$126</definedName>
@@ -383,10 +383,10 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2557,8 +2557,8 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -5354,7 +5354,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -6076,6 +6076,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1137394576"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
@@ -7007,7 +7008,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -8533,7 +8534,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9087,7 +9088,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -20556,7 +20557,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE6346CF-4F19-4C84-9BEC-461E1ACFB9F5}" name="Tabela dinâmica39" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE6346CF-4F19-4C84-9BEC-461E1ACFB9F5}" name="Tabela dinâmica39" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="1" showAll="0"/>
@@ -20616,7 +20617,7 @@
   <dataFields count="1">
     <dataField name="Contagem de -" fld="9" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="12">
     <chartFormat chart="3" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -20662,6 +20663,96 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="10" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -20676,7 +20767,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED8A6DCF-9EA5-4CED-A93F-1DE61450A9EE}" name="Tabela dinâmica8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED8A6DCF-9EA5-4CED-A93F-1DE61450A9EE}" name="Tabela dinâmica8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="1" showAll="0"/>
@@ -21110,8 +21201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DF961B-DA8B-42AF-9C91-E2954F467ED3}">
   <dimension ref="A1:T130"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K96" sqref="K96:K126"/>
+    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21130,23 +21221,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
     </row>
@@ -27596,8 +27687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65CF29-BE29-4775-AFAA-2F6B81D27E30}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27676,7 +27767,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>44013</v>
       </c>
       <c r="B4" s="1">
@@ -27707,7 +27798,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>44044</v>
       </c>
       <c r="B5" s="1">
@@ -27738,7 +27829,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>44075</v>
       </c>
       <c r="B6" s="1">
@@ -27769,7 +27860,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>44105</v>
       </c>
       <c r="B7" s="1">
@@ -27911,7 +28002,7 @@
   <dimension ref="A3:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28004,8 +28095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC92A6F-01DD-4D10-9A51-1A59650D265A}">
   <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28242,7 +28333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539A69B2-B325-4D5F-846E-022264FD4675}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/script/serra_cipo_serie_temporal_julaout_2020.xlsx
+++ b/script/serra_cipo_serie_temporal_julaout_2020.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Downloads\SerraCipo\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D232DA-AD0B-4147-A611-12C75C53AD90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BC1D62-BA92-42D1-93D4-BC444708516F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="828" activeTab="1" xr2:uid="{B7846D64-A367-46AC-B413-2EB09A9FB57C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="921" activeTab="2" xr2:uid="{B7846D64-A367-46AC-B413-2EB09A9FB57C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados diarios" sheetId="1" r:id="rId1"/>
     <sheet name="Valores Mensais" sheetId="18" r:id="rId2"/>
-    <sheet name="Número de dias sem chuva" sheetId="5" r:id="rId3"/>
-    <sheet name="Categoria Velocidade do Vento" sheetId="16" r:id="rId4"/>
-    <sheet name="Direção do vento" sheetId="2" r:id="rId5"/>
-    <sheet name="Umidade do Solo" sheetId="17" r:id="rId6"/>
+    <sheet name="Velocidade do vento e direção" sheetId="19" r:id="rId3"/>
+    <sheet name="Número de dias sem chuva" sheetId="5" r:id="rId4"/>
+    <sheet name="Categoria Velocidade do Vento" sheetId="16" r:id="rId5"/>
+    <sheet name="Direção do vento" sheetId="2" r:id="rId6"/>
+    <sheet name="Umidade do Solo" sheetId="17" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dados diarios'!$I$2:$I$131</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Dados diarios'!$C$4:$C$126</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Dados diarios'!$B$4:$B$126</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Dados diarios'!$D$4:$D$126</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Dados diarios'!$G$4:$G$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dados diarios'!$K$1:$K$130</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Dados diarios'!$B$4:$B$126</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Dados diarios'!$C$4:$C$126</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Dados diarios'!$G$4:$G$126</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Dados diarios'!$D$4:$D$126</definedName>
     <definedName name="serie_temporal_PREC.IMERG.20200701.20201031" localSheetId="0">'Dados diarios'!$D$4:$D$126</definedName>
     <definedName name="serie_temporal_RH2M.GFS.ANL.20200701.20201031.nc" localSheetId="0">'Dados diarios'!$B$4:$B$126</definedName>
     <definedName name="serie_temporal_TEMP2M.GFS.ANL.20200701.20201031" localSheetId="0">'Dados diarios'!$C$4:$C$126</definedName>
@@ -34,8 +35,9 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="10" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -86,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="61">
   <si>
     <t>Umidade Relativa</t>
   </si>
@@ -264,6 +266,12 @@
   <si>
     <t>Predominância</t>
   </si>
+  <si>
+    <t>CALMO</t>
+  </si>
+  <si>
+    <t>Média de (m/s)3</t>
+  </si>
 </sst>
 </file>
 
@@ -337,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,12 +397,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2373,6 +2388,923 @@
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Direção predominante do vento - Julho a Outubro/2020</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="filled"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Direção do vento'!$A$20:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NNE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ENE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ESE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SSE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SSW</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SW</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>WNW</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>NW</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>NNW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Direção do vento'!$C$20:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.18699186991869918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42276422764227645</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11382113821138211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6260162601626018E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.130081300813009E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.130081300813009E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.878048780487805E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4390243902439025E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6260162601626018E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6260162601626018E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.130081300813009E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.878048780487805E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.1300813008130079E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A61-4ABF-B2D3-A90A208258D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="852195567"/>
+        <c:axId val="852195983"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="852195567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="852195983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="852195983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="852195567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Serra</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> do Cipó - 2020</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Umidade do Solo'!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Umidade do Solo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Umidade do Solo'!$A$4:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Umidade do Solo'!$B$4:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>39.680599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.587600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.944299999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.636399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.4834</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.638000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.367000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.760999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.444800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.879099999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.7576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.5340399999999992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.8384799999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15170400000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8378500000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.810400000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.042400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B1A-4AB1-847D-B69BA3C5A724}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="2"/>
+        <c:axId val="82774624"/>
+        <c:axId val="82773792"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="82774624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82773792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="82773792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Percentil (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82774624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6179,6 +7111,945 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[serra_cipo_serie_temporal_julaout_2020.xlsx]Velocidade do vento e direção!Tabela dinâmica2</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Categorias de Velocidade do Vento - Julho a Outubro de 2020</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Velocidade do vento e direção'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Velocidade do vento e direção'!$A$4:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ENE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ESE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NNE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NNW</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NW</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SSE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SSW</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SW</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>WNW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Velocidade do vento e direção'!$B$4:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.1171424785984105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6265685835166437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0081797158879959</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8887861632915781</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.904548798795775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1566700428145777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7089091828304288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8820628327741535</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7410148504153671</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8842016713907932</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1054243070189027</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7193920712258959</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8315165102820785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6889-4C49-8D0E-5511A81A58C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="851745599"/>
+        <c:axId val="851746431"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="851745599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="851746431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="851746431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1200"/>
+                  <a:t>(m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="851745599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Categorias de Velocidade do Vento - Julho a Outubro de 2020</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="filled"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Velocidade do vento e direção'!$B$21:$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NNE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ENE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ESE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SSE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SSW</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SW</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>WNW</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>NW</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>NNW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Velocidade do vento e direção'!$C$21:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.8887861632915781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1566700428145777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.904548798795775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6265685835166437</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1171424785984105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0081797158879959</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8842016713907932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7410148504153671</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1054243070189027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7193920712258959</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8315165102820785</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8820628327741535</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7089091828304288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1376-4989-84D6-2D6A0E0E992B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="949146431"/>
+        <c:axId val="949148927"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="949146431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="949148927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="949148927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="949146431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6601,7 +8472,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -7084,7 +8955,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -7511,1030 +9382,12 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[serra_cipo_serie_temporal_julaout_2020.xlsx]Direção do vento!Tabela dinâmica8</c:name>
-    <c:fmtId val="18"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400"/>
-              <a:t>Predominância do vento - Julho a Outubro</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" baseline="0"/>
-              <a:t> de 2020</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:radarChart>
-        <c:radarStyle val="filled"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Direção do vento'!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Direção do vento'!$A$4:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>E</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ENE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ESE</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>N</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>NE</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>NNE</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NNW</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>NW</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>SSE</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SSW</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>SW</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>WNW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Direção do vento'!$B$4:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1657-4493-8D7D-62271EF69457}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1671691760"/>
-        <c:axId val="1671694672"/>
-      </c:radarChart>
-      <c:catAx>
-        <c:axId val="1671691760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1671694672"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1671694672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1671691760"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Serra</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> do Cipó - 2020</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Umidade do Solo'!$B$2:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Umidade do Solo</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>(%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Umidade do Solo'!$A$4:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>44018</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44032</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44039</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44046</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44053</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44060</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44067</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44074</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44081</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44088</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44095</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44102</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44109</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44116</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44123</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44130</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Umidade do Solo'!$B$4:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>39.680599999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33.587600000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.944299999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.636399999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.4834</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26.638000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.367000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23.760999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.444800000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.879099999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.7576</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.5340399999999992</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.8384799999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.15170400000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.8378500000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>47.810400000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80.042400000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5B1A-4AB1-847D-B69BA3C5A724}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="0"/>
-        <c:overlap val="2"/>
-        <c:axId val="82774624"/>
-        <c:axId val="82773792"/>
-      </c:barChart>
-      <c:dateAx>
-        <c:axId val="82774624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="82773792"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="82773792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>Percentil (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="82774624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8717,7 +9570,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8901,7 +9754,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9088,7 +9941,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9476,6 +10329,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10279,7 +11212,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10336,7 +11269,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -10387,13 +11320,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -10404,19 +11330,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -10454,7 +11373,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -11301,7 +12220,7 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11358,7 +12277,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -11409,6 +12328,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -11419,12 +12345,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -11462,7 +12395,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -11806,6 +12739,1014 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16824,6 +18765,83 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0483DF2F-EB1F-4F48-BF7D-AA0E96CB5E57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5142A0-2D6E-4F73-A6FF-E1CFB106ADD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>31432</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -16861,7 +18879,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16902,7 +18920,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16943,22 +18961,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>39052</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>82867</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>111442</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32C4100-5987-4225-8DCC-7B2C7C5D9F4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100FEDBE-2403-424F-A8B6-C972AB2BBCFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16979,7 +18997,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17161,6 +19179,71 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Guilherme" refreshedDate="44237.479759027781" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="123" xr:uid="{C52F17A4-E634-4D68-904D-4C00DE3ABDD5}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:L126" sheet="Dados diarios"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="-" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-07-01T00:00:00" maxDate="2020-11-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="(%)" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="17.949100000000001" maxValue="95.826400000000007"/>
+    </cacheField>
+    <cacheField name="(ºC)" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.118499999999999" maxValue="33.968899999999998"/>
+    </cacheField>
+    <cacheField name="(mm/dia)" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="26.675799999999999"/>
+    </cacheField>
+    <cacheField name="(m/s)" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4.8403499999999999" maxValue="3.7768700000000002"/>
+    </cacheField>
+    <cacheField name="(m/s)2" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.6864499999999998" maxValue="2.4510200000000002"/>
+    </cacheField>
+    <cacheField name="(m/s)3" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.23568609881724037" maxValue="4.9383324730333822"/>
+    </cacheField>
+    <cacheField name="(km/h)" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.8484699557420653" maxValue="17.777996902920176"/>
+    </cacheField>
+    <cacheField name="(Categoria)" numFmtId="164">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="(graus)" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.654842867685943" maxValue="358.24878497691839"/>
+    </cacheField>
+    <cacheField name="(Categoria)2" numFmtId="0">
+      <sharedItems count="13">
+        <s v="SSE"/>
+        <s v="S"/>
+        <s v="NNE"/>
+        <s v="NE"/>
+        <s v="NNW"/>
+        <s v="ESE"/>
+        <s v="SW"/>
+        <s v="ENE"/>
+        <s v="N"/>
+        <s v="NW"/>
+        <s v="WNW"/>
+        <s v="E"/>
+        <s v="SSW"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="-2" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="123">
   <r>
@@ -20556,7 +22639,1858 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="123">
+  <r>
+    <d v="2020-07-01T00:00:00"/>
+    <n v="58.273699999999998"/>
+    <n v="23.654"/>
+    <n v="4.2634599999999997E-4"/>
+    <n v="3.6794799999999999"/>
+    <n v="-0.96689800000000004"/>
+    <n v="3.8044007166443441"/>
+    <n v="13.695842579919638"/>
+    <s v="Brisa Fraca"/>
+    <n v="165.35208275850465"/>
+    <x v="0"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-02T00:00:00"/>
+    <n v="62.632599999999996"/>
+    <n v="22.851099999999999"/>
+    <n v="0.12559600000000001"/>
+    <n v="2.7960799999999999"/>
+    <n v="-1.4333199999999999"/>
+    <n v="3.1420486292863132"/>
+    <n v="11.311375065430727"/>
+    <s v="Brisa Leve"/>
+    <n v="152.99861409569459"/>
+    <x v="0"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-03T00:00:00"/>
+    <n v="47.029000000000003"/>
+    <n v="23.9374"/>
+    <n v="0.441552"/>
+    <n v="2.9545599999999999"/>
+    <n v="-0.45636399999999999"/>
+    <n v="2.9895974468305928"/>
+    <n v="10.762550808590134"/>
+    <s v="Brisa Leve"/>
+    <n v="171.26443258329226"/>
+    <x v="1"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-04T00:00:00"/>
+    <n v="69.967500000000001"/>
+    <n v="21.5153"/>
+    <n v="0"/>
+    <n v="-2.8375699999999999"/>
+    <n v="-1.5314300000000001"/>
+    <n v="3.2244505500627545"/>
+    <n v="11.608021980225917"/>
+    <s v="Brisa Leve"/>
+    <n v="29.13279953496297"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-05T00:00:00"/>
+    <n v="63.437899999999999"/>
+    <n v="20.800799999999999"/>
+    <n v="0"/>
+    <n v="-1.59083"/>
+    <n v="-1.27769"/>
+    <n v="2.0403999179082519"/>
+    <n v="7.3454397044697073"/>
+    <s v="Brisa Leve"/>
+    <n v="39.49380723794377"/>
+    <x v="3"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-06T00:00:00"/>
+    <n v="47.511699999999998"/>
+    <n v="23.527999999999999"/>
+    <n v="0"/>
+    <n v="-3.0970599999999999"/>
+    <n v="0.95793799999999996"/>
+    <n v="3.2418244640085003"/>
+    <n v="11.670568070430601"/>
+    <s v="Brisa Leve"/>
+    <n v="341.97846614052753"/>
+    <x v="4"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-07T00:00:00"/>
+    <n v="51.3994"/>
+    <n v="21.686699999999998"/>
+    <n v="0"/>
+    <n v="-3.9282300000000001"/>
+    <n v="-1.7550399999999999"/>
+    <n v="4.302459335600977"/>
+    <n v="15.488853608163518"/>
+    <s v="Brisa Fraca"/>
+    <n v="24.873067377258877"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-08T00:00:00"/>
+    <n v="48.962699999999998"/>
+    <n v="23.1904"/>
+    <n v="0"/>
+    <n v="0.50618200000000002"/>
+    <n v="-0.87189799999999995"/>
+    <n v="1.0081797158879959"/>
+    <n v="3.6294469771967854"/>
+    <s v="Aragem"/>
+    <n v="120.44417827132133"/>
+    <x v="5"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-09T00:00:00"/>
+    <n v="43.853900000000003"/>
+    <n v="24.412700000000001"/>
+    <n v="0"/>
+    <n v="0.86790699999999998"/>
+    <n v="0.97967499999999996"/>
+    <n v="1.3088260641788885"/>
+    <n v="4.7117738310439989"/>
+    <s v="Aragem"/>
+    <n v="228.21348065776382"/>
+    <x v="6"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-10T00:00:00"/>
+    <n v="63.4375"/>
+    <n v="22.0854"/>
+    <n v="0"/>
+    <n v="-3.9969600000000001"/>
+    <n v="-1.2358800000000001"/>
+    <n v="4.1836692766039718"/>
+    <n v="15.061209395774299"/>
+    <s v="Brisa Fraca"/>
+    <n v="18.016299810872709"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-11T00:00:00"/>
+    <n v="52.912700000000001"/>
+    <n v="22.263999999999999"/>
+    <n v="0"/>
+    <n v="-2.2117200000000001"/>
+    <n v="-2.22051"/>
+    <n v="3.1340660520320882"/>
+    <n v="11.282637787315517"/>
+    <s v="Brisa Leve"/>
+    <n v="45.804910594300793"/>
+    <x v="3"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-12T00:00:00"/>
+    <n v="45.617100000000001"/>
+    <n v="22.927399999999999"/>
+    <n v="0"/>
+    <n v="-1.43601"/>
+    <n v="-2.09842"/>
+    <n v="2.5427330210818435"/>
+    <n v="9.1538388758946372"/>
+    <s v="Brisa Leve"/>
+    <n v="56.252488584831497"/>
+    <x v="7"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-13T00:00:00"/>
+    <n v="47.547199999999997"/>
+    <n v="24.244"/>
+    <n v="0"/>
+    <n v="-2.13144"/>
+    <n v="-0.395982"/>
+    <n v="2.1679110262932841"/>
+    <n v="7.8044796946558233"/>
+    <s v="Brisa Leve"/>
+    <n v="11.393052041705658"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-14T00:00:00"/>
+    <n v="41.102699999999999"/>
+    <n v="25.414899999999999"/>
+    <n v="0"/>
+    <n v="-0.85047799999999996"/>
+    <n v="3.3664899999999998E-2"/>
+    <n v="0.85114402657600197"/>
+    <n v="3.0641184956736072"/>
+    <s v="Aragem"/>
+    <n v="356.82234730413546"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-15T00:00:00"/>
+    <n v="60.537999999999997"/>
+    <n v="22.767299999999999"/>
+    <n v="0"/>
+    <n v="-2.89425"/>
+    <n v="-0.92845299999999997"/>
+    <n v="3.039524310761307"/>
+    <n v="10.942287518740706"/>
+    <s v="Brisa Leve"/>
+    <n v="18.617173287676195"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-16T00:00:00"/>
+    <n v="70.591899999999995"/>
+    <n v="20.398099999999999"/>
+    <n v="2.7868799999999999E-2"/>
+    <n v="-2.68574"/>
+    <n v="-0.23790800000000001"/>
+    <n v="2.6962565834994265"/>
+    <n v="9.7065237005979359"/>
+    <s v="Brisa Leve"/>
+    <n v="5.9586994061433813"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-17T00:00:00"/>
+    <n v="56.604100000000003"/>
+    <n v="22.346"/>
+    <n v="0"/>
+    <n v="-2.0561600000000002"/>
+    <n v="0.28662399999999999"/>
+    <n v="2.0760412478985097"/>
+    <n v="7.4737484924346349"/>
+    <s v="Brisa Leve"/>
+    <n v="351.18242229132011"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-18T00:00:00"/>
+    <n v="72.868700000000004"/>
+    <n v="18.3721"/>
+    <n v="0"/>
+    <n v="-3.8487300000000002"/>
+    <n v="0.187667"/>
+    <n v="3.8533026763789269"/>
+    <n v="13.871889634964138"/>
+    <s v="Brisa Fraca"/>
+    <n v="356.30024643333178"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-19T00:00:00"/>
+    <n v="59.365900000000003"/>
+    <n v="20.430700000000002"/>
+    <n v="0"/>
+    <n v="-4.3575299999999997"/>
+    <n v="-1.18475"/>
+    <n v="4.5157170264975637"/>
+    <n v="16.256581295391229"/>
+    <s v="Brisa Fraca"/>
+    <n v="16.054761855966262"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-20T00:00:00"/>
+    <n v="58.7438"/>
+    <n v="21.337700000000002"/>
+    <n v="0"/>
+    <n v="-2.7880799999999999"/>
+    <n v="-1.9412400000000001"/>
+    <n v="3.3973228907479487"/>
+    <n v="12.230362406692615"/>
+    <s v="Brisa Fraca"/>
+    <n v="35.592000854177627"/>
+    <x v="3"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-21T00:00:00"/>
+    <n v="54.992600000000003"/>
+    <n v="22.9038"/>
+    <n v="0"/>
+    <n v="-2.4232999999999998"/>
+    <n v="-1.39489"/>
+    <n v="2.7960867300747303"/>
+    <n v="10.065912228269029"/>
+    <s v="Brisa Leve"/>
+    <n v="30.694534918578256"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-22T00:00:00"/>
+    <n v="48.337800000000001"/>
+    <n v="22.9023"/>
+    <n v="0"/>
+    <n v="-2.5266199999999999"/>
+    <n v="-0.70202900000000001"/>
+    <n v="2.6223373812766728"/>
+    <n v="9.4404145725960227"/>
+    <s v="Brisa Leve"/>
+    <n v="16.371018327868995"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-23T00:00:00"/>
+    <n v="47.011400000000002"/>
+    <n v="22.818100000000001"/>
+    <n v="0"/>
+    <n v="-3.0419200000000002"/>
+    <n v="-0.62229299999999999"/>
+    <n v="3.1049196228322886"/>
+    <n v="11.177710642196239"/>
+    <s v="Brisa Leve"/>
+    <n v="12.424847997765596"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-24T00:00:00"/>
+    <n v="62.744100000000003"/>
+    <n v="20.898800000000001"/>
+    <n v="0"/>
+    <n v="-3.2778999999999998"/>
+    <n v="-1.8517999999999999"/>
+    <n v="3.7648096432621925"/>
+    <n v="13.553314715743893"/>
+    <s v="Brisa Fraca"/>
+    <n v="30.235106138470798"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-25T00:00:00"/>
+    <n v="46.7592"/>
+    <n v="21.956199999999999"/>
+    <n v="0"/>
+    <n v="-2.0779399999999999"/>
+    <n v="-1.08064"/>
+    <n v="2.342139503360122"/>
+    <n v="8.4317022120964396"/>
+    <s v="Brisa Leve"/>
+    <n v="28.258513933858893"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-26T00:00:00"/>
+    <n v="57.049300000000002"/>
+    <n v="22.857299999999999"/>
+    <n v="0"/>
+    <n v="-4.1428200000000004"/>
+    <n v="-1.85676"/>
+    <n v="4.5398805325691116"/>
+    <n v="16.343569917248804"/>
+    <s v="Brisa Fraca"/>
+    <n v="24.940087683499428"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-27T00:00:00"/>
+    <n v="58.854399999999998"/>
+    <n v="21.873000000000001"/>
+    <n v="0"/>
+    <n v="-3.3176800000000002"/>
+    <n v="-1.42991"/>
+    <n v="3.6127057990514535"/>
+    <n v="13.005740876585232"/>
+    <s v="Brisa Fraca"/>
+    <n v="24.118888751666219"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-28T00:00:00"/>
+    <n v="51.817900000000002"/>
+    <n v="23.337800000000001"/>
+    <n v="0"/>
+    <n v="-1.5096099999999999"/>
+    <n v="-1.3954"/>
+    <n v="2.0557391644126448"/>
+    <n v="7.4006609918855215"/>
+    <s v="Brisa Leve"/>
+    <n v="43.451987547428558"/>
+    <x v="3"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-29T00:00:00"/>
+    <n v="46.0839"/>
+    <n v="24.183700000000002"/>
+    <n v="0"/>
+    <n v="-3.24119"/>
+    <n v="-0.440467"/>
+    <n v="3.2709820840519748"/>
+    <n v="11.775535502587109"/>
+    <s v="Brisa Leve"/>
+    <n v="8.6217230610431272"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-30T00:00:00"/>
+    <n v="48.511099999999999"/>
+    <n v="23.757200000000001"/>
+    <n v="0"/>
+    <n v="-2.9133900000000001"/>
+    <n v="0.21293000000000001"/>
+    <n v="2.9211608098493995"/>
+    <n v="10.516178915457839"/>
+    <s v="Brisa Leve"/>
+    <n v="354.91881149366793"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-07-31T00:00:00"/>
+    <n v="65.707599999999999"/>
+    <n v="20.324300000000001"/>
+    <n v="0"/>
+    <n v="-4.36463"/>
+    <n v="1.4350700000000001"/>
+    <n v="4.5944989870278565"/>
+    <n v="16.540196353300285"/>
+    <s v="Brisa Fraca"/>
+    <n v="340.9701673116864"/>
+    <x v="4"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-01T00:00:00"/>
+    <n v="61.770299999999999"/>
+    <n v="19.916799999999999"/>
+    <n v="0"/>
+    <n v="-2.3706999999999998"/>
+    <n v="-0.99190500000000004"/>
+    <n v="2.5698431895788891"/>
+    <n v="9.2514354824840019"/>
+    <s v="Brisa Leve"/>
+    <n v="23.510645650351108"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-02T00:00:00"/>
+    <n v="53.884599999999999"/>
+    <n v="20.609400000000001"/>
+    <n v="0"/>
+    <n v="-3.2929300000000001"/>
+    <n v="0.696017"/>
+    <n v="3.3656838308416615"/>
+    <n v="12.116461791029982"/>
+    <s v="Brisa Fraca"/>
+    <n v="347.20390131131091"/>
+    <x v="4"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-03T00:00:00"/>
+    <n v="46.576500000000003"/>
+    <n v="20.235700000000001"/>
+    <n v="0"/>
+    <n v="-2.42686"/>
+    <n v="0.28702899999999998"/>
+    <n v="2.4437747658982403"/>
+    <n v="8.7975891572336646"/>
+    <s v="Brisa Leve"/>
+    <n v="352.3669445906902"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-04T00:00:00"/>
+    <n v="45.871099999999998"/>
+    <n v="20.459700000000002"/>
+    <n v="0"/>
+    <n v="-3.9527700000000001"/>
+    <n v="-0.41082400000000002"/>
+    <n v="3.9740617800779092"/>
+    <n v="14.306622408280473"/>
+    <s v="Brisa Fraca"/>
+    <n v="6.8257052293667186"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-05T00:00:00"/>
+    <n v="49.6038"/>
+    <n v="20.8048"/>
+    <n v="0"/>
+    <n v="-4.2945500000000001"/>
+    <n v="-0.17707600000000001"/>
+    <n v="4.2981991126838226"/>
+    <n v="15.473516805661761"/>
+    <s v="Brisa Fraca"/>
+    <n v="3.2715085225820246"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-06T00:00:00"/>
+    <n v="58.736699999999999"/>
+    <n v="18.873200000000001"/>
+    <n v="0"/>
+    <n v="-3.27102"/>
+    <n v="-1.0000800000000001"/>
+    <n v="3.4204870774204075"/>
+    <n v="12.313753478713467"/>
+    <s v="Brisa Fraca"/>
+    <n v="17.835821204681451"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-07T00:00:00"/>
+    <n v="54.1098"/>
+    <n v="20.3734"/>
+    <n v="0"/>
+    <n v="-3.34979"/>
+    <n v="-0.60998600000000003"/>
+    <n v="3.4048753228710154"/>
+    <n v="12.257551162335655"/>
+    <s v="Brisa Fraca"/>
+    <n v="11.189892602742219"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-08T00:00:00"/>
+    <n v="57.158999999999999"/>
+    <n v="20.513100000000001"/>
+    <n v="0"/>
+    <n v="-3.39906"/>
+    <n v="-0.84270400000000001"/>
+    <n v="3.5019650077086717"/>
+    <n v="12.607074027751219"/>
+    <s v="Brisa Fraca"/>
+    <n v="14.775292609296088"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-09T00:00:00"/>
+    <n v="52.787500000000001"/>
+    <n v="21.400700000000001"/>
+    <n v="0"/>
+    <n v="-2.8807"/>
+    <n v="-1.2508999999999999"/>
+    <n v="3.1405705373387174"/>
+    <n v="11.306053934419383"/>
+    <s v="Brisa Leve"/>
+    <n v="24.27435262507521"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-10T00:00:00"/>
+    <n v="44.732199999999999"/>
+    <n v="22.3977"/>
+    <n v="0"/>
+    <n v="-1.9868399999999999"/>
+    <n v="-0.839028"/>
+    <n v="2.156733912744917"/>
+    <n v="7.7642420858817012"/>
+    <s v="Brisa Leve"/>
+    <n v="23.699133650254595"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-11T00:00:00"/>
+    <n v="50.178699999999999"/>
+    <n v="22.5947"/>
+    <n v="0"/>
+    <n v="-1.84582"/>
+    <n v="-1.09016"/>
+    <n v="2.1437118038579719"/>
+    <n v="7.7173624938886993"/>
+    <s v="Brisa Leve"/>
+    <n v="31.332363811101743"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-12T00:00:00"/>
+    <n v="52.848100000000002"/>
+    <n v="23.216100000000001"/>
+    <n v="0"/>
+    <n v="-3.22803"/>
+    <n v="-2.6864499999999998"/>
+    <n v="4.1996656156651326"/>
+    <n v="15.118796216394477"/>
+    <s v="Brisa Fraca"/>
+    <n v="40.486779370849519"/>
+    <x v="3"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-13T00:00:00"/>
+    <n v="54.7044"/>
+    <n v="23.321300000000001"/>
+    <n v="0.40210400000000002"/>
+    <n v="-2.3919800000000002"/>
+    <n v="-1.44851"/>
+    <n v="2.7963815083961632"/>
+    <n v="10.066973430226188"/>
+    <s v="Brisa Leve"/>
+    <n v="31.96041578190048"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-14T00:00:00"/>
+    <n v="43.544699999999999"/>
+    <n v="25.6645"/>
+    <n v="0"/>
+    <n v="-3.0031500000000002"/>
+    <n v="-0.17358199999999999"/>
+    <n v="3.0081623349187789"/>
+    <n v="10.829384405707604"/>
+    <s v="Brisa Leve"/>
+    <n v="4.2135462768941636"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-15T00:00:00"/>
+    <n v="38.737200000000001"/>
+    <n v="26.573699999999999"/>
+    <n v="0"/>
+    <n v="-0.64701399999999998"/>
+    <n v="-0.16620699999999999"/>
+    <n v="0.66802087021664225"/>
+    <n v="2.4048751327799121"/>
+    <s v="Aragem"/>
+    <n v="15.25546714853013"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-16T00:00:00"/>
+    <n v="43.940300000000001"/>
+    <n v="26.5153"/>
+    <n v="2.8961600000000001E-5"/>
+    <n v="-3.5762800000000001"/>
+    <n v="-1.5216099999999999"/>
+    <n v="3.8865248784100173"/>
+    <n v="13.991489562276062"/>
+    <s v="Brisa Fraca"/>
+    <n v="23.852799002256631"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-17T00:00:00"/>
+    <n v="46.982100000000003"/>
+    <n v="26.0258"/>
+    <n v="4.9497999999999998"/>
+    <n v="-1.78179"/>
+    <n v="-1.2146600000000001"/>
+    <n v="2.1564263306915912"/>
+    <n v="7.7631347904897288"/>
+    <s v="Brisa Leve"/>
+    <n v="35.029346395084133"/>
+    <x v="3"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-18T00:00:00"/>
+    <n v="51.631500000000003"/>
+    <n v="24.736899999999999"/>
+    <n v="1.43979E-2"/>
+    <n v="-3.71014"/>
+    <n v="-2.4464700000000001"/>
+    <n v="4.444137068149451"/>
+    <n v="15.998893445338023"/>
+    <s v="Brisa Fraca"/>
+    <n v="34.152206350000512"/>
+    <x v="3"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-19T00:00:00"/>
+    <n v="47.617899999999999"/>
+    <n v="26.130199999999999"/>
+    <n v="0"/>
+    <n v="-1.8591200000000001"/>
+    <n v="-1.7718700000000001"/>
+    <n v="2.5682387878271755"/>
+    <n v="9.245659636177832"/>
+    <s v="Brisa Leve"/>
+    <n v="44.322408331552793"/>
+    <x v="3"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-20T00:00:00"/>
+    <n v="46.713200000000001"/>
+    <n v="27.441199999999998"/>
+    <n v="0"/>
+    <n v="-3.3247300000000002"/>
+    <n v="-0.32399499999999998"/>
+    <n v="3.3404793567577995"/>
+    <n v="12.025725684328078"/>
+    <s v="Brisa Fraca"/>
+    <n v="6.4598609444107353"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-21T00:00:00"/>
+    <n v="72.392099999999999"/>
+    <n v="20.717199999999998"/>
+    <n v="0"/>
+    <n v="-1.9142399999999999"/>
+    <n v="2.1330399999999998"/>
+    <n v="2.8660381049804622"/>
+    <n v="10.317737177929665"/>
+    <s v="Brisa Leve"/>
+    <n v="311.22953994219938"/>
+    <x v="9"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-22T00:00:00"/>
+    <n v="93.956100000000006"/>
+    <n v="13.118499999999999"/>
+    <n v="1.59609"/>
+    <n v="-1.4919199999999999"/>
+    <n v="0.76455399999999996"/>
+    <n v="1.6764152544390662"/>
+    <n v="6.0350949159806389"/>
+    <s v="Brisa Leve"/>
+    <n v="332.08310463402518"/>
+    <x v="4"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-23T00:00:00"/>
+    <n v="84.125500000000002"/>
+    <n v="14.256500000000001"/>
+    <n v="8.73378E-3"/>
+    <n v="-2.3248000000000002"/>
+    <n v="0.866981"/>
+    <n v="2.4811995273175835"/>
+    <n v="8.9323182983433007"/>
+    <s v="Brisa Leve"/>
+    <n v="338.73047837557272"/>
+    <x v="4"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-24T00:00:00"/>
+    <n v="49.4557"/>
+    <n v="19.518899999999999"/>
+    <n v="0"/>
+    <n v="-2.55897"/>
+    <n v="2.1787800000000002"/>
+    <n v="3.3608644348292298"/>
+    <n v="12.099111965385228"/>
+    <s v="Brisa Fraca"/>
+    <n v="318.87260324820716"/>
+    <x v="9"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-25T00:00:00"/>
+    <n v="37.682899999999997"/>
+    <n v="20.1113"/>
+    <n v="0"/>
+    <n v="-2.59293"/>
+    <n v="1.9737199999999999"/>
+    <n v="3.2586587153766193"/>
+    <n v="11.73117137535583"/>
+    <s v="Brisa Leve"/>
+    <n v="321.9904274662066"/>
+    <x v="9"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-26T00:00:00"/>
+    <n v="44.516100000000002"/>
+    <n v="22.134899999999998"/>
+    <n v="0"/>
+    <n v="-2.9300099999999998"/>
+    <n v="1.94278"/>
+    <n v="3.5155871100713747"/>
+    <n v="12.656113596256949"/>
+    <s v="Brisa Fraca"/>
+    <n v="325.70257061337213"/>
+    <x v="9"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-27T00:00:00"/>
+    <n v="45.561399999999999"/>
+    <n v="23.508199999999999"/>
+    <n v="0"/>
+    <n v="-2.94109"/>
+    <n v="-0.38497100000000001"/>
+    <n v="2.9661781906926969"/>
+    <n v="10.678241486493709"/>
+    <s v="Brisa Leve"/>
+    <n v="8.3415443442487742"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-28T00:00:00"/>
+    <n v="48.285200000000003"/>
+    <n v="23.602399999999999"/>
+    <n v="0"/>
+    <n v="-3.6706300000000001"/>
+    <n v="-0.87496700000000005"/>
+    <n v="3.7734721210032811"/>
+    <n v="13.584499635611813"/>
+    <s v="Brisa Fraca"/>
+    <n v="14.261152811692426"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-29T00:00:00"/>
+    <n v="44.232500000000002"/>
+    <n v="24.794699999999999"/>
+    <n v="0"/>
+    <n v="-3.1825999999999999"/>
+    <n v="-2.1358700000000002"/>
+    <n v="3.8328688233358572"/>
+    <n v="13.798327764009086"/>
+    <s v="Brisa Fraca"/>
+    <n v="34.614824172658501"/>
+    <x v="3"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-30T00:00:00"/>
+    <n v="38.841900000000003"/>
+    <n v="25.9193"/>
+    <n v="0"/>
+    <n v="-2.2864800000000001"/>
+    <n v="-1.6119699999999999"/>
+    <n v="2.797577178792392"/>
+    <n v="10.071277843652611"/>
+    <s v="Brisa Leve"/>
+    <n v="35.926034382098294"/>
+    <x v="3"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-08-31T00:00:00"/>
+    <n v="45.428400000000003"/>
+    <n v="26.171299999999999"/>
+    <n v="0"/>
+    <n v="-3.52433"/>
+    <n v="-0.58310099999999998"/>
+    <n v="3.5722414147284334"/>
+    <n v="12.860069093022361"/>
+    <s v="Brisa Fraca"/>
+    <n v="10.268831975593486"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-01T00:00:00"/>
+    <n v="53.278799999999997"/>
+    <n v="24.550799999999999"/>
+    <n v="0"/>
+    <n v="-4.0475300000000001"/>
+    <n v="-0.177953"/>
+    <n v="4.0514400367164516"/>
+    <n v="14.585184132179226"/>
+    <s v="Brisa Fraca"/>
+    <n v="3.4270188297834068"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-02T00:00:00"/>
+    <n v="47.514000000000003"/>
+    <n v="23.639500000000002"/>
+    <n v="0"/>
+    <n v="-4.8403499999999999"/>
+    <n v="-0.97884599999999999"/>
+    <n v="4.9383324730333822"/>
+    <n v="17.777996902920176"/>
+    <s v="Brisa Fraca"/>
+    <n v="12.296425158156694"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-03T00:00:00"/>
+    <n v="41.2151"/>
+    <n v="23.8719"/>
+    <n v="0"/>
+    <n v="-2.27366"/>
+    <n v="-1.0329200000000001"/>
+    <n v="2.4972892347503524"/>
+    <n v="8.9902412451012683"/>
+    <s v="Brisa Leve"/>
+    <n v="25.229492526296468"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-04T00:00:00"/>
+    <n v="32.962800000000001"/>
+    <n v="26.566600000000001"/>
+    <n v="0"/>
+    <n v="-2.8088600000000001"/>
+    <n v="-0.57498700000000003"/>
+    <n v="2.867107348839419"/>
+    <n v="10.321586455821908"/>
+    <s v="Brisa Leve"/>
+    <n v="12.432087062202669"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-05T00:00:00"/>
+    <n v="32.3598"/>
+    <n v="25.748799999999999"/>
+    <n v="0"/>
+    <n v="-4.1203399999999997"/>
+    <n v="-0.58772100000000005"/>
+    <n v="4.1620448927709797"/>
+    <n v="14.983361613975527"/>
+    <s v="Brisa Fraca"/>
+    <n v="8.9987329749251046"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-06T00:00:00"/>
+    <n v="39.411499999999997"/>
+    <n v="25.4559"/>
+    <n v="0"/>
+    <n v="-2.2347700000000001"/>
+    <n v="-1.7291700000000001"/>
+    <n v="2.8256372452599079"/>
+    <n v="10.172294082935668"/>
+    <s v="Brisa Leve"/>
+    <n v="38.460296572691362"/>
+    <x v="3"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-07T00:00:00"/>
+    <n v="31.366499999999998"/>
+    <n v="27.150500000000001"/>
+    <n v="0"/>
+    <n v="-2.7096200000000001"/>
+    <n v="-0.71766099999999999"/>
+    <n v="2.8030479580843779"/>
+    <n v="10.09097264910376"/>
+    <s v="Brisa Leve"/>
+    <n v="15.681014360046078"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-08T00:00:00"/>
+    <n v="36.977400000000003"/>
+    <n v="27.356100000000001"/>
+    <n v="0"/>
+    <n v="-2.5507300000000002"/>
+    <n v="-0.244141"/>
+    <n v="2.5623872386470006"/>
+    <n v="9.2245940591292026"/>
+    <s v="Brisa Leve"/>
+    <n v="6.3618282340802352"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-09T00:00:00"/>
+    <n v="31.441099999999999"/>
+    <n v="27.907299999999999"/>
+    <n v="0"/>
+    <n v="-4.2314699999999998"/>
+    <n v="-1.1944300000000001"/>
+    <n v="4.3968171881259748"/>
+    <n v="15.82854187725351"/>
+    <s v="Brisa Fraca"/>
+    <n v="16.604645345142728"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-10T00:00:00"/>
+    <n v="31.441099999999999"/>
+    <n v="27.907299999999999"/>
+    <n v="0"/>
+    <n v="-2.6234799999999998"/>
+    <n v="-0.74956699999999998"/>
+    <n v="2.7284607378316807"/>
+    <n v="9.8224586561940512"/>
+    <s v="Brisa Leve"/>
+    <n v="16.786188295625095"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-11T00:00:00"/>
+    <n v="27.1859"/>
+    <n v="28.656199999999998"/>
+    <n v="0"/>
+    <n v="-2.8261500000000002"/>
+    <n v="-1.0213099999999999"/>
+    <n v="3.0050287750036606"/>
+    <n v="10.818103590013179"/>
+    <s v="Brisa Leve"/>
+    <n v="20.68942847498451"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-12T00:00:00"/>
+    <n v="35.1798"/>
+    <n v="26.869299999999999"/>
+    <n v="1.3291000000000001E-2"/>
+    <n v="-4.1090499999999999"/>
+    <n v="-1.32673"/>
+    <n v="4.3179282526924876"/>
+    <n v="15.544541709692956"/>
+    <s v="Brisa Fraca"/>
+    <n v="18.72500858347405"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-13T00:00:00"/>
+    <n v="39.317399999999999"/>
+    <n v="25.114000000000001"/>
+    <n v="0"/>
+    <n v="-3.7377600000000002"/>
+    <n v="-0.97300399999999998"/>
+    <n v="3.8623291679524159"/>
+    <n v="13.904385004628697"/>
+    <s v="Brisa Fraca"/>
+    <n v="15.438956011416082"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-14T00:00:00"/>
+    <n v="31.001100000000001"/>
+    <n v="27.7925"/>
+    <n v="0"/>
+    <n v="-2.3204199999999999"/>
+    <n v="-1.4121900000000001"/>
+    <n v="2.7163632990636581"/>
+    <n v="9.7789078766291695"/>
+    <s v="Brisa Leve"/>
+    <n v="32.086327047242008"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-15T00:00:00"/>
+    <n v="33.020499999999998"/>
+    <n v="27.6082"/>
+    <n v="0"/>
+    <n v="-4.0688199999999997"/>
+    <n v="1.1654100000000001"/>
+    <n v="4.2324315305152895"/>
+    <n v="15.236753509855042"/>
+    <s v="Brisa Fraca"/>
+    <n v="343.17641275442088"/>
+    <x v="4"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-16T00:00:00"/>
+    <n v="39.8992"/>
+    <n v="26.0656"/>
+    <n v="1.8180500000000001E-3"/>
+    <n v="-2.1346799999999999"/>
+    <n v="-1.3261099999999999"/>
+    <n v="2.5130512200311395"/>
+    <n v="9.0469843921121029"/>
+    <s v="Brisa Leve"/>
+    <n v="32.608715803626893"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-17T00:00:00"/>
+    <n v="31.043900000000001"/>
+    <n v="29.462900000000001"/>
+    <n v="0"/>
+    <n v="-1.5377099999999999"/>
+    <n v="0.34026400000000001"/>
+    <n v="1.5749068651180613"/>
+    <n v="5.6696647144250205"/>
+    <s v="Aragem"/>
+    <n v="346.66412397139408"/>
+    <x v="4"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-18T00:00:00"/>
+    <n v="24.049299999999999"/>
+    <n v="31.007400000000001"/>
+    <n v="0"/>
+    <n v="-3.6499799999999998"/>
+    <n v="-0.50455000000000005"/>
+    <n v="3.6846878704850972"/>
+    <n v="13.264876333746351"/>
+    <s v="Brisa Fraca"/>
+    <n v="8.7524772421677994"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-19T00:00:00"/>
+    <n v="23.492000000000001"/>
+    <n v="32.091900000000003"/>
+    <n v="0"/>
+    <n v="-2.5505200000000001"/>
+    <n v="-0.88747699999999996"/>
+    <n v="2.7005124876454469"/>
+    <n v="9.7218449555236095"/>
+    <s v="Brisa Leve"/>
+    <n v="20.009973148127841"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-20T00:00:00"/>
+    <n v="25.430399999999999"/>
+    <n v="31.3169"/>
+    <n v="0"/>
+    <n v="-3.7880500000000001"/>
+    <n v="-1.66177"/>
+    <n v="4.1365205590447633"/>
+    <n v="14.891474012561149"/>
+    <s v="Brisa Fraca"/>
+    <n v="24.487552654330045"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-21T00:00:00"/>
+    <n v="40.859299999999998"/>
+    <n v="27.469200000000001"/>
+    <n v="1.62616"/>
+    <n v="-2.3972500000000001"/>
+    <n v="-1.3440000000000001"/>
+    <n v="2.7482983030413566"/>
+    <n v="9.8938738909488837"/>
+    <s v="Brisa Leve"/>
+    <n v="30.049282585265161"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-22T00:00:00"/>
+    <n v="86.240600000000001"/>
+    <n v="19.318999999999999"/>
+    <n v="8.8165200000000006"/>
+    <n v="-0.97002299999999997"/>
+    <n v="-8.7806300000000004E-2"/>
+    <n v="0.97398899729344479"/>
+    <n v="3.5063603902564013"/>
+    <s v="Aragem"/>
+    <n v="6.0682847139323712"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-23T00:00:00"/>
+    <n v="70.407399999999996"/>
+    <n v="21.154399999999999"/>
+    <n v="4.6870599999999998"/>
+    <n v="-1.5355300000000001"/>
+    <n v="1.64574"/>
+    <n v="2.2508470691053182"/>
+    <n v="8.1030494487791458"/>
+    <s v="Brisa Leve"/>
+    <n v="312.33417747907095"/>
+    <x v="9"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-24T00:00:00"/>
+    <n v="57.751300000000001"/>
+    <n v="24.7743"/>
+    <n v="1.13757"/>
+    <n v="-2.7237200000000001"/>
+    <n v="0.50737600000000005"/>
+    <n v="2.7705741361270233"/>
+    <n v="9.9740668900572835"/>
+    <s v="Brisa Leve"/>
+    <n v="348.5794506813844"/>
+    <x v="4"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-25T00:00:00"/>
+    <n v="44.273099999999999"/>
+    <n v="25.832000000000001"/>
+    <n v="0"/>
+    <n v="-2.6978"/>
+    <n v="-1.5995699999999999"/>
+    <n v="3.1363591989598385"/>
+    <n v="11.290893116255418"/>
+    <s v="Brisa Leve"/>
+    <n v="31.429731966736966"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-26T00:00:00"/>
+    <n v="34.130600000000001"/>
+    <n v="27.9376"/>
+    <n v="0"/>
+    <n v="-2.37086"/>
+    <n v="-0.96032200000000001"/>
+    <n v="2.5579670606331115"/>
+    <n v="9.2086814182792018"/>
+    <s v="Brisa Leve"/>
+    <n v="22.859993912190902"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-27T00:00:00"/>
+    <n v="27.649899999999999"/>
+    <n v="31.0505"/>
+    <n v="0"/>
+    <n v="-1.05193"/>
+    <n v="-1.41025"/>
+    <n v="1.7593640292446586"/>
+    <n v="6.333710505280771"/>
+    <s v="Brisa Leve"/>
+    <n v="53.929531605428409"/>
+    <x v="3"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-28T00:00:00"/>
+    <n v="21.897500000000001"/>
+    <n v="33.145499999999998"/>
+    <n v="0"/>
+    <n v="-2.6451199999999999"/>
+    <n v="-1.2664299999999999"/>
+    <n v="2.932661719206632"/>
+    <n v="10.557582189143876"/>
+    <s v="Brisa Leve"/>
+    <n v="26.375526245045165"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-29T00:00:00"/>
+    <n v="23.418299999999999"/>
+    <n v="33.0349"/>
+    <n v="0"/>
+    <n v="-3.4748999999999999"/>
+    <n v="-4.4647600000000003E-2"/>
+    <n v="3.4751868177388334"/>
+    <n v="12.510672543859801"/>
+    <s v="Brisa Fraca"/>
+    <n v="1.654842867685943"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-09-30T00:00:00"/>
+    <n v="29.182700000000001"/>
+    <n v="31.789200000000001"/>
+    <n v="0"/>
+    <n v="-3.8532199999999999"/>
+    <n v="-0.85203300000000004"/>
+    <n v="3.9462975814665824"/>
+    <n v="14.206671293279697"/>
+    <s v="Brisa Fraca"/>
+    <n v="13.32732453332352"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-01T00:00:00"/>
+    <n v="29.429300000000001"/>
+    <n v="31.1434"/>
+    <n v="0"/>
+    <n v="-2.9610099999999999"/>
+    <n v="-0.75151999999999997"/>
+    <n v="3.0548915742624971"/>
+    <n v="10.997609667344991"/>
+    <s v="Brisa Leve"/>
+    <n v="15.090761052590665"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-02T00:00:00"/>
+    <n v="25.8856"/>
+    <n v="32.232100000000003"/>
+    <n v="0"/>
+    <n v="-3.0978699999999999"/>
+    <n v="-0.64268800000000004"/>
+    <n v="3.1638341300144037"/>
+    <n v="11.389802868051854"/>
+    <s v="Brisa Leve"/>
+    <n v="12.582812066739621"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-03T00:00:00"/>
+    <n v="17.949100000000001"/>
+    <n v="33.968899999999998"/>
+    <n v="0"/>
+    <n v="-4.2012999999999998"/>
+    <n v="-1.44794"/>
+    <n v="4.4438105195428843"/>
+    <n v="15.997717870354384"/>
+    <s v="Brisa Fraca"/>
+    <n v="19.841077854985542"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-04T00:00:00"/>
+    <n v="33.472299999999997"/>
+    <n v="30.822299999999998"/>
+    <n v="0"/>
+    <n v="-3.4550399999999999"/>
+    <n v="-1.8432900000000001"/>
+    <n v="3.9159953301427723"/>
+    <n v="14.097583188513982"/>
+    <s v="Brisa Fraca"/>
+    <n v="28.85883507219981"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-05T00:00:00"/>
+    <n v="35.612499999999997"/>
+    <n v="30.876899999999999"/>
+    <n v="2.1591999999999998"/>
+    <n v="-3.8117700000000001"/>
+    <n v="-2.2470400000000001"/>
+    <n v="4.4247914407913065"/>
+    <n v="15.929249186848704"/>
+    <s v="Brisa Fraca"/>
+    <n v="31.285443456194969"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-06T00:00:00"/>
+    <n v="24.158200000000001"/>
+    <n v="33.402999999999999"/>
+    <n v="3.1322999999999999"/>
+    <n v="-2.6522899999999998"/>
+    <n v="-2.00265"/>
+    <n v="3.3234393730892697"/>
+    <n v="11.964381743121372"/>
+    <s v="Brisa Fraca"/>
+    <n v="37.787738734611196"/>
+    <x v="3"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-07T00:00:00"/>
+    <n v="31.778400000000001"/>
+    <n v="31.387799999999999"/>
+    <n v="1.30263"/>
+    <n v="0.234096"/>
+    <n v="-2.7331299999999999E-2"/>
+    <n v="0.23568609881724037"/>
+    <n v="0.8484699557420653"/>
+    <s v="Aragem"/>
+    <n v="173.37484978416961"/>
+    <x v="1"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-08T00:00:00"/>
+    <n v="36.471400000000003"/>
+    <n v="31.433299999999999"/>
+    <n v="2.5084599999999999"/>
+    <n v="-1.41774"/>
+    <n v="2.4510200000000002"/>
+    <n v="2.8315165102820785"/>
+    <n v="10.193459437015482"/>
+    <s v="Brisa Leve"/>
+    <n v="299.43108739206775"/>
+    <x v="10"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-09T00:00:00"/>
+    <n v="22.6874"/>
+    <n v="33.885300000000001"/>
+    <n v="4.7354399999999996"/>
+    <n v="1.9272100000000001"/>
+    <n v="-0.88178599999999996"/>
+    <n v="2.119359557483345"/>
+    <n v="7.6296944069400423"/>
+    <s v="Brisa Leve"/>
+    <n v="155.53975857193183"/>
+    <x v="0"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-10T00:00:00"/>
+    <n v="37.545299999999997"/>
+    <n v="30.930900000000001"/>
+    <n v="8.5466499999999996"/>
+    <n v="1.0835600000000001"/>
+    <n v="-0.61274399999999996"/>
+    <n v="1.2448122280633334"/>
+    <n v="4.4813240210280005"/>
+    <s v="Aragem"/>
+    <n v="150.66333102113381"/>
+    <x v="0"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-11T00:00:00"/>
+    <n v="83.429400000000001"/>
+    <n v="22.2761"/>
+    <n v="6.7525199999999996"/>
+    <n v="-3.2022599999999999"/>
+    <n v="-0.74026800000000004"/>
+    <n v="3.2867104860976117"/>
+    <n v="11.832157749951403"/>
+    <s v="Brisa Leve"/>
+    <n v="13.872219883084313"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-12T00:00:00"/>
+    <n v="68.196100000000001"/>
+    <n v="24.316500000000001"/>
+    <n v="1.49746"/>
+    <n v="-1.6287700000000001"/>
+    <n v="-1.37073"/>
+    <n v="2.1288007059844753"/>
+    <n v="7.6636825415441114"/>
+    <s v="Brisa Leve"/>
+    <n v="40.800146182159381"/>
+    <x v="3"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-13T00:00:00"/>
+    <n v="54.610799999999998"/>
+    <n v="27.154"/>
+    <n v="0.49406800000000001"/>
+    <n v="4.9167000000000002E-2"/>
+    <n v="-1.1160600000000001"/>
+    <n v="1.1171424785984105"/>
+    <n v="4.0217129229542783"/>
+    <s v="Aragem"/>
+    <n v="92.970797229644759"/>
+    <x v="11"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-14T00:00:00"/>
+    <n v="39.898600000000002"/>
+    <n v="30.366199999999999"/>
+    <n v="1.5845"/>
+    <n v="-0.384824"/>
+    <n v="-0.59714699999999998"/>
+    <n v="0.71040414595144363"/>
+    <n v="2.5574549254251973"/>
+    <s v="Aragem"/>
+    <n v="57.830080668658198"/>
+    <x v="7"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-15T00:00:00"/>
+    <n v="53.537700000000001"/>
+    <n v="26.674800000000001"/>
+    <n v="26.675799999999999"/>
+    <n v="1.3177399999999999"/>
+    <n v="0.77607300000000001"/>
+    <n v="1.5292900342737474"/>
+    <n v="5.5054441233854909"/>
+    <s v="Aragem"/>
+    <n v="210.33934852710848"/>
+    <x v="12"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-16T00:00:00"/>
+    <n v="74.9726"/>
+    <n v="23.5608"/>
+    <n v="1.35294"/>
+    <n v="-1.6192299999999999"/>
+    <n v="0.98723799999999995"/>
+    <n v="1.8964558158691702"/>
+    <n v="6.8272409371290133"/>
+    <s v="Brisa Leve"/>
+    <n v="327.86779221358029"/>
+    <x v="4"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-17T00:00:00"/>
+    <n v="87.248599999999996"/>
+    <n v="18.868200000000002"/>
+    <n v="5.4615"/>
+    <n v="-1.9718500000000001"/>
+    <n v="-0.33843000000000001"/>
+    <n v="2.0006817056693453"/>
+    <n v="7.2024541404096434"/>
+    <s v="Brisa Leve"/>
+    <n v="10.611403500343357"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-18T00:00:00"/>
+    <n v="80.715599999999995"/>
+    <n v="19.0947"/>
+    <n v="0.19817599999999999"/>
+    <n v="-2.16554"/>
+    <n v="-0.98217900000000002"/>
+    <n v="2.3778643947124065"/>
+    <n v="8.5603118209646638"/>
+    <s v="Brisa Leve"/>
+    <n v="25.194086129240247"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-19T00:00:00"/>
+    <n v="85.867599999999996"/>
+    <n v="18.042400000000001"/>
+    <n v="4.0137"/>
+    <n v="-1.9937800000000001"/>
+    <n v="-0.17364399999999999"/>
+    <n v="2.0013272913584128"/>
+    <n v="7.2047782488902863"/>
+    <s v="Brisa Leve"/>
+    <n v="5.8744697305831153"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-20T00:00:00"/>
+    <n v="92.075699999999998"/>
+    <n v="17.173400000000001"/>
+    <n v="11.7706"/>
+    <n v="-1.1057900000000001"/>
+    <n v="-0.63460300000000003"/>
+    <n v="1.2749480349053448"/>
+    <n v="4.589812925659241"/>
+    <s v="Aragem"/>
+    <n v="30.620629774472974"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-21T00:00:00"/>
+    <n v="72.985699999999994"/>
+    <n v="23.8398"/>
+    <n v="1.32579"/>
+    <n v="-0.85338700000000001"/>
+    <n v="1.2407899999999999E-2"/>
+    <n v="0.85347719814381096"/>
+    <n v="3.0725179133177196"/>
+    <s v="Aragem"/>
+    <n v="358.24878497691839"/>
+    <x v="8"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-22T00:00:00"/>
+    <n v="72.985699999999994"/>
+    <n v="23.8398"/>
+    <n v="4.5473699999999999E-2"/>
+    <n v="-1.7144999999999999"/>
+    <n v="-0.78810199999999997"/>
+    <n v="1.8869591973341659"/>
+    <n v="6.7930531104029974"/>
+    <s v="Brisa Leve"/>
+    <n v="25.482729452284048"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-23T00:00:00"/>
+    <n v="72.985699999999994"/>
+    <n v="23.8398"/>
+    <n v="2.4640299999999999E-3"/>
+    <n v="-2.5756100000000002"/>
+    <n v="-1.5886100000000001"/>
+    <n v="3.0261276582788112"/>
+    <n v="10.894059569803721"/>
+    <s v="Brisa Leve"/>
+    <n v="32.426062942971669"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-24T00:00:00"/>
+    <n v="72.985699999999994"/>
+    <n v="23.8398"/>
+    <n v="9.1216799999999996"/>
+    <n v="-1.1997199999999999"/>
+    <n v="0.36871599999999999"/>
+    <n v="1.2551014170400732"/>
+    <n v="4.5183651013442638"/>
+    <s v="Aragem"/>
+    <n v="342.0810410420429"/>
+    <x v="4"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-25T00:00:00"/>
+    <n v="72.985699999999994"/>
+    <n v="23.8398"/>
+    <n v="8.39011"/>
+    <n v="1.9906999999999999"/>
+    <n v="-0.16781699999999999"/>
+    <n v="1.9977610055982673"/>
+    <n v="7.1919396201537626"/>
+    <s v="Brisa Leve"/>
+    <n v="175.20602577619715"/>
+    <x v="1"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-26T00:00:00"/>
+    <n v="55.2956"/>
+    <n v="25.997599999999998"/>
+    <n v="2.2806500000000001"/>
+    <n v="1.7375400000000001"/>
+    <n v="1.23194"/>
+    <n v="2.1299580782729035"/>
+    <n v="7.6678490817824532"/>
+    <s v="Brisa Leve"/>
+    <n v="215.15607038645044"/>
+    <x v="6"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-27T00:00:00"/>
+    <n v="55.402099999999997"/>
+    <n v="27.6371"/>
+    <n v="0.254519"/>
+    <n v="2.8268200000000001"/>
+    <n v="-1.0678300000000001"/>
+    <n v="3.0217829540355807"/>
+    <n v="10.87841863452809"/>
+    <s v="Brisa Leve"/>
+    <n v="159.41201957498413"/>
+    <x v="0"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-28T00:00:00"/>
+    <n v="52.887099999999997"/>
+    <n v="28.396899999999999"/>
+    <n v="6.6302799999999997E-3"/>
+    <n v="3.7768700000000002"/>
+    <n v="-1.2322500000000001"/>
+    <n v="3.9728059428318421"/>
+    <n v="14.302101394194631"/>
+    <s v="Brisa Fraca"/>
+    <n v="162.02305667296085"/>
+    <x v="0"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-29T00:00:00"/>
+    <n v="65.772800000000004"/>
+    <n v="26.7239"/>
+    <n v="1.8089200000000001"/>
+    <n v="0.64633099999999999"/>
+    <n v="0.216283"/>
+    <n v="0.68155857976405809"/>
+    <n v="2.4536108871506093"/>
+    <s v="Aragem"/>
+    <n v="198.40706653929325"/>
+    <x v="12"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-30T00:00:00"/>
+    <n v="79.899000000000001"/>
+    <n v="23.538"/>
+    <n v="2.65246"/>
+    <n v="-2.0845500000000001"/>
+    <n v="-0.74063999999999997"/>
+    <n v="2.212215249947437"/>
+    <n v="7.9639748998107738"/>
+    <s v="Brisa Leve"/>
+    <n v="20.382352285942204"/>
+    <x v="2"/>
+    <s v="CALMO"/>
+  </r>
+  <r>
+    <d v="2020-10-31T00:00:00"/>
+    <n v="95.826400000000007"/>
+    <n v="17.6234"/>
+    <n v="13.725099999999999"/>
+    <n v="-1.1789400000000001"/>
+    <n v="1.6653100000000001"/>
+    <n v="2.0403815622819179"/>
+    <n v="7.345373624214905"/>
+    <s v="Brisa Leve"/>
+    <n v="304.65408089544644"/>
+    <x v="9"/>
+    <s v="CALMO"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{895F48C9-212A-469C-9463-52A4DB259856}" name="Tabela dinâmica2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="11"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de (m/s)3" fld="6" subtotal="average" baseField="10" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE6346CF-4F19-4C84-9BEC-461E1ACFB9F5}" name="Tabela dinâmica39" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
@@ -20766,7 +24700,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED8A6DCF-9EA5-4CED-A93F-1DE61450A9EE}" name="Tabela dinâmica8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
@@ -21201,8 +25135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DF961B-DA8B-42AF-9C91-E2954F467ED3}">
   <dimension ref="A1:T130"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27687,7 +31621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65CF29-BE29-4775-AFAA-2F6B81D27E30}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -27898,6 +31832,355 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CA3486-5DA7-45EE-8584-C949B68586CA}">
+  <dimension ref="A3:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="19">
+        <v>1.1171424785984105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1.6265685835166437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="19">
+        <v>1.0081797158879959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="19">
+        <v>2.8887861632915781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2.904548798795775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="19">
+        <v>3.1566700428145777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="19">
+        <v>2.7089091828304288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="19">
+        <v>2.8820628327741535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1.7410148504153671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="19">
+        <v>2.8842016713907932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1.1054243070189027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="19">
+        <v>1.7193920712258959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="19">
+        <v>2.8315165102820785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="19">
+        <v>2.8619669853498908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="19">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","N")</f>
+        <v>2.8887861632915781</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f>IF(C21&lt;=0.2,"Calmo",IF(AND(C21&gt;0.2,C21&lt;=1.6),"Aragem",IF(AND(C21&gt;1.6,C21&lt;=3.3),"Brisa Leve",IF(AND(C21&gt;3.3,C21&lt;=5.4),"Brisa Fraca",IF(AND(C21&gt;5.4,C21&lt;=7.9),"Brisa Moderada",)))))</f>
+        <v>Brisa Leve</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="19">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","NNE")</f>
+        <v>3.1566700428145777</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" ref="D22:D33" si="0">IF(C22&lt;=0.2,"Calmo",IF(AND(C22&gt;0.2,C22&lt;=1.6),"Aragem",IF(AND(C22&gt;1.6,C22&lt;=3.3),"Brisa Leve",IF(AND(C22&gt;3.3,C22&lt;=5.4),"Brisa Fraca",IF(AND(C22&gt;5.4,C22&lt;=7.9),"Brisa Moderada",)))))</f>
+        <v>Brisa Leve</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="19">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","NE")</f>
+        <v>2.904548798795775</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Brisa Leve</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="19">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","ENE")</f>
+        <v>1.6265685835166437</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Brisa Leve</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="19">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","E")</f>
+        <v>1.1171424785984105</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Aragem</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="19">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","ESE")</f>
+        <v>1.0081797158879959</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Aragem</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="19">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","SSE")</f>
+        <v>2.8842016713907932</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Brisa Leve</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="19">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","S")</f>
+        <v>1.7410148504153671</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Brisa Leve</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="19">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","SSW")</f>
+        <v>1.1054243070189027</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Aragem</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="19">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","SW")</f>
+        <v>1.7193920712258959</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Brisa Leve</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="19">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","WNW")</f>
+        <v>2.8315165102820785</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Brisa Leve</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="19">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","NW")</f>
+        <v>2.8820628327741535</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Brisa Leve</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="19">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","NNW")</f>
+        <v>2.7089091828304288</v>
+      </c>
+      <c r="D33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Brisa Leve</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB47C731-4BCA-4027-9FB4-32172C5CA826}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -27997,7 +32280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A632473-3792-4311-8E43-2519F04EA71D}">
   <dimension ref="A3:D7"/>
   <sheetViews>
@@ -28091,12 +32374,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC92A6F-01DD-4D10-9A51-1A59650D265A}">
-  <dimension ref="A3:C32"/>
+  <dimension ref="A3:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28285,51 +32568,188 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f>GETPIVOTDATA("-",$A$3,"-","N")</f>
+        <v>23</v>
+      </c>
+      <c r="C20" s="21">
+        <f>B20/$B$33</f>
+        <v>0.18699186991869918</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f>GETPIVOTDATA("-",$A$3,"-","NNE")</f>
+        <v>52</v>
+      </c>
+      <c r="C21" s="21">
+        <f t="shared" ref="C21:C32" si="0">B21/$B$33</f>
+        <v>0.42276422764227645</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <f>GETPIVOTDATA("-",$A$3,"-","NE")</f>
+        <v>14</v>
+      </c>
+      <c r="C22" s="21">
+        <f t="shared" si="0"/>
+        <v>0.11382113821138211</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <f>GETPIVOTDATA("-",$A$3,"-","ENE")</f>
+        <v>2</v>
+      </c>
+      <c r="C23" s="21">
+        <f t="shared" si="0"/>
+        <v>1.6260162601626018E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <f>GETPIVOTDATA("-",$A$3,"-","E")</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="21">
+        <f t="shared" si="0"/>
+        <v>8.130081300813009E-3</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <f>GETPIVOTDATA("-",$A$3,"-","ESE")</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="21">
+        <f t="shared" si="0"/>
+        <v>8.130081300813009E-3</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f>GETPIVOTDATA("-",$A$3,"-","SSE")</f>
+        <v>6</v>
+      </c>
+      <c r="C26" s="21">
+        <f t="shared" si="0"/>
+        <v>4.878048780487805E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <f>GETPIVOTDATA("-",$A$3,"-","S")</f>
+        <v>3</v>
+      </c>
+      <c r="C27" s="21">
+        <f t="shared" si="0"/>
+        <v>2.4390243902439025E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <f>GETPIVOTDATA("-",$A$3,"-","SSW")</f>
+        <v>2</v>
+      </c>
+      <c r="C28" s="21">
+        <f t="shared" si="0"/>
+        <v>1.6260162601626018E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <f>GETPIVOTDATA("-",$A$3,"-","SW")</f>
+        <v>2</v>
+      </c>
+      <c r="C29" s="21">
+        <f t="shared" si="0"/>
+        <v>1.6260162601626018E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <f>GETPIVOTDATA("-",$A$3,"-","WNW")</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="21">
+        <f t="shared" si="0"/>
+        <v>8.130081300813009E-3</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <f>GETPIVOTDATA("-",$A$3,"-","NW")</f>
+        <v>6</v>
+      </c>
+      <c r="C31" s="21">
+        <f t="shared" si="0"/>
+        <v>4.878048780487805E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <f>GETPIVOTDATA("-",$A$3,"-","NNW")</f>
+        <v>10</v>
+      </c>
+      <c r="C32" s="21">
+        <f t="shared" si="0"/>
+        <v>8.1300813008130079E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="20">
+        <f>SUM(B20:B32)</f>
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539A69B2-B325-4D5F-846E-022264FD4675}">
   <dimension ref="A1:B23"/>
   <sheetViews>

--- a/script/serra_cipo_serie_temporal_julaout_2020.xlsx
+++ b/script/serra_cipo_serie_temporal_julaout_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Downloads\SerraCipo\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BC1D62-BA92-42D1-93D4-BC444708516F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D30EE3-DFB2-4041-87F8-F1266003FD96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="921" activeTab="2" xr2:uid="{B7846D64-A367-46AC-B413-2EB09A9FB57C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="921" activeTab="1" xr2:uid="{B7846D64-A367-46AC-B413-2EB09A9FB57C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados diarios" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
     <pivotCache cacheId="1" r:id="rId9"/>
-    <pivotCache cacheId="10" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="63">
   <si>
     <t>Umidade Relativa</t>
   </si>
@@ -267,10 +267,16 @@
     <t>Predominância</t>
   </si>
   <si>
-    <t>CALMO</t>
+    <t>Média de (m/s)3</t>
   </si>
   <si>
-    <t>Média de (m/s)3</t>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>WSW</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -394,12 +400,12 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2090,7 +2096,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1554-4ED4-B001-F4005A35F622}"/>
@@ -2568,9 +2574,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Direção do vento'!$A$20:$A$32</c:f>
+              <c:f>'Direção do vento'!$A$20:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>N</c:v>
                 </c:pt>
@@ -2587,27 +2593,36 @@
                   <c:v>E</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>SE</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>ESE</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>SSE</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>S</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>SSW</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>SW</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>WSW</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>WNW</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>NW</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>NNW</c:v>
                 </c:pt>
               </c:strCache>
@@ -2615,10 +2630,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Direção do vento'!$C$20:$C$32</c:f>
+              <c:f>'Direção do vento'!$C$20:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.18699186991869918</c:v>
                 </c:pt>
@@ -2634,28 +2649,28 @@
                 <c:pt idx="4">
                   <c:v>8.130081300813009E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>8.130081300813009E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4.878048780487805E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.4390243902439025E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6260162601626018E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.6260162601626018E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1.6260162601626018E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>8.130081300813009E-3</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>4.878048780487805E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>8.1300813008130079E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -5810,7 +5825,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9C62-4002-AFFF-0B7248AE1A84}"/>
@@ -6555,7 +6570,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2DAC-4A04-A37E-D2131129E618}"/>
@@ -6609,7 +6624,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -6718,7 +6733,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2DAC-4A04-A37E-D2131129E618}"/>
@@ -7768,9 +7783,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Velocidade do vento e direção'!$B$21:$B$33</c:f>
+              <c:f>'Velocidade do vento e direção'!$B$21:$B$36</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>N</c:v>
                 </c:pt>
@@ -7790,24 +7805,33 @@
                   <c:v>ESE</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>SE</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>SSE</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>S</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>SSW</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>SW</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>WSW</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>WNW</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>NW</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>NNW</c:v>
                 </c:pt>
               </c:strCache>
@@ -7815,10 +7839,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Velocidade do vento e direção'!$C$21:$C$33</c:f>
+              <c:f>'Velocidade do vento e direção'!$C$21:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2.8887861632915781</c:v>
                 </c:pt>
@@ -7837,25 +7861,25 @@
                 <c:pt idx="5">
                   <c:v>1.0081797158879959</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2.8842016713907932</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1.7410148504153671</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1.1054243070189027</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1.7193920712258959</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>2.8315165102820785</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>2.8820628327741535</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>2.7089091828304288</c:v>
                 </c:pt>
               </c:numCache>
@@ -18809,7 +18833,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18968,7 +18992,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -24367,7 +24391,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{895F48C9-212A-469C-9463-52A4DB259856}" name="Tabela dinâmica2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{895F48C9-212A-469C-9463-52A4DB259856}" name="Tabela dinâmica2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0"/>
@@ -24817,23 +24841,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="serie_temporal_VENTO10M.GFS.ANL.20200701.20201031.nc_u10m" connectionId="4" xr16:uid="{9361D454-578D-4945-B923-D7063B94E8B3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="serie_temporal_TEMP2M.GFS.ANL.20200701.20201031" connectionId="3" xr16:uid="{16134914-A39E-44D5-951F-EF8140FA1F3C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="serie_temporal_RH2M.GFS.ANL.20200701.20201031.nc" connectionId="2" xr16:uid="{B2FD95F1-6EA7-4609-9396-40AF6E2809C1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="serie_temporal_PREC.IMERG.20200701.20201031" connectionId="1" xr16:uid="{2FE09DB2-8C57-467E-A132-E6CA8C919A90}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="serie_temporal_VENTO10M.GFS.ANL.20200701.20201031.nc_v10m" connectionId="5" xr16:uid="{EB9310E8-F0CF-4FAE-931D-F3DBF2F24762}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="serie_temporal_VENTO10M.GFS.ANL.20200701.20201031.nc_u10m" connectionId="4" xr16:uid="{9361D454-578D-4945-B923-D7063B94E8B3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25135,7 +25159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DF961B-DA8B-42AF-9C91-E2954F467ED3}">
   <dimension ref="A1:T130"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -25155,23 +25179,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="18"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
     </row>
@@ -31621,8 +31645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65CF29-BE29-4775-AFAA-2F6B81D27E30}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31833,10 +31857,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CA3486-5DA7-45EE-8584-C949B68586CA}">
-  <dimension ref="A3:D33"/>
+  <dimension ref="A3:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31851,14 +31875,14 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>1.1171424785984105</v>
       </c>
     </row>
@@ -31866,7 +31890,7 @@
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>1.6265685835166437</v>
       </c>
     </row>
@@ -31874,7 +31898,7 @@
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>1.0081797158879959</v>
       </c>
     </row>
@@ -31882,7 +31906,7 @@
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>2.8887861632915781</v>
       </c>
     </row>
@@ -31890,7 +31914,7 @@
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>2.904548798795775</v>
       </c>
     </row>
@@ -31898,7 +31922,7 @@
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>3.1566700428145777</v>
       </c>
     </row>
@@ -31906,7 +31930,7 @@
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>2.7089091828304288</v>
       </c>
     </row>
@@ -31914,7 +31938,7 @@
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>2.8820628327741535</v>
       </c>
     </row>
@@ -31922,7 +31946,7 @@
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>1.7410148504153671</v>
       </c>
     </row>
@@ -31930,7 +31954,7 @@
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>2.8842016713907932</v>
       </c>
     </row>
@@ -31938,7 +31962,7 @@
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>1.1054243070189027</v>
       </c>
     </row>
@@ -31946,7 +31970,7 @@
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>1.7193920712258959</v>
       </c>
     </row>
@@ -31954,7 +31978,7 @@
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>2.8315165102820785</v>
       </c>
     </row>
@@ -31962,7 +31986,7 @@
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>2.8619669853498908</v>
       </c>
     </row>
@@ -31973,7 +31997,7 @@
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","N")</f>
         <v>2.8887861632915781</v>
       </c>
@@ -31989,12 +32013,12 @@
       <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","NNE")</f>
         <v>3.1566700428145777</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f t="shared" ref="D22:D33" si="0">IF(C22&lt;=0.2,"Calmo",IF(AND(C22&gt;0.2,C22&lt;=1.6),"Aragem",IF(AND(C22&gt;1.6,C22&lt;=3.3),"Brisa Leve",IF(AND(C22&gt;3.3,C22&lt;=5.4),"Brisa Fraca",IF(AND(C22&gt;5.4,C22&lt;=7.9),"Brisa Moderada",)))))</f>
+        <f t="shared" ref="D22:D36" si="0">IF(C22&lt;=0.2,"Calmo",IF(AND(C22&gt;0.2,C22&lt;=1.6),"Aragem",IF(AND(C22&gt;1.6,C22&lt;=3.3),"Brisa Leve",IF(AND(C22&gt;3.3,C22&lt;=5.4),"Brisa Fraca",IF(AND(C22&gt;5.4,C22&lt;=7.9),"Brisa Moderada",)))))</f>
         <v>Brisa Leve</v>
       </c>
     </row>
@@ -32005,7 +32029,7 @@
       <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="18">
         <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","NE")</f>
         <v>2.904548798795775</v>
       </c>
@@ -32021,7 +32045,7 @@
       <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="18">
         <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","ENE")</f>
         <v>1.6265685835166437</v>
       </c>
@@ -32037,7 +32061,7 @@
       <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","E")</f>
         <v>1.1171424785984105</v>
       </c>
@@ -32053,7 +32077,7 @@
       <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","ESE")</f>
         <v>1.0081797158879959</v>
       </c>
@@ -32064,30 +32088,24 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="19">
-        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","SSE")</f>
-        <v>2.8842016713907932</v>
-      </c>
-      <c r="D27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Brisa Leve</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="19">
-        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","S")</f>
-        <v>1.7410148504153671</v>
+        <v>24</v>
+      </c>
+      <c r="C28" s="18">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","SSE")</f>
+        <v>2.8842016713907932</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -32096,46 +32114,46 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="19">
-        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","SSW")</f>
-        <v>1.1054243070189027</v>
+        <v>23</v>
+      </c>
+      <c r="C29" s="18">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","S")</f>
+        <v>1.7410148504153671</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Aragem</v>
+        <v>Brisa Leve</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="19">
-        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","SW")</f>
-        <v>1.7193920712258959</v>
+        <v>25</v>
+      </c>
+      <c r="C30" s="18">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","SSW")</f>
+        <v>1.1054243070189027</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Brisa Leve</v>
+        <v>Aragem</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="19">
-        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","WNW")</f>
-        <v>2.8315165102820785</v>
+        <v>26</v>
+      </c>
+      <c r="C31" s="18">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","SW")</f>
+        <v>1.7193920712258959</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -32144,32 +32162,68 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="19">
-        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","NW")</f>
-        <v>2.8820628327741535</v>
-      </c>
-      <c r="D32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Brisa Leve</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="18">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","WNW")</f>
+        <v>2.8315165102820785</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Brisa Leve</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="18">
+        <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","NW")</f>
+        <v>2.8820628327741535</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Brisa Leve</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>16</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C36" s="18">
         <f>GETPIVOTDATA("(m/s)3",$A$3,"(Categoria)2","NNW")</f>
         <v>2.7089091828304288</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Brisa Leve</v>
       </c>
@@ -32376,10 +32430,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC92A6F-01DD-4D10-9A51-1A59650D265A}">
-  <dimension ref="A3:C33"/>
+  <dimension ref="A3:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32575,8 +32629,8 @@
         <f>GETPIVOTDATA("-",$A$3,"-","N")</f>
         <v>23</v>
       </c>
-      <c r="C20" s="21">
-        <f>B20/$B$33</f>
+      <c r="C20" s="20">
+        <f>B20/$B$36</f>
         <v>0.18699186991869918</v>
       </c>
     </row>
@@ -32588,8 +32642,8 @@
         <f>GETPIVOTDATA("-",$A$3,"-","NNE")</f>
         <v>52</v>
       </c>
-      <c r="C21" s="21">
-        <f t="shared" ref="C21:C32" si="0">B21/$B$33</f>
+      <c r="C21" s="20">
+        <f>B21/$B$36</f>
         <v>0.42276422764227645</v>
       </c>
     </row>
@@ -32601,8 +32655,8 @@
         <f>GETPIVOTDATA("-",$A$3,"-","NE")</f>
         <v>14</v>
       </c>
-      <c r="C22" s="21">
-        <f t="shared" si="0"/>
+      <c r="C22" s="20">
+        <f>B22/$B$36</f>
         <v>0.11382113821138211</v>
       </c>
     </row>
@@ -32614,8 +32668,8 @@
         <f>GETPIVOTDATA("-",$A$3,"-","ENE")</f>
         <v>2</v>
       </c>
-      <c r="C23" s="21">
-        <f t="shared" si="0"/>
+      <c r="C23" s="20">
+        <f>B23/$B$36</f>
         <v>1.6260162601626018E-2</v>
       </c>
     </row>
@@ -32627,118 +32681,136 @@
         <f>GETPIVOTDATA("-",$A$3,"-","E")</f>
         <v>1</v>
       </c>
-      <c r="C24" s="21">
-        <f t="shared" si="0"/>
+      <c r="C24" s="20">
+        <f>B24/$B$36</f>
         <v>8.130081300813009E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25">
-        <f>GETPIVOTDATA("-",$A$3,"-","ESE")</f>
-        <v>1</v>
-      </c>
-      <c r="C25" s="21">
-        <f t="shared" si="0"/>
-        <v>8.130081300813009E-3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <f>GETPIVOTDATA("-",$A$3,"-","SSE")</f>
-        <v>6</v>
-      </c>
-      <c r="C26" s="21">
-        <f t="shared" si="0"/>
-        <v>4.878048780487805E-2</v>
+        <f>GETPIVOTDATA("-",$A$3,"-","ESE")</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="20">
+        <f>B26/$B$36</f>
+        <v>8.130081300813009E-3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <f>GETPIVOTDATA("-",$A$3,"-","S")</f>
-        <v>3</v>
-      </c>
-      <c r="C27" s="21">
-        <f t="shared" si="0"/>
-        <v>2.4390243902439025E-2</v>
+        <f>GETPIVOTDATA("-",$A$3,"-","SSE")</f>
+        <v>6</v>
+      </c>
+      <c r="C27" s="20">
+        <f>B27/$B$36</f>
+        <v>4.878048780487805E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <f>GETPIVOTDATA("-",$A$3,"-","SSW")</f>
-        <v>2</v>
-      </c>
-      <c r="C28" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6260162601626018E-2</v>
+        <f>GETPIVOTDATA("-",$A$3,"-","S")</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="20">
+        <f>B28/$B$36</f>
+        <v>2.4390243902439025E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <f>GETPIVOTDATA("-",$A$3,"-","SW")</f>
+        <f>GETPIVOTDATA("-",$A$3,"-","SSW")</f>
         <v>2</v>
       </c>
-      <c r="C29" s="21">
-        <f t="shared" si="0"/>
+      <c r="C29" s="20">
+        <f>B29/$B$36</f>
         <v>1.6260162601626018E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <f>GETPIVOTDATA("-",$A$3,"-","WNW")</f>
-        <v>1</v>
-      </c>
-      <c r="C30" s="21">
-        <f t="shared" si="0"/>
-        <v>8.130081300813009E-3</v>
+        <f>GETPIVOTDATA("-",$A$3,"-","SW")</f>
+        <v>2</v>
+      </c>
+      <c r="C30" s="20">
+        <f>B30/$B$36</f>
+        <v>1.6260162601626018E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31">
-        <f>GETPIVOTDATA("-",$A$3,"-","NW")</f>
-        <v>6</v>
-      </c>
-      <c r="C31" s="21">
-        <f t="shared" si="0"/>
-        <v>4.878048780487805E-2</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="20"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <f>GETPIVOTDATA("-",$A$3,"-","WNW")</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="20">
+        <f>B33/$B$36</f>
+        <v>8.130081300813009E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <f>GETPIVOTDATA("-",$A$3,"-","NW")</f>
+        <v>6</v>
+      </c>
+      <c r="C34" s="20">
+        <f>B34/$B$36</f>
+        <v>4.878048780487805E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>21</v>
       </c>
-      <c r="B32">
+      <c r="B35">
         <f>GETPIVOTDATA("-",$A$3,"-","NNW")</f>
         <v>10</v>
       </c>
-      <c r="C32" s="21">
-        <f t="shared" si="0"/>
+      <c r="C35" s="20">
+        <f>B35/$B$36</f>
         <v>8.1300813008130079E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="20">
-        <f>SUM(B20:B32)</f>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="19">
+        <f>SUM(B20:B35)</f>
         <v>123</v>
       </c>
     </row>
